--- a/grpcbenchmarking.xlsx
+++ b/grpcbenchmarking.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Desktop\grpcbenchmarking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D54E7DB9-2FD4-45A1-832E-DD05D6FBB6F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5FD2ACC-D68A-4AC1-9AB5-FFB7984E6390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="http time raw data" sheetId="2" r:id="rId2"/>
     <sheet name="grpc size raw data" sheetId="5" r:id="rId3"/>
     <sheet name="http size raw data" sheetId="6" r:id="rId4"/>
-    <sheet name="autom. formatted Data" sheetId="4" r:id="rId5"/>
+    <sheet name="automatically formatted Data" sheetId="4" r:id="rId5"/>
     <sheet name="Benchmarking" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -546,7 +546,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'autom. formatted Data'!$C$3:$C$52</c:f>
+              <c:f>'automatically formatted Data'!$C$3:$C$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
@@ -730,7 +730,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'autom. formatted Data'!$AJ$3:$AJ$52</c:f>
+              <c:f>'automatically formatted Data'!$AJ$3:$AJ$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
@@ -1308,7 +1308,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'autom. formatted Data'!$G$3:$G$52</c:f>
+              <c:f>'automatically formatted Data'!$G$3:$G$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
@@ -1492,7 +1492,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'autom. formatted Data'!$AN$3:$AN$52</c:f>
+              <c:f>'automatically formatted Data'!$AN$3:$AN$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
@@ -2099,7 +2099,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'autom. formatted Data'!$K$3:$K$52</c:f>
+              <c:f>'automatically formatted Data'!$K$3:$K$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
@@ -2283,7 +2283,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'autom. formatted Data'!$AR$3:$AR$52</c:f>
+              <c:f>'automatically formatted Data'!$AR$3:$AR$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
@@ -2862,7 +2862,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'autom. formatted Data'!$O$3:$O$52</c:f>
+              <c:f>'automatically formatted Data'!$O$3:$O$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
@@ -3046,7 +3046,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'autom. formatted Data'!$AV$3:$AV$52</c:f>
+              <c:f>'automatically formatted Data'!$AV$3:$AV$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
@@ -3624,7 +3624,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'autom. formatted Data'!$S$3:$S$52</c:f>
+              <c:f>'automatically formatted Data'!$S$3:$S$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
@@ -3808,7 +3808,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'autom. formatted Data'!$AZ$3:$AZ$52</c:f>
+              <c:f>'automatically formatted Data'!$AZ$3:$AZ$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
@@ -4431,7 +4431,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'autom. formatted Data'!$W$3:$W$52</c:f>
+              <c:f>'automatically formatted Data'!$W$3:$W$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
@@ -4615,7 +4615,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'autom. formatted Data'!$BD$3:$BD$52</c:f>
+              <c:f>'automatically formatted Data'!$BD$3:$BD$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
@@ -4799,7 +4799,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'autom. formatted Data'!$BG$3:$BG$52</c:f>
+              <c:f>'automatically formatted Data'!$BG$3:$BG$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
@@ -5312,7 +5312,7 @@
               <a:rPr lang="de-DE" b="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Size Response Small</a:t>
+              <a:t>Size Request Big</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="de-DE" b="0" baseline="0">
@@ -5395,7 +5395,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'autom. formatted Data'!$AC$3:$AC$52</c:f>
+              <c:f>'automatically formatted Data'!$AC$3:$AC$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
@@ -5579,7 +5579,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'autom. formatted Data'!$BP$3:$BP$52</c:f>
+              <c:f>'automatically formatted Data'!$BP$3:$BP$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
@@ -5763,7 +5763,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'autom. formatted Data'!$BS$3:$BS$52</c:f>
+              <c:f>'automatically formatted Data'!$BS$3:$BS$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
@@ -6354,7 +6354,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>grpc_sizes_1</c:v>
+            <c:v>grpc_sizes_response_small</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -6370,7 +6370,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'autom. formatted Data'!$Z$3:$Z$52</c:f>
+              <c:f>'automatically formatted Data'!$Z$3:$Z$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
@@ -6538,7 +6538,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>http_sizes_response_small</c:v>
+            <c:v>http_sizes_response_small_total</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -6554,7 +6554,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'autom. formatted Data'!$BJ$3:$BJ$52</c:f>
+              <c:f>'automatically formatted Data'!$BJ$3:$BJ$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
@@ -6738,7 +6738,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'autom. formatted Data'!$BM$3:$BM$52</c:f>
+              <c:f>'automatically formatted Data'!$BM$3:$BM$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
@@ -7292,7 +7292,7 @@
               <a:rPr lang="de-DE" b="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Size Response Small</a:t>
+              <a:t>Size Response Big</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="de-DE" b="0" baseline="0">
@@ -7375,7 +7375,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'autom. formatted Data'!$AF$3:$AF$52</c:f>
+              <c:f>'automatically formatted Data'!$AF$3:$AF$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
@@ -7559,7 +7559,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'autom. formatted Data'!$BV$3:$BV$52</c:f>
+              <c:f>'automatically formatted Data'!$BV$3:$BV$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
@@ -7743,7 +7743,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'autom. formatted Data'!$BY$3:$BY$52</c:f>
+              <c:f>'automatically formatted Data'!$BY$3:$BY$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
@@ -24171,7 +24171,7 @@
   <dimension ref="A1:BY52"/>
   <sheetViews>
     <sheetView topLeftCell="AQ1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BP1" sqref="BP1:BP1048576"/>
+      <selection activeCell="BS8" sqref="BS8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39782,23 +39782,23 @@
         <v>11</v>
       </c>
       <c r="C4" s="5">
-        <f>'autom. formatted Data'!D3</f>
+        <f>'automatically formatted Data'!D3</f>
         <v>855.89392819999978</v>
       </c>
       <c r="D4" s="5">
-        <f>'autom. formatted Data'!H3</f>
+        <f>'automatically formatted Data'!H3</f>
         <v>905.26442219999967</v>
       </c>
       <c r="E4" s="5">
-        <f>'autom. formatted Data'!L3</f>
+        <f>'automatically formatted Data'!L3</f>
         <v>0.79489799999999999</v>
       </c>
       <c r="F4" s="5">
-        <f>'autom. formatted Data'!P3</f>
+        <f>'automatically formatted Data'!P3</f>
         <v>23.922067999999999</v>
       </c>
       <c r="G4" s="13">
-        <f>'autom. formatted Data'!T3</f>
+        <f>'automatically formatted Data'!T3</f>
         <v>21.0013802</v>
       </c>
       <c r="H4" s="5"/>
@@ -39814,11 +39814,11 @@
         <v>0</v>
       </c>
       <c r="S4" s="20">
-        <f>AVERAGE('autom. formatted Data'!W3:W52,'autom. formatted Data'!Z3:Z52)</f>
+        <f>AVERAGE('automatically formatted Data'!W3:W52,'automatically formatted Data'!Z3:Z52)</f>
         <v>25</v>
       </c>
       <c r="T4" s="21">
-        <f>AVERAGE('autom. formatted Data'!AC3:AC52,'autom. formatted Data'!AF3:AF52)</f>
+        <f>AVERAGE('automatically formatted Data'!AC3:AC52,'automatically formatted Data'!AF3:AF52)</f>
         <v>353.99990300000013</v>
       </c>
     </row>
@@ -39830,23 +39830,23 @@
         <v>12</v>
       </c>
       <c r="C5" s="5">
-        <f>'autom. formatted Data'!AK3</f>
+        <f>'automatically formatted Data'!AK3</f>
         <v>5845.5942747999998</v>
       </c>
       <c r="D5" s="5">
-        <f>'autom. formatted Data'!AO3</f>
+        <f>'automatically formatted Data'!AO3</f>
         <v>3988.7647646000009</v>
       </c>
       <c r="E5" s="5">
-        <f>'autom. formatted Data'!AS3</f>
+        <f>'automatically formatted Data'!AS3</f>
         <v>2.5108271999999996</v>
       </c>
       <c r="F5" s="5">
-        <f>'autom. formatted Data'!AW3</f>
+        <f>'automatically formatted Data'!AW3</f>
         <v>50.261631999999992</v>
       </c>
       <c r="G5" s="13">
-        <f>'autom. formatted Data'!BA3</f>
+        <f>'automatically formatted Data'!BA3</f>
         <v>24.711695599999999</v>
       </c>
       <c r="H5" s="5"/>
@@ -39862,11 +39862,11 @@
         <v>1</v>
       </c>
       <c r="S5" s="5">
-        <f>AVERAGE('autom. formatted Data'!BD3:BD52,'autom. formatted Data'!BJ3:BJ52)</f>
+        <f>AVERAGE('automatically formatted Data'!BD3:BD52,'automatically formatted Data'!BJ3:BJ52)</f>
         <v>61</v>
       </c>
       <c r="T5" s="13">
-        <f>AVERAGE('autom. formatted Data'!BP3:BP52,'autom. formatted Data'!BV3:BV52)</f>
+        <f>AVERAGE('automatically formatted Data'!BP3:BP52,'automatically formatted Data'!BV3:BV52)</f>
         <v>356.71215650000079</v>
       </c>
     </row>

--- a/grpcbenchmarking.xlsx
+++ b/grpcbenchmarking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Desktop\grpcbenchmarking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5FD2ACC-D68A-4AC1-9AB5-FFB7984E6390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4092BECB-050F-426E-9B21-307AC1BDA060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14290,7 +14290,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -14299,7 +14299,7 @@
         <v>891695640</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -14308,7 +14308,7 @@
         <v>864522090</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H11">
         <v>2</v>
@@ -14317,7 +14317,7 @@
         <v>770550</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -14326,7 +14326,7 @@
         <v>23589520</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N11">
         <v>4</v>
@@ -14337,7 +14337,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -14346,7 +14346,7 @@
         <v>910409350</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -14355,7 +14355,7 @@
         <v>870102870</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H12">
         <v>2</v>
@@ -14364,7 +14364,7 @@
         <v>870000</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -14373,7 +14373,7 @@
         <v>24250030</v>
       </c>
       <c r="M12">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="N12">
         <v>4</v>
@@ -14384,7 +14384,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -14393,7 +14393,7 @@
         <v>863542190</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -14402,7 +14402,7 @@
         <v>852200330</v>
       </c>
       <c r="G13">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="H13">
         <v>2</v>
@@ -14411,7 +14411,7 @@
         <v>301700</v>
       </c>
       <c r="J13">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -14420,7 +14420,7 @@
         <v>24521360</v>
       </c>
       <c r="M13">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="N13">
         <v>4</v>
@@ -14431,7 +14431,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -14440,7 +14440,7 @@
         <v>868304000</v>
       </c>
       <c r="D14">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -14449,7 +14449,7 @@
         <v>857332210</v>
       </c>
       <c r="G14">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="H14">
         <v>2</v>
@@ -14458,7 +14458,7 @@
         <v>952790</v>
       </c>
       <c r="J14">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -14467,7 +14467,7 @@
         <v>24329300</v>
       </c>
       <c r="M14">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="N14">
         <v>4</v>
@@ -14478,7 +14478,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -14487,7 +14487,7 @@
         <v>896604930</v>
       </c>
       <c r="D15">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -14496,7 +14496,7 @@
         <v>861449620</v>
       </c>
       <c r="G15">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="H15">
         <v>2</v>
@@ -14505,7 +14505,7 @@
         <v>1135490</v>
       </c>
       <c r="J15">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -14514,7 +14514,7 @@
         <v>24712090</v>
       </c>
       <c r="M15">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="N15">
         <v>4</v>
@@ -14525,7 +14525,7 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -14534,7 +14534,7 @@
         <v>839455670</v>
       </c>
       <c r="D16">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -14543,7 +14543,7 @@
         <v>850669660</v>
       </c>
       <c r="G16">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="H16">
         <v>2</v>
@@ -14552,7 +14552,7 @@
         <v>649970</v>
       </c>
       <c r="J16">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -14561,7 +14561,7 @@
         <v>24703380</v>
       </c>
       <c r="M16">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="N16">
         <v>4</v>
@@ -14572,7 +14572,7 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -14581,7 +14581,7 @@
         <v>840172400</v>
       </c>
       <c r="D17">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -14590,7 +14590,7 @@
         <v>857102990</v>
       </c>
       <c r="G17">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="H17">
         <v>2</v>
@@ -14599,7 +14599,7 @@
         <v>1274670</v>
       </c>
       <c r="J17">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -14608,7 +14608,7 @@
         <v>24219720</v>
       </c>
       <c r="M17">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="N17">
         <v>4</v>
@@ -14619,7 +14619,7 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -14628,7 +14628,7 @@
         <v>816452950</v>
       </c>
       <c r="D18">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -14637,7 +14637,7 @@
         <v>843049180</v>
       </c>
       <c r="G18">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="H18">
         <v>2</v>
@@ -14646,7 +14646,7 @@
         <v>624970</v>
       </c>
       <c r="J18">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -14655,7 +14655,7 @@
         <v>24580290</v>
       </c>
       <c r="M18">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="N18">
         <v>4</v>
@@ -14666,7 +14666,7 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -14675,7 +14675,7 @@
         <v>862697530</v>
       </c>
       <c r="D19">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -14684,7 +14684,7 @@
         <v>850285380</v>
       </c>
       <c r="G19">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="H19">
         <v>2</v>
@@ -14693,7 +14693,7 @@
         <v>513860</v>
       </c>
       <c r="J19">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -14702,7 +14702,7 @@
         <v>24397840</v>
       </c>
       <c r="M19">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="N19">
         <v>4</v>
@@ -14713,7 +14713,7 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -14722,7 +14722,7 @@
         <v>838733150</v>
       </c>
       <c r="D20">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -14731,7 +14731,7 @@
         <v>885473250</v>
       </c>
       <c r="G20">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="H20">
         <v>2</v>
@@ -14740,7 +14740,7 @@
         <v>984100</v>
       </c>
       <c r="J20">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -14749,7 +14749,7 @@
         <v>24431300</v>
       </c>
       <c r="M20">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="N20">
         <v>4</v>
@@ -14760,7 +14760,7 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -14769,7 +14769,7 @@
         <v>873395990</v>
       </c>
       <c r="D21">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -14778,7 +14778,7 @@
         <v>849938270</v>
       </c>
       <c r="G21">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H21">
         <v>2</v>
@@ -14787,7 +14787,7 @@
         <v>1006820</v>
       </c>
       <c r="J21">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -14796,7 +14796,7 @@
         <v>24286520</v>
       </c>
       <c r="M21">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N21">
         <v>4</v>
@@ -14807,7 +14807,7 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -14816,7 +14816,7 @@
         <v>846591590</v>
       </c>
       <c r="D22">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -14825,7 +14825,7 @@
         <v>936455500</v>
       </c>
       <c r="G22">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="H22">
         <v>2</v>
@@ -14834,7 +14834,7 @@
         <v>1359040</v>
       </c>
       <c r="J22">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -14843,7 +14843,7 @@
         <v>28617110</v>
       </c>
       <c r="M22">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="N22">
         <v>4</v>
@@ -14854,7 +14854,7 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -14863,7 +14863,7 @@
         <v>856329590</v>
       </c>
       <c r="D23">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -14872,7 +14872,7 @@
         <v>896639160</v>
       </c>
       <c r="G23">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="H23">
         <v>2</v>
@@ -14881,7 +14881,7 @@
         <v>1005690</v>
       </c>
       <c r="J23">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -14890,7 +14890,7 @@
         <v>24899210</v>
       </c>
       <c r="M23">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="N23">
         <v>4</v>
@@ -14901,7 +14901,7 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -14910,7 +14910,7 @@
         <v>963769240</v>
       </c>
       <c r="D24">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -14919,7 +14919,7 @@
         <v>876510760</v>
       </c>
       <c r="G24">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H24">
         <v>2</v>
@@ -14928,7 +14928,7 @@
         <v>1065490</v>
       </c>
       <c r="J24">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -14937,7 +14937,7 @@
         <v>24969550</v>
       </c>
       <c r="M24">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="N24">
         <v>4</v>
@@ -14948,7 +14948,7 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -14957,7 +14957,7 @@
         <v>849652310</v>
       </c>
       <c r="D25">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -14966,7 +14966,7 @@
         <v>847356290</v>
       </c>
       <c r="G25">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="H25">
         <v>2</v>
@@ -14975,7 +14975,7 @@
         <v>946460</v>
       </c>
       <c r="J25">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -14984,7 +14984,7 @@
         <v>25166650</v>
       </c>
       <c r="M25">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="N25">
         <v>4</v>
@@ -14995,7 +14995,7 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -15004,7 +15004,7 @@
         <v>849774250</v>
       </c>
       <c r="D26">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -15013,7 +15013,7 @@
         <v>857511520</v>
       </c>
       <c r="G26">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H26">
         <v>2</v>
@@ -15022,7 +15022,7 @@
         <v>346290</v>
       </c>
       <c r="J26">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -15031,7 +15031,7 @@
         <v>26161710</v>
       </c>
       <c r="M26">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N26">
         <v>4</v>
@@ -15042,7 +15042,7 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -15051,7 +15051,7 @@
         <v>846443730</v>
       </c>
       <c r="D27">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -15060,7 +15060,7 @@
         <v>853984090</v>
       </c>
       <c r="G27">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H27">
         <v>2</v>
@@ -15069,7 +15069,7 @@
         <v>272510</v>
       </c>
       <c r="J27">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -15078,7 +15078,7 @@
         <v>24412760</v>
       </c>
       <c r="M27">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="N27">
         <v>4</v>
@@ -15089,7 +15089,7 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -15098,7 +15098,7 @@
         <v>827366000</v>
       </c>
       <c r="D28">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -15107,7 +15107,7 @@
         <v>842689710</v>
       </c>
       <c r="G28">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="H28">
         <v>2</v>
@@ -15116,7 +15116,7 @@
         <v>502190</v>
       </c>
       <c r="J28">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -15125,7 +15125,7 @@
         <v>25344120</v>
       </c>
       <c r="M28">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="N28">
         <v>4</v>
@@ -15136,7 +15136,7 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -15145,7 +15145,7 @@
         <v>862958440</v>
       </c>
       <c r="D29">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -15154,7 +15154,7 @@
         <v>858301830</v>
       </c>
       <c r="G29">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H29">
         <v>2</v>
@@ -15163,7 +15163,7 @@
         <v>411340</v>
       </c>
       <c r="J29">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -15172,7 +15172,7 @@
         <v>24399650</v>
       </c>
       <c r="M29">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="N29">
         <v>4</v>
@@ -15183,7 +15183,7 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -15192,7 +15192,7 @@
         <v>848678400</v>
       </c>
       <c r="D30">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -15201,7 +15201,7 @@
         <v>851515550</v>
       </c>
       <c r="G30">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H30">
         <v>2</v>
@@ -15210,7 +15210,7 @@
         <v>882680</v>
       </c>
       <c r="J30">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -15219,7 +15219,7 @@
         <v>24215960</v>
       </c>
       <c r="M30">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="N30">
         <v>4</v>
@@ -15230,7 +15230,7 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -15239,7 +15239,7 @@
         <v>859119980</v>
       </c>
       <c r="D31">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -15248,7 +15248,7 @@
         <v>855139450</v>
       </c>
       <c r="G31">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H31">
         <v>2</v>
@@ -15257,7 +15257,7 @@
         <v>671620</v>
       </c>
       <c r="J31">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -15266,7 +15266,7 @@
         <v>24503920</v>
       </c>
       <c r="M31">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N31">
         <v>4</v>
@@ -15277,7 +15277,7 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -15286,7 +15286,7 @@
         <v>836171560</v>
       </c>
       <c r="D32">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -15295,7 +15295,7 @@
         <v>855206720</v>
       </c>
       <c r="G32">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="H32">
         <v>2</v>
@@ -15304,7 +15304,7 @@
         <v>1152520</v>
       </c>
       <c r="J32">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -15313,7 +15313,7 @@
         <v>24267290</v>
       </c>
       <c r="M32">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="N32">
         <v>4</v>
@@ -15324,7 +15324,7 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -15333,7 +15333,7 @@
         <v>843011910</v>
       </c>
       <c r="D33">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -15342,7 +15342,7 @@
         <v>850617860</v>
       </c>
       <c r="G33">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H33">
         <v>2</v>
@@ -15351,7 +15351,7 @@
         <v>1262230</v>
       </c>
       <c r="J33">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -15360,7 +15360,7 @@
         <v>24346960</v>
       </c>
       <c r="M33">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="N33">
         <v>4</v>
@@ -15371,7 +15371,7 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -15380,7 +15380,7 @@
         <v>840041110</v>
       </c>
       <c r="D34">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -15389,7 +15389,7 @@
         <v>862787740</v>
       </c>
       <c r="G34">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="H34">
         <v>2</v>
@@ -15398,7 +15398,7 @@
         <v>872790</v>
       </c>
       <c r="J34">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -15407,7 +15407,7 @@
         <v>22057440</v>
       </c>
       <c r="M34">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="N34">
         <v>4</v>
@@ -15418,7 +15418,7 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -15427,7 +15427,7 @@
         <v>942873110</v>
       </c>
       <c r="D35">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -15436,7 +15436,7 @@
         <v>842490030</v>
       </c>
       <c r="G35">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="H35">
         <v>2</v>
@@ -15445,7 +15445,7 @@
         <v>900530</v>
       </c>
       <c r="J35">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -15454,7 +15454,7 @@
         <v>22463080</v>
       </c>
       <c r="M35">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="N35">
         <v>4</v>
@@ -15465,7 +15465,7 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -15474,7 +15474,7 @@
         <v>819520740</v>
       </c>
       <c r="D36">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -15483,7 +15483,7 @@
         <v>845947540</v>
       </c>
       <c r="G36">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="H36">
         <v>2</v>
@@ -15492,7 +15492,7 @@
         <v>1003730</v>
       </c>
       <c r="J36">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -15501,7 +15501,7 @@
         <v>22660370</v>
       </c>
       <c r="M36">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="N36">
         <v>4</v>
@@ -15512,7 +15512,7 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -15521,7 +15521,7 @@
         <v>848359870</v>
       </c>
       <c r="D37">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -15530,7 +15530,7 @@
         <v>845328100</v>
       </c>
       <c r="G37">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="H37">
         <v>2</v>
@@ -15539,7 +15539,7 @@
         <v>1099830</v>
       </c>
       <c r="J37">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -15548,7 +15548,7 @@
         <v>22402040</v>
       </c>
       <c r="M37">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="N37">
         <v>4</v>
@@ -15559,7 +15559,7 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -15568,7 +15568,7 @@
         <v>826227610</v>
       </c>
       <c r="D38">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -15577,7 +15577,7 @@
         <v>845233230</v>
       </c>
       <c r="G38">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="H38">
         <v>2</v>
@@ -15586,7 +15586,7 @@
         <v>964400</v>
       </c>
       <c r="J38">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="K38">
         <v>3</v>
@@ -15595,7 +15595,7 @@
         <v>21894990</v>
       </c>
       <c r="M38">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="N38">
         <v>4</v>
@@ -15606,7 +15606,7 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -15615,7 +15615,7 @@
         <v>836794460</v>
       </c>
       <c r="D39">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -15624,7 +15624,7 @@
         <v>851693270</v>
       </c>
       <c r="G39">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="H39">
         <v>2</v>
@@ -15633,7 +15633,7 @@
         <v>637680</v>
       </c>
       <c r="J39">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="K39">
         <v>3</v>
@@ -15642,7 +15642,7 @@
         <v>22397340</v>
       </c>
       <c r="M39">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N39">
         <v>4</v>
@@ -15653,7 +15653,7 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -15662,7 +15662,7 @@
         <v>835837210</v>
       </c>
       <c r="D40">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -15671,7 +15671,7 @@
         <v>845411880</v>
       </c>
       <c r="G40">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H40">
         <v>2</v>
@@ -15680,7 +15680,7 @@
         <v>937850</v>
       </c>
       <c r="J40">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="K40">
         <v>3</v>
@@ -15689,7 +15689,7 @@
         <v>21926000</v>
       </c>
       <c r="M40">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="N40">
         <v>4</v>
@@ -15700,7 +15700,7 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -15709,7 +15709,7 @@
         <v>936953100</v>
       </c>
       <c r="D41">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -15718,7 +15718,7 @@
         <v>844759270</v>
       </c>
       <c r="G41">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H41">
         <v>2</v>
@@ -15727,7 +15727,7 @@
         <v>433340</v>
       </c>
       <c r="J41">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K41">
         <v>3</v>
@@ -15736,7 +15736,7 @@
         <v>23532500</v>
       </c>
       <c r="M41">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N41">
         <v>4</v>
@@ -15747,7 +15747,7 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -15756,7 +15756,7 @@
         <v>831379190</v>
       </c>
       <c r="D42">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -15765,7 +15765,7 @@
         <v>838692600</v>
       </c>
       <c r="G42">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H42">
         <v>2</v>
@@ -15774,7 +15774,7 @@
         <v>592440</v>
       </c>
       <c r="J42">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="K42">
         <v>3</v>
@@ -15783,7 +15783,7 @@
         <v>22160040</v>
       </c>
       <c r="M42">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="N42">
         <v>4</v>
@@ -15794,7 +15794,7 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -15803,7 +15803,7 @@
         <v>840819410</v>
       </c>
       <c r="D43">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -15812,7 +15812,7 @@
         <v>875925070</v>
       </c>
       <c r="G43">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H43">
         <v>2</v>
@@ -15821,7 +15821,7 @@
         <v>973610</v>
       </c>
       <c r="J43">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="K43">
         <v>3</v>
@@ -15830,7 +15830,7 @@
         <v>23204250</v>
       </c>
       <c r="M43">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="N43">
         <v>4</v>
@@ -15841,7 +15841,7 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -15850,7 +15850,7 @@
         <v>827877530</v>
       </c>
       <c r="D44">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -15859,7 +15859,7 @@
         <v>843654520</v>
       </c>
       <c r="G44">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H44">
         <v>2</v>
@@ -15868,7 +15868,7 @@
         <v>987610</v>
       </c>
       <c r="J44">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="K44">
         <v>3</v>
@@ -15877,7 +15877,7 @@
         <v>23942160</v>
       </c>
       <c r="M44">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="N44">
         <v>4</v>
@@ -15888,7 +15888,7 @@
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -15897,7 +15897,7 @@
         <v>826089420</v>
       </c>
       <c r="D45">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -15906,7 +15906,7 @@
         <v>835281790</v>
       </c>
       <c r="G45">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H45">
         <v>2</v>
@@ -15915,7 +15915,7 @@
         <v>1120380</v>
       </c>
       <c r="J45">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="K45">
         <v>3</v>
@@ -15924,7 +15924,7 @@
         <v>22498820</v>
       </c>
       <c r="M45">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="N45">
         <v>4</v>
@@ -15935,7 +15935,7 @@
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -15944,7 +15944,7 @@
         <v>826195810</v>
       </c>
       <c r="D46">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -15953,7 +15953,7 @@
         <v>841720360</v>
       </c>
       <c r="G46">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H46">
         <v>2</v>
@@ -15962,7 +15962,7 @@
         <v>543390</v>
       </c>
       <c r="J46">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="K46">
         <v>3</v>
@@ -15971,7 +15971,7 @@
         <v>21895700</v>
       </c>
       <c r="M46">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="N46">
         <v>4</v>
@@ -15982,7 +15982,7 @@
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -15991,7 +15991,7 @@
         <v>846799000</v>
       </c>
       <c r="D47">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -16000,7 +16000,7 @@
         <v>934620830</v>
       </c>
       <c r="G47">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H47">
         <v>2</v>
@@ -16009,7 +16009,7 @@
         <v>482550</v>
       </c>
       <c r="J47">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="K47">
         <v>3</v>
@@ -16018,7 +16018,7 @@
         <v>22789800</v>
       </c>
       <c r="M47">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="N47">
         <v>4</v>
@@ -16029,7 +16029,7 @@
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -16038,7 +16038,7 @@
         <v>843064330</v>
       </c>
       <c r="D48">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -16047,7 +16047,7 @@
         <v>846993400</v>
       </c>
       <c r="G48">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="H48">
         <v>2</v>
@@ -16056,7 +16056,7 @@
         <v>870550</v>
       </c>
       <c r="J48">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="K48">
         <v>3</v>
@@ -16065,7 +16065,7 @@
         <v>22290820</v>
       </c>
       <c r="M48">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="N48">
         <v>4</v>
@@ -16076,7 +16076,7 @@
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -16085,7 +16085,7 @@
         <v>822953690</v>
       </c>
       <c r="D49">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -16094,7 +16094,7 @@
         <v>837236880</v>
       </c>
       <c r="G49">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H49">
         <v>2</v>
@@ -16103,7 +16103,7 @@
         <v>824660</v>
       </c>
       <c r="J49">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="K49">
         <v>3</v>
@@ -16112,7 +16112,7 @@
         <v>22094200</v>
       </c>
       <c r="M49">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="N49">
         <v>4</v>
@@ -16123,7 +16123,7 @@
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -16132,7 +16132,7 @@
         <v>825753100</v>
       </c>
       <c r="D50">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -16141,7 +16141,7 @@
         <v>838482480</v>
       </c>
       <c r="G50">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H50">
         <v>2</v>
@@ -16150,7 +16150,7 @@
         <v>1172760</v>
       </c>
       <c r="J50">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="K50">
         <v>3</v>
@@ -16159,7 +16159,7 @@
         <v>23126760</v>
       </c>
       <c r="M50">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="N50">
         <v>4</v>
@@ -16653,7 +16653,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -16662,7 +16662,7 @@
         <v>4535536770</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -16671,7 +16671,7 @@
         <v>3983347990</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H11">
         <v>2</v>
@@ -16680,7 +16680,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -16689,7 +16689,7 @@
         <v>66104390</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N11">
         <v>4</v>
@@ -16700,7 +16700,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -16709,7 +16709,7 @@
         <v>6205615660</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -16718,7 +16718,7 @@
         <v>5624142200</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H12">
         <v>2</v>
@@ -16727,7 +16727,7 @@
         <v>2318720</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -16736,7 +16736,7 @@
         <v>47638530</v>
       </c>
       <c r="M12">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="N12">
         <v>4</v>
@@ -16747,7 +16747,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -16756,7 +16756,7 @@
         <v>5469106670</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -16765,7 +16765,7 @@
         <v>4212959730</v>
       </c>
       <c r="G13">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="H13">
         <v>2</v>
@@ -16774,7 +16774,7 @@
         <v>1055040</v>
       </c>
       <c r="J13">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -16783,7 +16783,7 @@
         <v>49311590</v>
       </c>
       <c r="M13">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="N13">
         <v>4</v>
@@ -16794,7 +16794,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -16803,7 +16803,7 @@
         <v>7348305280</v>
       </c>
       <c r="D14">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -16812,7 +16812,7 @@
         <v>5536650300</v>
       </c>
       <c r="G14">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="H14">
         <v>2</v>
@@ -16821,7 +16821,7 @@
         <v>2066300</v>
       </c>
       <c r="J14">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -16830,7 +16830,7 @@
         <v>53031110</v>
       </c>
       <c r="M14">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="N14">
         <v>4</v>
@@ -16841,7 +16841,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -16850,7 +16850,7 @@
         <v>7037139930</v>
       </c>
       <c r="D15">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -16859,7 +16859,7 @@
         <v>3079565940</v>
       </c>
       <c r="G15">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="H15">
         <v>2</v>
@@ -16868,7 +16868,7 @@
         <v>4501870</v>
       </c>
       <c r="J15">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -16877,7 +16877,7 @@
         <v>59272480</v>
       </c>
       <c r="M15">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="N15">
         <v>4</v>
@@ -16888,7 +16888,7 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -16897,7 +16897,7 @@
         <v>4613754610</v>
       </c>
       <c r="D16">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -16906,7 +16906,7 @@
         <v>4210776360</v>
       </c>
       <c r="G16">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="H16">
         <v>2</v>
@@ -16915,7 +16915,7 @@
         <v>3607740</v>
       </c>
       <c r="J16">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -16924,7 +16924,7 @@
         <v>39198270</v>
       </c>
       <c r="M16">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="N16">
         <v>4</v>
@@ -16935,7 +16935,7 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -16944,7 +16944,7 @@
         <v>6174420550</v>
       </c>
       <c r="D17">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -16953,7 +16953,7 @@
         <v>3914683730</v>
       </c>
       <c r="G17">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="H17">
         <v>2</v>
@@ -16962,7 +16962,7 @@
         <v>1100100</v>
       </c>
       <c r="J17">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -16971,7 +16971,7 @@
         <v>33305500</v>
       </c>
       <c r="M17">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="N17">
         <v>4</v>
@@ -16982,7 +16982,7 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -16991,7 +16991,7 @@
         <v>5068555510</v>
       </c>
       <c r="D18">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -17000,7 +17000,7 @@
         <v>3385613110</v>
       </c>
       <c r="G18">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="H18">
         <v>2</v>
@@ -17009,7 +17009,7 @@
         <v>550100</v>
       </c>
       <c r="J18">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -17018,7 +17018,7 @@
         <v>30174120</v>
       </c>
       <c r="M18">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="N18">
         <v>4</v>
@@ -17029,7 +17029,7 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -17038,7 +17038,7 @@
         <v>6485547780</v>
       </c>
       <c r="D19">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -17047,7 +17047,7 @@
         <v>4432821850</v>
       </c>
       <c r="G19">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="H19">
         <v>2</v>
@@ -17056,7 +17056,7 @@
         <v>830830</v>
       </c>
       <c r="J19">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -17065,7 +17065,7 @@
         <v>46965910</v>
       </c>
       <c r="M19">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="N19">
         <v>4</v>
@@ -17076,7 +17076,7 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -17085,7 +17085,7 @@
         <v>6592093850</v>
       </c>
       <c r="D20">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -17094,7 +17094,7 @@
         <v>4879481360</v>
       </c>
       <c r="G20">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="H20">
         <v>2</v>
@@ -17103,7 +17103,7 @@
         <v>629300</v>
       </c>
       <c r="J20">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -17112,7 +17112,7 @@
         <v>44781120</v>
       </c>
       <c r="M20">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="N20">
         <v>4</v>
@@ -17123,7 +17123,7 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -17132,7 +17132,7 @@
         <v>6329088000</v>
       </c>
       <c r="D21">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -17141,7 +17141,7 @@
         <v>3416578780</v>
       </c>
       <c r="G21">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H21">
         <v>2</v>
@@ -17150,7 +17150,7 @@
         <v>2234460</v>
       </c>
       <c r="J21">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -17159,7 +17159,7 @@
         <v>37796410</v>
       </c>
       <c r="M21">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N21">
         <v>4</v>
@@ -17170,7 +17170,7 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -17179,7 +17179,7 @@
         <v>4534978310</v>
       </c>
       <c r="D22">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -17188,7 +17188,7 @@
         <v>3989260000</v>
       </c>
       <c r="G22">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="H22">
         <v>2</v>
@@ -17197,7 +17197,7 @@
         <v>8301850</v>
       </c>
       <c r="J22">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -17206,7 +17206,7 @@
         <v>71006600</v>
       </c>
       <c r="M22">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="N22">
         <v>4</v>
@@ -17217,7 +17217,7 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -17226,7 +17226,7 @@
         <v>6395857790</v>
       </c>
       <c r="D23">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -17235,7 +17235,7 @@
         <v>5893759750</v>
       </c>
       <c r="G23">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="H23">
         <v>2</v>
@@ -17244,7 +17244,7 @@
         <v>3070410</v>
       </c>
       <c r="J23">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -17253,7 +17253,7 @@
         <v>52209060</v>
       </c>
       <c r="M23">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="N23">
         <v>4</v>
@@ -17264,7 +17264,7 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -17273,7 +17273,7 @@
         <v>7479924000</v>
       </c>
       <c r="D24">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -17282,7 +17282,7 @@
         <v>2966641310</v>
       </c>
       <c r="G24">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H24">
         <v>2</v>
@@ -17291,7 +17291,7 @@
         <v>2882290</v>
       </c>
       <c r="J24">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -17300,7 +17300,7 @@
         <v>48690800</v>
       </c>
       <c r="M24">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="N24">
         <v>4</v>
@@ -17311,7 +17311,7 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -17320,7 +17320,7 @@
         <v>5616755450</v>
       </c>
       <c r="D25">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -17329,7 +17329,7 @@
         <v>3086685980</v>
       </c>
       <c r="G25">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="H25">
         <v>2</v>
@@ -17338,7 +17338,7 @@
         <v>1818380</v>
       </c>
       <c r="J25">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -17347,7 +17347,7 @@
         <v>112969320</v>
       </c>
       <c r="M25">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="N25">
         <v>4</v>
@@ -17358,7 +17358,7 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -17367,7 +17367,7 @@
         <v>5392500010</v>
       </c>
       <c r="D26">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -17376,7 +17376,7 @@
         <v>2626619900</v>
       </c>
       <c r="G26">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H26">
         <v>2</v>
@@ -17385,7 +17385,7 @@
         <v>3837060</v>
       </c>
       <c r="J26">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -17394,7 +17394,7 @@
         <v>55814600</v>
       </c>
       <c r="M26">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N26">
         <v>4</v>
@@ -17405,7 +17405,7 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -17414,7 +17414,7 @@
         <v>5144757820</v>
       </c>
       <c r="D27">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -17423,7 +17423,7 @@
         <v>4108785750</v>
       </c>
       <c r="G27">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H27">
         <v>2</v>
@@ -17432,7 +17432,7 @@
         <v>2906350</v>
       </c>
       <c r="J27">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -17441,7 +17441,7 @@
         <v>80786040</v>
       </c>
       <c r="M27">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="N27">
         <v>4</v>
@@ -17452,7 +17452,7 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -17461,7 +17461,7 @@
         <v>6382553600</v>
       </c>
       <c r="D28">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -17470,7 +17470,7 @@
         <v>5092250860</v>
       </c>
       <c r="G28">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="H28">
         <v>2</v>
@@ -17479,7 +17479,7 @@
         <v>1051970</v>
       </c>
       <c r="J28">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -17488,7 +17488,7 @@
         <v>40400340</v>
       </c>
       <c r="M28">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="N28">
         <v>4</v>
@@ -17499,7 +17499,7 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -17508,7 +17508,7 @@
         <v>6144993490</v>
       </c>
       <c r="D29">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -17517,7 +17517,7 @@
         <v>3627388210</v>
       </c>
       <c r="G29">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H29">
         <v>2</v>
@@ -17526,7 +17526,7 @@
         <v>2228560</v>
       </c>
       <c r="J29">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -17535,7 +17535,7 @@
         <v>47316860</v>
       </c>
       <c r="M29">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="N29">
         <v>4</v>
@@ -17546,7 +17546,7 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -17555,7 +17555,7 @@
         <v>5791363340</v>
       </c>
       <c r="D30">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -17564,7 +17564,7 @@
         <v>4078444650</v>
       </c>
       <c r="G30">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H30">
         <v>2</v>
@@ -17573,7 +17573,7 @@
         <v>1182940</v>
       </c>
       <c r="J30">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -17582,7 +17582,7 @@
         <v>49507040</v>
       </c>
       <c r="M30">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="N30">
         <v>4</v>
@@ -17593,7 +17593,7 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -17602,7 +17602,7 @@
         <v>7813809730</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -17611,7 +17611,7 @@
         <v>5261679340</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H31">
         <v>2</v>
@@ -17620,7 +17620,7 @@
         <v>950880</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -17629,7 +17629,7 @@
         <v>40437100</v>
       </c>
       <c r="M31">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="N31">
         <v>4</v>
@@ -17640,7 +17640,7 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -17649,7 +17649,7 @@
         <v>5732946300</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -17658,7 +17658,7 @@
         <v>3142257480</v>
       </c>
       <c r="G32">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="H32">
         <v>2</v>
@@ -17667,7 +17667,7 @@
         <v>5301210</v>
       </c>
       <c r="J32">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -17676,7 +17676,7 @@
         <v>41011730</v>
       </c>
       <c r="M32">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="N32">
         <v>4</v>
@@ -17687,7 +17687,7 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -17696,7 +17696,7 @@
         <v>4441777730</v>
       </c>
       <c r="D33">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -17705,7 +17705,7 @@
         <v>2823283650</v>
       </c>
       <c r="G33">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="H33">
         <v>2</v>
@@ -17714,7 +17714,7 @@
         <v>3267910</v>
       </c>
       <c r="J33">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -17723,7 +17723,7 @@
         <v>95499980</v>
       </c>
       <c r="M33">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="N33">
         <v>4</v>
@@ -17734,7 +17734,7 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -17743,7 +17743,7 @@
         <v>5463785090</v>
       </c>
       <c r="D34">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -17752,7 +17752,7 @@
         <v>3762909040</v>
       </c>
       <c r="G34">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="H34">
         <v>2</v>
@@ -17761,7 +17761,7 @@
         <v>2272420</v>
       </c>
       <c r="J34">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -17770,7 +17770,7 @@
         <v>59725310</v>
       </c>
       <c r="M34">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="N34">
         <v>4</v>
@@ -17781,7 +17781,7 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -17790,7 +17790,7 @@
         <v>6506832380</v>
       </c>
       <c r="D35">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -17799,7 +17799,7 @@
         <v>5415250200</v>
       </c>
       <c r="G35">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="H35">
         <v>2</v>
@@ -17808,7 +17808,7 @@
         <v>1335470</v>
       </c>
       <c r="J35">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -17817,7 +17817,7 @@
         <v>49024550</v>
       </c>
       <c r="M35">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="N35">
         <v>4</v>
@@ -17828,7 +17828,7 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -17837,7 +17837,7 @@
         <v>6250287380</v>
       </c>
       <c r="D36">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -17846,7 +17846,7 @@
         <v>3742121890</v>
       </c>
       <c r="G36">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="H36">
         <v>2</v>
@@ -17855,7 +17855,7 @@
         <v>2131500</v>
       </c>
       <c r="J36">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -17864,7 +17864,7 @@
         <v>54895720</v>
       </c>
       <c r="M36">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="N36">
         <v>4</v>
@@ -17875,7 +17875,7 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -17884,7 +17884,7 @@
         <v>6335004430</v>
       </c>
       <c r="D37">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -17893,7 +17893,7 @@
         <v>4428422290</v>
       </c>
       <c r="G37">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="H37">
         <v>2</v>
@@ -17902,7 +17902,7 @@
         <v>2039030</v>
       </c>
       <c r="J37">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -17911,7 +17911,7 @@
         <v>53175410</v>
       </c>
       <c r="M37">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="N37">
         <v>4</v>
@@ -17922,7 +17922,7 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -17931,7 +17931,7 @@
         <v>5451301190</v>
       </c>
       <c r="D38">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -17940,7 +17940,7 @@
         <v>5155622150</v>
       </c>
       <c r="G38">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="H38">
         <v>2</v>
@@ -17949,7 +17949,7 @@
         <v>2800710</v>
       </c>
       <c r="J38">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="K38">
         <v>3</v>
@@ -17958,7 +17958,7 @@
         <v>41001850</v>
       </c>
       <c r="M38">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="N38">
         <v>4</v>
@@ -17969,7 +17969,7 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -17978,7 +17978,7 @@
         <v>5011170040</v>
       </c>
       <c r="D39">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -17987,7 +17987,7 @@
         <v>2231723890</v>
       </c>
       <c r="G39">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="H39">
         <v>2</v>
@@ -17996,7 +17996,7 @@
         <v>975100</v>
       </c>
       <c r="J39">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="K39">
         <v>3</v>
@@ -18005,7 +18005,7 @@
         <v>34807420</v>
       </c>
       <c r="M39">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="N39">
         <v>4</v>
@@ -18016,7 +18016,7 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -18025,7 +18025,7 @@
         <v>5097818950</v>
       </c>
       <c r="D40">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -18034,7 +18034,7 @@
         <v>4402594620</v>
       </c>
       <c r="G40">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="H40">
         <v>2</v>
@@ -18043,7 +18043,7 @@
         <v>911090</v>
       </c>
       <c r="J40">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="K40">
         <v>3</v>
@@ -18052,7 +18052,7 @@
         <v>36604210</v>
       </c>
       <c r="M40">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="N40">
         <v>4</v>
@@ -18063,7 +18063,7 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -18072,7 +18072,7 @@
         <v>6808028960</v>
       </c>
       <c r="D41">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -18081,7 +18081,7 @@
         <v>3189496970</v>
       </c>
       <c r="G41">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="H41">
         <v>2</v>
@@ -18090,7 +18090,7 @@
         <v>4114260</v>
       </c>
       <c r="J41">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="K41">
         <v>3</v>
@@ -18099,7 +18099,7 @@
         <v>42079150</v>
       </c>
       <c r="M41">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="N41">
         <v>4</v>
@@ -18110,7 +18110,7 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -18119,7 +18119,7 @@
         <v>5059164270</v>
       </c>
       <c r="D42">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -18128,7 +18128,7 @@
         <v>3353914140</v>
       </c>
       <c r="G42">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="H42">
         <v>2</v>
@@ -18137,7 +18137,7 @@
         <v>2157400</v>
       </c>
       <c r="J42">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="K42">
         <v>3</v>
@@ -18146,7 +18146,7 @@
         <v>49372070</v>
       </c>
       <c r="M42">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="N42">
         <v>4</v>
@@ -18157,7 +18157,7 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -18166,7 +18166,7 @@
         <v>5390773350</v>
       </c>
       <c r="D43">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -18175,7 +18175,7 @@
         <v>5074923900</v>
       </c>
       <c r="G43">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="H43">
         <v>2</v>
@@ -18184,7 +18184,7 @@
         <v>2041940</v>
       </c>
       <c r="J43">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="K43">
         <v>3</v>
@@ -18193,7 +18193,7 @@
         <v>49117120</v>
       </c>
       <c r="M43">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="N43">
         <v>4</v>
@@ -18204,7 +18204,7 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -18213,7 +18213,7 @@
         <v>6867539690</v>
       </c>
       <c r="D44">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -18222,7 +18222,7 @@
         <v>3996202430</v>
       </c>
       <c r="G44">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="H44">
         <v>2</v>
@@ -18231,7 +18231,7 @@
         <v>2328320</v>
       </c>
       <c r="J44">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="K44">
         <v>3</v>
@@ -18240,7 +18240,7 @@
         <v>51410610</v>
       </c>
       <c r="M44">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="N44">
         <v>4</v>
@@ -18251,7 +18251,7 @@
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -18260,7 +18260,7 @@
         <v>7297264200</v>
       </c>
       <c r="D45">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -18269,7 +18269,7 @@
         <v>3940662000</v>
       </c>
       <c r="G45">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="H45">
         <v>2</v>
@@ -18278,7 +18278,7 @@
         <v>1059800</v>
       </c>
       <c r="J45">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="K45">
         <v>3</v>
@@ -18287,7 +18287,7 @@
         <v>55843010</v>
       </c>
       <c r="M45">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="N45">
         <v>4</v>
@@ -18298,7 +18298,7 @@
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -18307,7 +18307,7 @@
         <v>5262776130</v>
       </c>
       <c r="D46">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -18316,7 +18316,7 @@
         <v>6039276970</v>
       </c>
       <c r="G46">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="H46">
         <v>2</v>
@@ -18325,7 +18325,7 @@
         <v>2649760</v>
       </c>
       <c r="J46">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="K46">
         <v>3</v>
@@ -18334,7 +18334,7 @@
         <v>42693680</v>
       </c>
       <c r="M46">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="N46">
         <v>4</v>
@@ -18345,7 +18345,7 @@
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -18354,7 +18354,7 @@
         <v>5114859850</v>
       </c>
       <c r="D47">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -18363,7 +18363,7 @@
         <v>3715965740</v>
       </c>
       <c r="G47">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="H47">
         <v>2</v>
@@ -18372,7 +18372,7 @@
         <v>841090</v>
       </c>
       <c r="J47">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="K47">
         <v>3</v>
@@ -18381,7 +18381,7 @@
         <v>43383090</v>
       </c>
       <c r="M47">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="N47">
         <v>4</v>
@@ -18392,7 +18392,7 @@
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -18401,7 +18401,7 @@
         <v>6547259760</v>
       </c>
       <c r="D48">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -18410,7 +18410,7 @@
         <v>5325543710</v>
       </c>
       <c r="G48">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="H48">
         <v>2</v>
@@ -18419,7 +18419,7 @@
         <v>2682490</v>
       </c>
       <c r="J48">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="K48">
         <v>3</v>
@@ -18428,7 +18428,7 @@
         <v>41089750</v>
       </c>
       <c r="M48">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="N48">
         <v>4</v>
@@ -18439,7 +18439,7 @@
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -18448,7 +18448,7 @@
         <v>6635078450</v>
       </c>
       <c r="D49">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -18457,7 +18457,7 @@
         <v>3656176190</v>
       </c>
       <c r="G49">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="H49">
         <v>2</v>
@@ -18466,7 +18466,7 @@
         <v>9049590</v>
       </c>
       <c r="J49">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="K49">
         <v>3</v>
@@ -18475,7 +18475,7 @@
         <v>64768000</v>
       </c>
       <c r="M49">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="N49">
         <v>4</v>
@@ -18486,7 +18486,7 @@
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -18495,7 +18495,7 @@
         <v>5455663220</v>
       </c>
       <c r="D50">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -18504,7 +18504,7 @@
         <v>2672212370</v>
       </c>
       <c r="G50">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="H50">
         <v>2</v>
@@ -18513,7 +18513,7 @@
         <v>507670</v>
       </c>
       <c r="J50">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="K50">
         <v>3</v>
@@ -18522,7 +18522,7 @@
         <v>42728940</v>
       </c>
       <c r="M50">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="N50">
         <v>4</v>
@@ -18540,9 +18540,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2897631E-1F88-420B-8080-321CE8AAC241}">
   <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N34" sqref="N34"/>
-    </sheetView>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -27480,7 +27478,7 @@
     <row r="13" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A13">
         <f>'grpc time raw data'!A11</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B13">
         <f>'grpc time raw data'!B11</f>
@@ -27496,7 +27494,7 @@
       </c>
       <c r="E13">
         <f>'grpc time raw data'!D11</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F13">
         <f>'grpc time raw data'!E11</f>
@@ -27512,7 +27510,7 @@
       </c>
       <c r="I13">
         <f>'grpc time raw data'!G11</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J13">
         <f>'grpc time raw data'!H11</f>
@@ -27528,7 +27526,7 @@
       </c>
       <c r="M13">
         <f>'grpc time raw data'!J11</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N13">
         <f>'grpc time raw data'!K11</f>
@@ -27544,7 +27542,7 @@
       </c>
       <c r="Q13">
         <f>'grpc time raw data'!M11</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R13">
         <f>'grpc time raw data'!N11</f>
@@ -27608,7 +27606,7 @@
       </c>
       <c r="AH13">
         <f>'http time raw data'!A11</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI13">
         <f>'http time raw data'!B11</f>
@@ -27624,7 +27622,7 @@
       </c>
       <c r="AL13">
         <f>'http time raw data'!D11</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AM13">
         <f>'http time raw data'!E11</f>
@@ -27640,7 +27638,7 @@
       </c>
       <c r="AP13">
         <f>'http time raw data'!G11</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AQ13">
         <f>'http time raw data'!H11</f>
@@ -27656,7 +27654,7 @@
       </c>
       <c r="AT13">
         <f>'http time raw data'!J11</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AU13">
         <f>'http time raw data'!K11</f>
@@ -27672,7 +27670,7 @@
       </c>
       <c r="AX13">
         <f>'http time raw data'!M11</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AY13">
         <f>'http time raw data'!N11</f>
@@ -27786,7 +27784,7 @@
     <row r="14" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A14">
         <f>'grpc time raw data'!A12</f>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B14">
         <f>'grpc time raw data'!B12</f>
@@ -27802,7 +27800,7 @@
       </c>
       <c r="E14">
         <f>'grpc time raw data'!D12</f>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F14">
         <f>'grpc time raw data'!E12</f>
@@ -27818,7 +27816,7 @@
       </c>
       <c r="I14">
         <f>'grpc time raw data'!G12</f>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="J14">
         <f>'grpc time raw data'!H12</f>
@@ -27834,7 +27832,7 @@
       </c>
       <c r="M14">
         <f>'grpc time raw data'!J12</f>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="N14">
         <f>'grpc time raw data'!K12</f>
@@ -27850,7 +27848,7 @@
       </c>
       <c r="Q14">
         <f>'grpc time raw data'!M12</f>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="R14">
         <f>'grpc time raw data'!N12</f>
@@ -27914,7 +27912,7 @@
       </c>
       <c r="AH14">
         <f>'http time raw data'!A12</f>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="AI14">
         <f>'http time raw data'!B12</f>
@@ -27930,7 +27928,7 @@
       </c>
       <c r="AL14">
         <f>'http time raw data'!D12</f>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="AM14">
         <f>'http time raw data'!E12</f>
@@ -27946,7 +27944,7 @@
       </c>
       <c r="AP14">
         <f>'http time raw data'!G12</f>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="AQ14">
         <f>'http time raw data'!H12</f>
@@ -27962,7 +27960,7 @@
       </c>
       <c r="AT14">
         <f>'http time raw data'!J12</f>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="AU14">
         <f>'http time raw data'!K12</f>
@@ -27978,7 +27976,7 @@
       </c>
       <c r="AX14">
         <f>'http time raw data'!M12</f>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="AY14">
         <f>'http time raw data'!N12</f>
@@ -28092,7 +28090,7 @@
     <row r="15" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A15">
         <f>'grpc time raw data'!A13</f>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B15">
         <f>'grpc time raw data'!B13</f>
@@ -28108,7 +28106,7 @@
       </c>
       <c r="E15">
         <f>'grpc time raw data'!D13</f>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F15">
         <f>'grpc time raw data'!E13</f>
@@ -28124,7 +28122,7 @@
       </c>
       <c r="I15">
         <f>'grpc time raw data'!G13</f>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J15">
         <f>'grpc time raw data'!H13</f>
@@ -28140,7 +28138,7 @@
       </c>
       <c r="M15">
         <f>'grpc time raw data'!J13</f>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="N15">
         <f>'grpc time raw data'!K13</f>
@@ -28156,7 +28154,7 @@
       </c>
       <c r="Q15">
         <f>'grpc time raw data'!M13</f>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="R15">
         <f>'grpc time raw data'!N13</f>
@@ -28220,7 +28218,7 @@
       </c>
       <c r="AH15">
         <f>'http time raw data'!A13</f>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="AI15">
         <f>'http time raw data'!B13</f>
@@ -28236,7 +28234,7 @@
       </c>
       <c r="AL15">
         <f>'http time raw data'!D13</f>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="AM15">
         <f>'http time raw data'!E13</f>
@@ -28252,7 +28250,7 @@
       </c>
       <c r="AP15">
         <f>'http time raw data'!G13</f>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="AQ15">
         <f>'http time raw data'!H13</f>
@@ -28268,7 +28266,7 @@
       </c>
       <c r="AT15">
         <f>'http time raw data'!J13</f>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="AU15">
         <f>'http time raw data'!K13</f>
@@ -28284,7 +28282,7 @@
       </c>
       <c r="AX15">
         <f>'http time raw data'!M13</f>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="AY15">
         <f>'http time raw data'!N13</f>
@@ -28398,7 +28396,7 @@
     <row r="16" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A16">
         <f>'grpc time raw data'!A14</f>
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B16">
         <f>'grpc time raw data'!B14</f>
@@ -28414,7 +28412,7 @@
       </c>
       <c r="E16">
         <f>'grpc time raw data'!D14</f>
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="F16">
         <f>'grpc time raw data'!E14</f>
@@ -28430,7 +28428,7 @@
       </c>
       <c r="I16">
         <f>'grpc time raw data'!G14</f>
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="J16">
         <f>'grpc time raw data'!H14</f>
@@ -28446,7 +28444,7 @@
       </c>
       <c r="M16">
         <f>'grpc time raw data'!J14</f>
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="N16">
         <f>'grpc time raw data'!K14</f>
@@ -28462,7 +28460,7 @@
       </c>
       <c r="Q16">
         <f>'grpc time raw data'!M14</f>
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="R16">
         <f>'grpc time raw data'!N14</f>
@@ -28526,7 +28524,7 @@
       </c>
       <c r="AH16">
         <f>'http time raw data'!A14</f>
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="AI16">
         <f>'http time raw data'!B14</f>
@@ -28542,7 +28540,7 @@
       </c>
       <c r="AL16">
         <f>'http time raw data'!D14</f>
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="AM16">
         <f>'http time raw data'!E14</f>
@@ -28558,7 +28556,7 @@
       </c>
       <c r="AP16">
         <f>'http time raw data'!G14</f>
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="AQ16">
         <f>'http time raw data'!H14</f>
@@ -28574,7 +28572,7 @@
       </c>
       <c r="AT16">
         <f>'http time raw data'!J14</f>
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="AU16">
         <f>'http time raw data'!K14</f>
@@ -28590,7 +28588,7 @@
       </c>
       <c r="AX16">
         <f>'http time raw data'!M14</f>
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="AY16">
         <f>'http time raw data'!N14</f>
@@ -28704,7 +28702,7 @@
     <row r="17" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A17">
         <f>'grpc time raw data'!A15</f>
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B17">
         <f>'grpc time raw data'!B15</f>
@@ -28720,7 +28718,7 @@
       </c>
       <c r="E17">
         <f>'grpc time raw data'!D15</f>
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F17">
         <f>'grpc time raw data'!E15</f>
@@ -28736,7 +28734,7 @@
       </c>
       <c r="I17">
         <f>'grpc time raw data'!G15</f>
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="J17">
         <f>'grpc time raw data'!H15</f>
@@ -28752,7 +28750,7 @@
       </c>
       <c r="M17">
         <f>'grpc time raw data'!J15</f>
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="N17">
         <f>'grpc time raw data'!K15</f>
@@ -28768,7 +28766,7 @@
       </c>
       <c r="Q17">
         <f>'grpc time raw data'!M15</f>
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="R17">
         <f>'grpc time raw data'!N15</f>
@@ -28832,7 +28830,7 @@
       </c>
       <c r="AH17">
         <f>'http time raw data'!A15</f>
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="AI17">
         <f>'http time raw data'!B15</f>
@@ -28848,7 +28846,7 @@
       </c>
       <c r="AL17">
         <f>'http time raw data'!D15</f>
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="AM17">
         <f>'http time raw data'!E15</f>
@@ -28864,7 +28862,7 @@
       </c>
       <c r="AP17">
         <f>'http time raw data'!G15</f>
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="AQ17">
         <f>'http time raw data'!H15</f>
@@ -28880,7 +28878,7 @@
       </c>
       <c r="AT17">
         <f>'http time raw data'!J15</f>
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="AU17">
         <f>'http time raw data'!K15</f>
@@ -28896,7 +28894,7 @@
       </c>
       <c r="AX17">
         <f>'http time raw data'!M15</f>
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="AY17">
         <f>'http time raw data'!N15</f>
@@ -29010,7 +29008,7 @@
     <row r="18" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A18">
         <f>'grpc time raw data'!A16</f>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B18">
         <f>'grpc time raw data'!B16</f>
@@ -29026,7 +29024,7 @@
       </c>
       <c r="E18">
         <f>'grpc time raw data'!D16</f>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F18">
         <f>'grpc time raw data'!E16</f>
@@ -29042,7 +29040,7 @@
       </c>
       <c r="I18">
         <f>'grpc time raw data'!G16</f>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="J18">
         <f>'grpc time raw data'!H16</f>
@@ -29058,7 +29056,7 @@
       </c>
       <c r="M18">
         <f>'grpc time raw data'!J16</f>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="N18">
         <f>'grpc time raw data'!K16</f>
@@ -29074,7 +29072,7 @@
       </c>
       <c r="Q18">
         <f>'grpc time raw data'!M16</f>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="R18">
         <f>'grpc time raw data'!N16</f>
@@ -29138,7 +29136,7 @@
       </c>
       <c r="AH18">
         <f>'http time raw data'!A16</f>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AI18">
         <f>'http time raw data'!B16</f>
@@ -29154,7 +29152,7 @@
       </c>
       <c r="AL18">
         <f>'http time raw data'!D16</f>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AM18">
         <f>'http time raw data'!E16</f>
@@ -29170,7 +29168,7 @@
       </c>
       <c r="AP18">
         <f>'http time raw data'!G16</f>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AQ18">
         <f>'http time raw data'!H16</f>
@@ -29186,7 +29184,7 @@
       </c>
       <c r="AT18">
         <f>'http time raw data'!J16</f>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AU18">
         <f>'http time raw data'!K16</f>
@@ -29202,7 +29200,7 @@
       </c>
       <c r="AX18">
         <f>'http time raw data'!M16</f>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AY18">
         <f>'http time raw data'!N16</f>
@@ -29316,7 +29314,7 @@
     <row r="19" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A19">
         <f>'grpc time raw data'!A17</f>
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B19">
         <f>'grpc time raw data'!B17</f>
@@ -29332,7 +29330,7 @@
       </c>
       <c r="E19">
         <f>'grpc time raw data'!D17</f>
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F19">
         <f>'grpc time raw data'!E17</f>
@@ -29348,7 +29346,7 @@
       </c>
       <c r="I19">
         <f>'grpc time raw data'!G17</f>
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="J19">
         <f>'grpc time raw data'!H17</f>
@@ -29364,7 +29362,7 @@
       </c>
       <c r="M19">
         <f>'grpc time raw data'!J17</f>
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="N19">
         <f>'grpc time raw data'!K17</f>
@@ -29380,7 +29378,7 @@
       </c>
       <c r="Q19">
         <f>'grpc time raw data'!M17</f>
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="R19">
         <f>'grpc time raw data'!N17</f>
@@ -29444,7 +29442,7 @@
       </c>
       <c r="AH19">
         <f>'http time raw data'!A17</f>
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="AI19">
         <f>'http time raw data'!B17</f>
@@ -29460,7 +29458,7 @@
       </c>
       <c r="AL19">
         <f>'http time raw data'!D17</f>
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="AM19">
         <f>'http time raw data'!E17</f>
@@ -29476,7 +29474,7 @@
       </c>
       <c r="AP19">
         <f>'http time raw data'!G17</f>
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="AQ19">
         <f>'http time raw data'!H17</f>
@@ -29492,7 +29490,7 @@
       </c>
       <c r="AT19">
         <f>'http time raw data'!J17</f>
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="AU19">
         <f>'http time raw data'!K17</f>
@@ -29508,7 +29506,7 @@
       </c>
       <c r="AX19">
         <f>'http time raw data'!M17</f>
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="AY19">
         <f>'http time raw data'!N17</f>
@@ -29622,7 +29620,7 @@
     <row r="20" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A20">
         <f>'grpc time raw data'!A18</f>
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B20">
         <f>'grpc time raw data'!B18</f>
@@ -29638,7 +29636,7 @@
       </c>
       <c r="E20">
         <f>'grpc time raw data'!D18</f>
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="F20">
         <f>'grpc time raw data'!E18</f>
@@ -29654,7 +29652,7 @@
       </c>
       <c r="I20">
         <f>'grpc time raw data'!G18</f>
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="J20">
         <f>'grpc time raw data'!H18</f>
@@ -29670,7 +29668,7 @@
       </c>
       <c r="M20">
         <f>'grpc time raw data'!J18</f>
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="N20">
         <f>'grpc time raw data'!K18</f>
@@ -29686,7 +29684,7 @@
       </c>
       <c r="Q20">
         <f>'grpc time raw data'!M18</f>
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="R20">
         <f>'grpc time raw data'!N18</f>
@@ -29750,7 +29748,7 @@
       </c>
       <c r="AH20">
         <f>'http time raw data'!A18</f>
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="AI20">
         <f>'http time raw data'!B18</f>
@@ -29766,7 +29764,7 @@
       </c>
       <c r="AL20">
         <f>'http time raw data'!D18</f>
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="AM20">
         <f>'http time raw data'!E18</f>
@@ -29782,7 +29780,7 @@
       </c>
       <c r="AP20">
         <f>'http time raw data'!G18</f>
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="AQ20">
         <f>'http time raw data'!H18</f>
@@ -29798,7 +29796,7 @@
       </c>
       <c r="AT20">
         <f>'http time raw data'!J18</f>
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="AU20">
         <f>'http time raw data'!K18</f>
@@ -29814,7 +29812,7 @@
       </c>
       <c r="AX20">
         <f>'http time raw data'!M18</f>
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="AY20">
         <f>'http time raw data'!N18</f>
@@ -29928,7 +29926,7 @@
     <row r="21" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A21">
         <f>'grpc time raw data'!A19</f>
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B21">
         <f>'grpc time raw data'!B19</f>
@@ -29944,7 +29942,7 @@
       </c>
       <c r="E21">
         <f>'grpc time raw data'!D19</f>
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F21">
         <f>'grpc time raw data'!E19</f>
@@ -29960,7 +29958,7 @@
       </c>
       <c r="I21">
         <f>'grpc time raw data'!G19</f>
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="J21">
         <f>'grpc time raw data'!H19</f>
@@ -29976,7 +29974,7 @@
       </c>
       <c r="M21">
         <f>'grpc time raw data'!J19</f>
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="N21">
         <f>'grpc time raw data'!K19</f>
@@ -29992,7 +29990,7 @@
       </c>
       <c r="Q21">
         <f>'grpc time raw data'!M19</f>
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="R21">
         <f>'grpc time raw data'!N19</f>
@@ -30056,7 +30054,7 @@
       </c>
       <c r="AH21">
         <f>'http time raw data'!A19</f>
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="AI21">
         <f>'http time raw data'!B19</f>
@@ -30072,7 +30070,7 @@
       </c>
       <c r="AL21">
         <f>'http time raw data'!D19</f>
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="AM21">
         <f>'http time raw data'!E19</f>
@@ -30088,7 +30086,7 @@
       </c>
       <c r="AP21">
         <f>'http time raw data'!G19</f>
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="AQ21">
         <f>'http time raw data'!H19</f>
@@ -30104,7 +30102,7 @@
       </c>
       <c r="AT21">
         <f>'http time raw data'!J19</f>
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="AU21">
         <f>'http time raw data'!K19</f>
@@ -30120,7 +30118,7 @@
       </c>
       <c r="AX21">
         <f>'http time raw data'!M19</f>
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="AY21">
         <f>'http time raw data'!N19</f>
@@ -30234,7 +30232,7 @@
     <row r="22" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A22">
         <f>'grpc time raw data'!A20</f>
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B22">
         <f>'grpc time raw data'!B20</f>
@@ -30250,7 +30248,7 @@
       </c>
       <c r="E22">
         <f>'grpc time raw data'!D20</f>
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F22">
         <f>'grpc time raw data'!E20</f>
@@ -30266,7 +30264,7 @@
       </c>
       <c r="I22">
         <f>'grpc time raw data'!G20</f>
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="J22">
         <f>'grpc time raw data'!H20</f>
@@ -30282,7 +30280,7 @@
       </c>
       <c r="M22">
         <f>'grpc time raw data'!J20</f>
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="N22">
         <f>'grpc time raw data'!K20</f>
@@ -30298,7 +30296,7 @@
       </c>
       <c r="Q22">
         <f>'grpc time raw data'!M20</f>
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="R22">
         <f>'grpc time raw data'!N20</f>
@@ -30362,7 +30360,7 @@
       </c>
       <c r="AH22">
         <f>'http time raw data'!A20</f>
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="AI22">
         <f>'http time raw data'!B20</f>
@@ -30378,7 +30376,7 @@
       </c>
       <c r="AL22">
         <f>'http time raw data'!D20</f>
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="AM22">
         <f>'http time raw data'!E20</f>
@@ -30394,7 +30392,7 @@
       </c>
       <c r="AP22">
         <f>'http time raw data'!G20</f>
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="AQ22">
         <f>'http time raw data'!H20</f>
@@ -30410,7 +30408,7 @@
       </c>
       <c r="AT22">
         <f>'http time raw data'!J20</f>
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="AU22">
         <f>'http time raw data'!K20</f>
@@ -30426,7 +30424,7 @@
       </c>
       <c r="AX22">
         <f>'http time raw data'!M20</f>
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="AY22">
         <f>'http time raw data'!N20</f>
@@ -30540,7 +30538,7 @@
     <row r="23" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A23">
         <f>'grpc time raw data'!A21</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B23">
         <f>'grpc time raw data'!B21</f>
@@ -30556,7 +30554,7 @@
       </c>
       <c r="E23">
         <f>'grpc time raw data'!D21</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F23">
         <f>'grpc time raw data'!E21</f>
@@ -30572,7 +30570,7 @@
       </c>
       <c r="I23">
         <f>'grpc time raw data'!G21</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J23">
         <f>'grpc time raw data'!H21</f>
@@ -30588,7 +30586,7 @@
       </c>
       <c r="M23">
         <f>'grpc time raw data'!J21</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N23">
         <f>'grpc time raw data'!K21</f>
@@ -30604,7 +30602,7 @@
       </c>
       <c r="Q23">
         <f>'grpc time raw data'!M21</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R23">
         <f>'grpc time raw data'!N21</f>
@@ -30668,7 +30666,7 @@
       </c>
       <c r="AH23">
         <f>'http time raw data'!A21</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AI23">
         <f>'http time raw data'!B21</f>
@@ -30684,7 +30682,7 @@
       </c>
       <c r="AL23">
         <f>'http time raw data'!D21</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AM23">
         <f>'http time raw data'!E21</f>
@@ -30700,7 +30698,7 @@
       </c>
       <c r="AP23">
         <f>'http time raw data'!G21</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AQ23">
         <f>'http time raw data'!H21</f>
@@ -30716,7 +30714,7 @@
       </c>
       <c r="AT23">
         <f>'http time raw data'!J21</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AU23">
         <f>'http time raw data'!K21</f>
@@ -30732,7 +30730,7 @@
       </c>
       <c r="AX23">
         <f>'http time raw data'!M21</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AY23">
         <f>'http time raw data'!N21</f>
@@ -30846,7 +30844,7 @@
     <row r="24" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A24">
         <f>'grpc time raw data'!A22</f>
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B24">
         <f>'grpc time raw data'!B22</f>
@@ -30862,7 +30860,7 @@
       </c>
       <c r="E24">
         <f>'grpc time raw data'!D22</f>
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F24">
         <f>'grpc time raw data'!E22</f>
@@ -30878,7 +30876,7 @@
       </c>
       <c r="I24">
         <f>'grpc time raw data'!G22</f>
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="J24">
         <f>'grpc time raw data'!H22</f>
@@ -30894,7 +30892,7 @@
       </c>
       <c r="M24">
         <f>'grpc time raw data'!J22</f>
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="N24">
         <f>'grpc time raw data'!K22</f>
@@ -30910,7 +30908,7 @@
       </c>
       <c r="Q24">
         <f>'grpc time raw data'!M22</f>
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="R24">
         <f>'grpc time raw data'!N22</f>
@@ -30974,7 +30972,7 @@
       </c>
       <c r="AH24">
         <f>'http time raw data'!A22</f>
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AI24">
         <f>'http time raw data'!B22</f>
@@ -30990,7 +30988,7 @@
       </c>
       <c r="AL24">
         <f>'http time raw data'!D22</f>
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AM24">
         <f>'http time raw data'!E22</f>
@@ -31006,7 +31004,7 @@
       </c>
       <c r="AP24">
         <f>'http time raw data'!G22</f>
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AQ24">
         <f>'http time raw data'!H22</f>
@@ -31022,7 +31020,7 @@
       </c>
       <c r="AT24">
         <f>'http time raw data'!J22</f>
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AU24">
         <f>'http time raw data'!K22</f>
@@ -31038,7 +31036,7 @@
       </c>
       <c r="AX24">
         <f>'http time raw data'!M22</f>
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AY24">
         <f>'http time raw data'!N22</f>
@@ -31152,7 +31150,7 @@
     <row r="25" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A25">
         <f>'grpc time raw data'!A23</f>
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B25">
         <f>'grpc time raw data'!B23</f>
@@ -31168,7 +31166,7 @@
       </c>
       <c r="E25">
         <f>'grpc time raw data'!D23</f>
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F25">
         <f>'grpc time raw data'!E23</f>
@@ -31184,7 +31182,7 @@
       </c>
       <c r="I25">
         <f>'grpc time raw data'!G23</f>
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="J25">
         <f>'grpc time raw data'!H23</f>
@@ -31200,7 +31198,7 @@
       </c>
       <c r="M25">
         <f>'grpc time raw data'!J23</f>
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="N25">
         <f>'grpc time raw data'!K23</f>
@@ -31216,7 +31214,7 @@
       </c>
       <c r="Q25">
         <f>'grpc time raw data'!M23</f>
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="R25">
         <f>'grpc time raw data'!N23</f>
@@ -31280,7 +31278,7 @@
       </c>
       <c r="AH25">
         <f>'http time raw data'!A23</f>
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="AI25">
         <f>'http time raw data'!B23</f>
@@ -31296,7 +31294,7 @@
       </c>
       <c r="AL25">
         <f>'http time raw data'!D23</f>
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="AM25">
         <f>'http time raw data'!E23</f>
@@ -31312,7 +31310,7 @@
       </c>
       <c r="AP25">
         <f>'http time raw data'!G23</f>
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="AQ25">
         <f>'http time raw data'!H23</f>
@@ -31328,7 +31326,7 @@
       </c>
       <c r="AT25">
         <f>'http time raw data'!J23</f>
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="AU25">
         <f>'http time raw data'!K23</f>
@@ -31344,7 +31342,7 @@
       </c>
       <c r="AX25">
         <f>'http time raw data'!M23</f>
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="AY25">
         <f>'http time raw data'!N23</f>
@@ -31458,7 +31456,7 @@
     <row r="26" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A26">
         <f>'grpc time raw data'!A24</f>
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B26">
         <f>'grpc time raw data'!B24</f>
@@ -31474,7 +31472,7 @@
       </c>
       <c r="E26">
         <f>'grpc time raw data'!D24</f>
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F26">
         <f>'grpc time raw data'!E24</f>
@@ -31490,7 +31488,7 @@
       </c>
       <c r="I26">
         <f>'grpc time raw data'!G24</f>
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="J26">
         <f>'grpc time raw data'!H24</f>
@@ -31506,7 +31504,7 @@
       </c>
       <c r="M26">
         <f>'grpc time raw data'!J24</f>
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="N26">
         <f>'grpc time raw data'!K24</f>
@@ -31522,7 +31520,7 @@
       </c>
       <c r="Q26">
         <f>'grpc time raw data'!M24</f>
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="R26">
         <f>'grpc time raw data'!N24</f>
@@ -31586,7 +31584,7 @@
       </c>
       <c r="AH26">
         <f>'http time raw data'!A24</f>
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AI26">
         <f>'http time raw data'!B24</f>
@@ -31602,7 +31600,7 @@
       </c>
       <c r="AL26">
         <f>'http time raw data'!D24</f>
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AM26">
         <f>'http time raw data'!E24</f>
@@ -31618,7 +31616,7 @@
       </c>
       <c r="AP26">
         <f>'http time raw data'!G24</f>
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AQ26">
         <f>'http time raw data'!H24</f>
@@ -31634,7 +31632,7 @@
       </c>
       <c r="AT26">
         <f>'http time raw data'!J24</f>
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AU26">
         <f>'http time raw data'!K24</f>
@@ -31650,7 +31648,7 @@
       </c>
       <c r="AX26">
         <f>'http time raw data'!M24</f>
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AY26">
         <f>'http time raw data'!N24</f>
@@ -31764,7 +31762,7 @@
     <row r="27" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A27">
         <f>'grpc time raw data'!A25</f>
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B27">
         <f>'grpc time raw data'!B25</f>
@@ -31780,7 +31778,7 @@
       </c>
       <c r="E27">
         <f>'grpc time raw data'!D25</f>
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="F27">
         <f>'grpc time raw data'!E25</f>
@@ -31796,7 +31794,7 @@
       </c>
       <c r="I27">
         <f>'grpc time raw data'!G25</f>
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="J27">
         <f>'grpc time raw data'!H25</f>
@@ -31812,7 +31810,7 @@
       </c>
       <c r="M27">
         <f>'grpc time raw data'!J25</f>
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="N27">
         <f>'grpc time raw data'!K25</f>
@@ -31828,7 +31826,7 @@
       </c>
       <c r="Q27">
         <f>'grpc time raw data'!M25</f>
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="R27">
         <f>'grpc time raw data'!N25</f>
@@ -31892,7 +31890,7 @@
       </c>
       <c r="AH27">
         <f>'http time raw data'!A25</f>
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="AI27">
         <f>'http time raw data'!B25</f>
@@ -31908,7 +31906,7 @@
       </c>
       <c r="AL27">
         <f>'http time raw data'!D25</f>
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="AM27">
         <f>'http time raw data'!E25</f>
@@ -31924,7 +31922,7 @@
       </c>
       <c r="AP27">
         <f>'http time raw data'!G25</f>
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="AQ27">
         <f>'http time raw data'!H25</f>
@@ -31940,7 +31938,7 @@
       </c>
       <c r="AT27">
         <f>'http time raw data'!J25</f>
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="AU27">
         <f>'http time raw data'!K25</f>
@@ -31956,7 +31954,7 @@
       </c>
       <c r="AX27">
         <f>'http time raw data'!M25</f>
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="AY27">
         <f>'http time raw data'!N25</f>
@@ -32070,7 +32068,7 @@
     <row r="28" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A28">
         <f>'grpc time raw data'!A26</f>
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B28">
         <f>'grpc time raw data'!B26</f>
@@ -32086,7 +32084,7 @@
       </c>
       <c r="E28">
         <f>'grpc time raw data'!D26</f>
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F28">
         <f>'grpc time raw data'!E26</f>
@@ -32102,7 +32100,7 @@
       </c>
       <c r="I28">
         <f>'grpc time raw data'!G26</f>
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="J28">
         <f>'grpc time raw data'!H26</f>
@@ -32118,7 +32116,7 @@
       </c>
       <c r="M28">
         <f>'grpc time raw data'!J26</f>
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N28">
         <f>'grpc time raw data'!K26</f>
@@ -32134,7 +32132,7 @@
       </c>
       <c r="Q28">
         <f>'grpc time raw data'!M26</f>
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R28">
         <f>'grpc time raw data'!N26</f>
@@ -32198,7 +32196,7 @@
       </c>
       <c r="AH28">
         <f>'http time raw data'!A26</f>
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="AI28">
         <f>'http time raw data'!B26</f>
@@ -32214,7 +32212,7 @@
       </c>
       <c r="AL28">
         <f>'http time raw data'!D26</f>
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="AM28">
         <f>'http time raw data'!E26</f>
@@ -32230,7 +32228,7 @@
       </c>
       <c r="AP28">
         <f>'http time raw data'!G26</f>
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="AQ28">
         <f>'http time raw data'!H26</f>
@@ -32246,7 +32244,7 @@
       </c>
       <c r="AT28">
         <f>'http time raw data'!J26</f>
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="AU28">
         <f>'http time raw data'!K26</f>
@@ -32262,7 +32260,7 @@
       </c>
       <c r="AX28">
         <f>'http time raw data'!M26</f>
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="AY28">
         <f>'http time raw data'!N26</f>
@@ -32376,7 +32374,7 @@
     <row r="29" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A29">
         <f>'grpc time raw data'!A27</f>
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B29">
         <f>'grpc time raw data'!B27</f>
@@ -32392,7 +32390,7 @@
       </c>
       <c r="E29">
         <f>'grpc time raw data'!D27</f>
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F29">
         <f>'grpc time raw data'!E27</f>
@@ -32408,7 +32406,7 @@
       </c>
       <c r="I29">
         <f>'grpc time raw data'!G27</f>
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="J29">
         <f>'grpc time raw data'!H27</f>
@@ -32424,7 +32422,7 @@
       </c>
       <c r="M29">
         <f>'grpc time raw data'!J27</f>
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="N29">
         <f>'grpc time raw data'!K27</f>
@@ -32440,7 +32438,7 @@
       </c>
       <c r="Q29">
         <f>'grpc time raw data'!M27</f>
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="R29">
         <f>'grpc time raw data'!N27</f>
@@ -32504,7 +32502,7 @@
       </c>
       <c r="AH29">
         <f>'http time raw data'!A27</f>
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="AI29">
         <f>'http time raw data'!B27</f>
@@ -32520,7 +32518,7 @@
       </c>
       <c r="AL29">
         <f>'http time raw data'!D27</f>
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="AM29">
         <f>'http time raw data'!E27</f>
@@ -32536,7 +32534,7 @@
       </c>
       <c r="AP29">
         <f>'http time raw data'!G27</f>
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="AQ29">
         <f>'http time raw data'!H27</f>
@@ -32552,7 +32550,7 @@
       </c>
       <c r="AT29">
         <f>'http time raw data'!J27</f>
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="AU29">
         <f>'http time raw data'!K27</f>
@@ -32568,7 +32566,7 @@
       </c>
       <c r="AX29">
         <f>'http time raw data'!M27</f>
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="AY29">
         <f>'http time raw data'!N27</f>
@@ -32682,7 +32680,7 @@
     <row r="30" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A30">
         <f>'grpc time raw data'!A28</f>
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B30">
         <f>'grpc time raw data'!B28</f>
@@ -32698,7 +32696,7 @@
       </c>
       <c r="E30">
         <f>'grpc time raw data'!D28</f>
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="F30">
         <f>'grpc time raw data'!E28</f>
@@ -32714,7 +32712,7 @@
       </c>
       <c r="I30">
         <f>'grpc time raw data'!G28</f>
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="J30">
         <f>'grpc time raw data'!H28</f>
@@ -32730,7 +32728,7 @@
       </c>
       <c r="M30">
         <f>'grpc time raw data'!J28</f>
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="N30">
         <f>'grpc time raw data'!K28</f>
@@ -32746,7 +32744,7 @@
       </c>
       <c r="Q30">
         <f>'grpc time raw data'!M28</f>
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="R30">
         <f>'grpc time raw data'!N28</f>
@@ -32810,7 +32808,7 @@
       </c>
       <c r="AH30">
         <f>'http time raw data'!A28</f>
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="AI30">
         <f>'http time raw data'!B28</f>
@@ -32826,7 +32824,7 @@
       </c>
       <c r="AL30">
         <f>'http time raw data'!D28</f>
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="AM30">
         <f>'http time raw data'!E28</f>
@@ -32842,7 +32840,7 @@
       </c>
       <c r="AP30">
         <f>'http time raw data'!G28</f>
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="AQ30">
         <f>'http time raw data'!H28</f>
@@ -32858,7 +32856,7 @@
       </c>
       <c r="AT30">
         <f>'http time raw data'!J28</f>
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="AU30">
         <f>'http time raw data'!K28</f>
@@ -32874,7 +32872,7 @@
       </c>
       <c r="AX30">
         <f>'http time raw data'!M28</f>
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="AY30">
         <f>'http time raw data'!N28</f>
@@ -32988,7 +32986,7 @@
     <row r="31" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A31">
         <f>'grpc time raw data'!A29</f>
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B31">
         <f>'grpc time raw data'!B29</f>
@@ -33004,7 +33002,7 @@
       </c>
       <c r="E31">
         <f>'grpc time raw data'!D29</f>
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F31">
         <f>'grpc time raw data'!E29</f>
@@ -33020,7 +33018,7 @@
       </c>
       <c r="I31">
         <f>'grpc time raw data'!G29</f>
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="J31">
         <f>'grpc time raw data'!H29</f>
@@ -33036,7 +33034,7 @@
       </c>
       <c r="M31">
         <f>'grpc time raw data'!J29</f>
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="N31">
         <f>'grpc time raw data'!K29</f>
@@ -33052,7 +33050,7 @@
       </c>
       <c r="Q31">
         <f>'grpc time raw data'!M29</f>
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="R31">
         <f>'grpc time raw data'!N29</f>
@@ -33116,7 +33114,7 @@
       </c>
       <c r="AH31">
         <f>'http time raw data'!A29</f>
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="AI31">
         <f>'http time raw data'!B29</f>
@@ -33132,7 +33130,7 @@
       </c>
       <c r="AL31">
         <f>'http time raw data'!D29</f>
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="AM31">
         <f>'http time raw data'!E29</f>
@@ -33148,7 +33146,7 @@
       </c>
       <c r="AP31">
         <f>'http time raw data'!G29</f>
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="AQ31">
         <f>'http time raw data'!H29</f>
@@ -33164,7 +33162,7 @@
       </c>
       <c r="AT31">
         <f>'http time raw data'!J29</f>
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="AU31">
         <f>'http time raw data'!K29</f>
@@ -33180,7 +33178,7 @@
       </c>
       <c r="AX31">
         <f>'http time raw data'!M29</f>
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="AY31">
         <f>'http time raw data'!N29</f>
@@ -33294,7 +33292,7 @@
     <row r="32" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A32">
         <f>'grpc time raw data'!A30</f>
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B32">
         <f>'grpc time raw data'!B30</f>
@@ -33310,7 +33308,7 @@
       </c>
       <c r="E32">
         <f>'grpc time raw data'!D30</f>
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F32">
         <f>'grpc time raw data'!E30</f>
@@ -33326,7 +33324,7 @@
       </c>
       <c r="I32">
         <f>'grpc time raw data'!G30</f>
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="J32">
         <f>'grpc time raw data'!H30</f>
@@ -33342,7 +33340,7 @@
       </c>
       <c r="M32">
         <f>'grpc time raw data'!J30</f>
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="N32">
         <f>'grpc time raw data'!K30</f>
@@ -33358,7 +33356,7 @@
       </c>
       <c r="Q32">
         <f>'grpc time raw data'!M30</f>
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="R32">
         <f>'grpc time raw data'!N30</f>
@@ -33422,7 +33420,7 @@
       </c>
       <c r="AH32">
         <f>'http time raw data'!A30</f>
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AI32">
         <f>'http time raw data'!B30</f>
@@ -33438,7 +33436,7 @@
       </c>
       <c r="AL32">
         <f>'http time raw data'!D30</f>
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AM32">
         <f>'http time raw data'!E30</f>
@@ -33454,7 +33452,7 @@
       </c>
       <c r="AP32">
         <f>'http time raw data'!G30</f>
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AQ32">
         <f>'http time raw data'!H30</f>
@@ -33470,7 +33468,7 @@
       </c>
       <c r="AT32">
         <f>'http time raw data'!J30</f>
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AU32">
         <f>'http time raw data'!K30</f>
@@ -33486,7 +33484,7 @@
       </c>
       <c r="AX32">
         <f>'http time raw data'!M30</f>
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AY32">
         <f>'http time raw data'!N30</f>
@@ -33600,7 +33598,7 @@
     <row r="33" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A33">
         <f>'grpc time raw data'!A31</f>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B33">
         <f>'grpc time raw data'!B31</f>
@@ -33616,7 +33614,7 @@
       </c>
       <c r="E33">
         <f>'grpc time raw data'!D31</f>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F33">
         <f>'grpc time raw data'!E31</f>
@@ -33632,7 +33630,7 @@
       </c>
       <c r="I33">
         <f>'grpc time raw data'!G31</f>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J33">
         <f>'grpc time raw data'!H31</f>
@@ -33648,7 +33646,7 @@
       </c>
       <c r="M33">
         <f>'grpc time raw data'!J31</f>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N33">
         <f>'grpc time raw data'!K31</f>
@@ -33664,7 +33662,7 @@
       </c>
       <c r="Q33">
         <f>'grpc time raw data'!M31</f>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="R33">
         <f>'grpc time raw data'!N31</f>
@@ -33728,7 +33726,7 @@
       </c>
       <c r="AH33">
         <f>'http time raw data'!A31</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AI33">
         <f>'http time raw data'!B31</f>
@@ -33744,7 +33742,7 @@
       </c>
       <c r="AL33">
         <f>'http time raw data'!D31</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AM33">
         <f>'http time raw data'!E31</f>
@@ -33760,7 +33758,7 @@
       </c>
       <c r="AP33">
         <f>'http time raw data'!G31</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AQ33">
         <f>'http time raw data'!H31</f>
@@ -33776,7 +33774,7 @@
       </c>
       <c r="AT33">
         <f>'http time raw data'!J31</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AU33">
         <f>'http time raw data'!K31</f>
@@ -33792,7 +33790,7 @@
       </c>
       <c r="AX33">
         <f>'http time raw data'!M31</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AY33">
         <f>'http time raw data'!N31</f>
@@ -33906,7 +33904,7 @@
     <row r="34" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A34">
         <f>'grpc time raw data'!A32</f>
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B34">
         <f>'grpc time raw data'!B32</f>
@@ -33922,7 +33920,7 @@
       </c>
       <c r="E34">
         <f>'grpc time raw data'!D32</f>
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F34">
         <f>'grpc time raw data'!E32</f>
@@ -33938,7 +33936,7 @@
       </c>
       <c r="I34">
         <f>'grpc time raw data'!G32</f>
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="J34">
         <f>'grpc time raw data'!H32</f>
@@ -33954,7 +33952,7 @@
       </c>
       <c r="M34">
         <f>'grpc time raw data'!J32</f>
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="N34">
         <f>'grpc time raw data'!K32</f>
@@ -33970,7 +33968,7 @@
       </c>
       <c r="Q34">
         <f>'grpc time raw data'!M32</f>
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="R34">
         <f>'grpc time raw data'!N32</f>
@@ -34034,7 +34032,7 @@
       </c>
       <c r="AH34">
         <f>'http time raw data'!A32</f>
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="AI34">
         <f>'http time raw data'!B32</f>
@@ -34050,7 +34048,7 @@
       </c>
       <c r="AL34">
         <f>'http time raw data'!D32</f>
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="AM34">
         <f>'http time raw data'!E32</f>
@@ -34066,7 +34064,7 @@
       </c>
       <c r="AP34">
         <f>'http time raw data'!G32</f>
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="AQ34">
         <f>'http time raw data'!H32</f>
@@ -34082,7 +34080,7 @@
       </c>
       <c r="AT34">
         <f>'http time raw data'!J32</f>
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="AU34">
         <f>'http time raw data'!K32</f>
@@ -34098,7 +34096,7 @@
       </c>
       <c r="AX34">
         <f>'http time raw data'!M32</f>
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="AY34">
         <f>'http time raw data'!N32</f>
@@ -34212,7 +34210,7 @@
     <row r="35" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A35">
         <f>'grpc time raw data'!A33</f>
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B35">
         <f>'grpc time raw data'!B33</f>
@@ -34228,7 +34226,7 @@
       </c>
       <c r="E35">
         <f>'grpc time raw data'!D33</f>
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="F35">
         <f>'grpc time raw data'!E33</f>
@@ -34244,7 +34242,7 @@
       </c>
       <c r="I35">
         <f>'grpc time raw data'!G33</f>
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="J35">
         <f>'grpc time raw data'!H33</f>
@@ -34260,7 +34258,7 @@
       </c>
       <c r="M35">
         <f>'grpc time raw data'!J33</f>
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="N35">
         <f>'grpc time raw data'!K33</f>
@@ -34276,7 +34274,7 @@
       </c>
       <c r="Q35">
         <f>'grpc time raw data'!M33</f>
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="R35">
         <f>'grpc time raw data'!N33</f>
@@ -34340,7 +34338,7 @@
       </c>
       <c r="AH35">
         <f>'http time raw data'!A33</f>
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="AI35">
         <f>'http time raw data'!B33</f>
@@ -34356,7 +34354,7 @@
       </c>
       <c r="AL35">
         <f>'http time raw data'!D33</f>
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="AM35">
         <f>'http time raw data'!E33</f>
@@ -34372,7 +34370,7 @@
       </c>
       <c r="AP35">
         <f>'http time raw data'!G33</f>
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="AQ35">
         <f>'http time raw data'!H33</f>
@@ -34388,7 +34386,7 @@
       </c>
       <c r="AT35">
         <f>'http time raw data'!J33</f>
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="AU35">
         <f>'http time raw data'!K33</f>
@@ -34404,7 +34402,7 @@
       </c>
       <c r="AX35">
         <f>'http time raw data'!M33</f>
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="AY35">
         <f>'http time raw data'!N33</f>
@@ -34518,7 +34516,7 @@
     <row r="36" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A36">
         <f>'grpc time raw data'!A34</f>
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B36">
         <f>'grpc time raw data'!B34</f>
@@ -34534,7 +34532,7 @@
       </c>
       <c r="E36">
         <f>'grpc time raw data'!D34</f>
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F36">
         <f>'grpc time raw data'!E34</f>
@@ -34550,7 +34548,7 @@
       </c>
       <c r="I36">
         <f>'grpc time raw data'!G34</f>
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J36">
         <f>'grpc time raw data'!H34</f>
@@ -34566,7 +34564,7 @@
       </c>
       <c r="M36">
         <f>'grpc time raw data'!J34</f>
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="N36">
         <f>'grpc time raw data'!K34</f>
@@ -34582,7 +34580,7 @@
       </c>
       <c r="Q36">
         <f>'grpc time raw data'!M34</f>
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="R36">
         <f>'grpc time raw data'!N34</f>
@@ -34646,7 +34644,7 @@
       </c>
       <c r="AH36">
         <f>'http time raw data'!A34</f>
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="AI36">
         <f>'http time raw data'!B34</f>
@@ -34662,7 +34660,7 @@
       </c>
       <c r="AL36">
         <f>'http time raw data'!D34</f>
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="AM36">
         <f>'http time raw data'!E34</f>
@@ -34678,7 +34676,7 @@
       </c>
       <c r="AP36">
         <f>'http time raw data'!G34</f>
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="AQ36">
         <f>'http time raw data'!H34</f>
@@ -34694,7 +34692,7 @@
       </c>
       <c r="AT36">
         <f>'http time raw data'!J34</f>
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="AU36">
         <f>'http time raw data'!K34</f>
@@ -34710,7 +34708,7 @@
       </c>
       <c r="AX36">
         <f>'http time raw data'!M34</f>
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="AY36">
         <f>'http time raw data'!N34</f>
@@ -34824,7 +34822,7 @@
     <row r="37" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A37">
         <f>'grpc time raw data'!A35</f>
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B37">
         <f>'grpc time raw data'!B35</f>
@@ -34840,7 +34838,7 @@
       </c>
       <c r="E37">
         <f>'grpc time raw data'!D35</f>
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="F37">
         <f>'grpc time raw data'!E35</f>
@@ -34856,7 +34854,7 @@
       </c>
       <c r="I37">
         <f>'grpc time raw data'!G35</f>
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J37">
         <f>'grpc time raw data'!H35</f>
@@ -34872,7 +34870,7 @@
       </c>
       <c r="M37">
         <f>'grpc time raw data'!J35</f>
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="N37">
         <f>'grpc time raw data'!K35</f>
@@ -34888,7 +34886,7 @@
       </c>
       <c r="Q37">
         <f>'grpc time raw data'!M35</f>
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="R37">
         <f>'grpc time raw data'!N35</f>
@@ -34952,7 +34950,7 @@
       </c>
       <c r="AH37">
         <f>'http time raw data'!A35</f>
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="AI37">
         <f>'http time raw data'!B35</f>
@@ -34968,7 +34966,7 @@
       </c>
       <c r="AL37">
         <f>'http time raw data'!D35</f>
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="AM37">
         <f>'http time raw data'!E35</f>
@@ -34984,7 +34982,7 @@
       </c>
       <c r="AP37">
         <f>'http time raw data'!G35</f>
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="AQ37">
         <f>'http time raw data'!H35</f>
@@ -35000,7 +34998,7 @@
       </c>
       <c r="AT37">
         <f>'http time raw data'!J35</f>
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="AU37">
         <f>'http time raw data'!K35</f>
@@ -35016,7 +35014,7 @@
       </c>
       <c r="AX37">
         <f>'http time raw data'!M35</f>
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="AY37">
         <f>'http time raw data'!N35</f>
@@ -35130,7 +35128,7 @@
     <row r="38" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A38">
         <f>'grpc time raw data'!A36</f>
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B38">
         <f>'grpc time raw data'!B36</f>
@@ -35146,7 +35144,7 @@
       </c>
       <c r="E38">
         <f>'grpc time raw data'!D36</f>
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F38">
         <f>'grpc time raw data'!E36</f>
@@ -35162,7 +35160,7 @@
       </c>
       <c r="I38">
         <f>'grpc time raw data'!G36</f>
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="J38">
         <f>'grpc time raw data'!H36</f>
@@ -35178,7 +35176,7 @@
       </c>
       <c r="M38">
         <f>'grpc time raw data'!J36</f>
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="N38">
         <f>'grpc time raw data'!K36</f>
@@ -35194,7 +35192,7 @@
       </c>
       <c r="Q38">
         <f>'grpc time raw data'!M36</f>
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="R38">
         <f>'grpc time raw data'!N36</f>
@@ -35258,7 +35256,7 @@
       </c>
       <c r="AH38">
         <f>'http time raw data'!A36</f>
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="AI38">
         <f>'http time raw data'!B36</f>
@@ -35274,7 +35272,7 @@
       </c>
       <c r="AL38">
         <f>'http time raw data'!D36</f>
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="AM38">
         <f>'http time raw data'!E36</f>
@@ -35290,7 +35288,7 @@
       </c>
       <c r="AP38">
         <f>'http time raw data'!G36</f>
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="AQ38">
         <f>'http time raw data'!H36</f>
@@ -35306,7 +35304,7 @@
       </c>
       <c r="AT38">
         <f>'http time raw data'!J36</f>
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="AU38">
         <f>'http time raw data'!K36</f>
@@ -35322,7 +35320,7 @@
       </c>
       <c r="AX38">
         <f>'http time raw data'!M36</f>
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="AY38">
         <f>'http time raw data'!N36</f>
@@ -35436,7 +35434,7 @@
     <row r="39" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A39">
         <f>'grpc time raw data'!A37</f>
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B39">
         <f>'grpc time raw data'!B37</f>
@@ -35452,7 +35450,7 @@
       </c>
       <c r="E39">
         <f>'grpc time raw data'!D37</f>
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="F39">
         <f>'grpc time raw data'!E37</f>
@@ -35468,7 +35466,7 @@
       </c>
       <c r="I39">
         <f>'grpc time raw data'!G37</f>
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="J39">
         <f>'grpc time raw data'!H37</f>
@@ -35484,7 +35482,7 @@
       </c>
       <c r="M39">
         <f>'grpc time raw data'!J37</f>
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="N39">
         <f>'grpc time raw data'!K37</f>
@@ -35500,7 +35498,7 @@
       </c>
       <c r="Q39">
         <f>'grpc time raw data'!M37</f>
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="R39">
         <f>'grpc time raw data'!N37</f>
@@ -35564,7 +35562,7 @@
       </c>
       <c r="AH39">
         <f>'http time raw data'!A37</f>
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="AI39">
         <f>'http time raw data'!B37</f>
@@ -35580,7 +35578,7 @@
       </c>
       <c r="AL39">
         <f>'http time raw data'!D37</f>
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="AM39">
         <f>'http time raw data'!E37</f>
@@ -35596,7 +35594,7 @@
       </c>
       <c r="AP39">
         <f>'http time raw data'!G37</f>
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="AQ39">
         <f>'http time raw data'!H37</f>
@@ -35612,7 +35610,7 @@
       </c>
       <c r="AT39">
         <f>'http time raw data'!J37</f>
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="AU39">
         <f>'http time raw data'!K37</f>
@@ -35628,7 +35626,7 @@
       </c>
       <c r="AX39">
         <f>'http time raw data'!M37</f>
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="AY39">
         <f>'http time raw data'!N37</f>
@@ -35742,7 +35740,7 @@
     <row r="40" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A40">
         <f>'grpc time raw data'!A38</f>
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B40">
         <f>'grpc time raw data'!B38</f>
@@ -35758,7 +35756,7 @@
       </c>
       <c r="E40">
         <f>'grpc time raw data'!D38</f>
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="F40">
         <f>'grpc time raw data'!E38</f>
@@ -35774,7 +35772,7 @@
       </c>
       <c r="I40">
         <f>'grpc time raw data'!G38</f>
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="J40">
         <f>'grpc time raw data'!H38</f>
@@ -35790,7 +35788,7 @@
       </c>
       <c r="M40">
         <f>'grpc time raw data'!J38</f>
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="N40">
         <f>'grpc time raw data'!K38</f>
@@ -35806,7 +35804,7 @@
       </c>
       <c r="Q40">
         <f>'grpc time raw data'!M38</f>
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="R40">
         <f>'grpc time raw data'!N38</f>
@@ -35870,7 +35868,7 @@
       </c>
       <c r="AH40">
         <f>'http time raw data'!A38</f>
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="AI40">
         <f>'http time raw data'!B38</f>
@@ -35886,7 +35884,7 @@
       </c>
       <c r="AL40">
         <f>'http time raw data'!D38</f>
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="AM40">
         <f>'http time raw data'!E38</f>
@@ -35902,7 +35900,7 @@
       </c>
       <c r="AP40">
         <f>'http time raw data'!G38</f>
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="AQ40">
         <f>'http time raw data'!H38</f>
@@ -35918,7 +35916,7 @@
       </c>
       <c r="AT40">
         <f>'http time raw data'!J38</f>
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="AU40">
         <f>'http time raw data'!K38</f>
@@ -35934,7 +35932,7 @@
       </c>
       <c r="AX40">
         <f>'http time raw data'!M38</f>
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="AY40">
         <f>'http time raw data'!N38</f>
@@ -36048,7 +36046,7 @@
     <row r="41" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A41">
         <f>'grpc time raw data'!A39</f>
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B41">
         <f>'grpc time raw data'!B39</f>
@@ -36064,7 +36062,7 @@
       </c>
       <c r="E41">
         <f>'grpc time raw data'!D39</f>
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F41">
         <f>'grpc time raw data'!E39</f>
@@ -36080,7 +36078,7 @@
       </c>
       <c r="I41">
         <f>'grpc time raw data'!G39</f>
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="J41">
         <f>'grpc time raw data'!H39</f>
@@ -36096,7 +36094,7 @@
       </c>
       <c r="M41">
         <f>'grpc time raw data'!J39</f>
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N41">
         <f>'grpc time raw data'!K39</f>
@@ -36112,7 +36110,7 @@
       </c>
       <c r="Q41">
         <f>'grpc time raw data'!M39</f>
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="R41">
         <f>'grpc time raw data'!N39</f>
@@ -36176,7 +36174,7 @@
       </c>
       <c r="AH41">
         <f>'http time raw data'!A39</f>
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="AI41">
         <f>'http time raw data'!B39</f>
@@ -36192,7 +36190,7 @@
       </c>
       <c r="AL41">
         <f>'http time raw data'!D39</f>
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="AM41">
         <f>'http time raw data'!E39</f>
@@ -36208,7 +36206,7 @@
       </c>
       <c r="AP41">
         <f>'http time raw data'!G39</f>
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="AQ41">
         <f>'http time raw data'!H39</f>
@@ -36224,7 +36222,7 @@
       </c>
       <c r="AT41">
         <f>'http time raw data'!J39</f>
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="AU41">
         <f>'http time raw data'!K39</f>
@@ -36240,7 +36238,7 @@
       </c>
       <c r="AX41">
         <f>'http time raw data'!M39</f>
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="AY41">
         <f>'http time raw data'!N39</f>
@@ -36354,7 +36352,7 @@
     <row r="42" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A42">
         <f>'grpc time raw data'!A40</f>
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B42">
         <f>'grpc time raw data'!B40</f>
@@ -36370,7 +36368,7 @@
       </c>
       <c r="E42">
         <f>'grpc time raw data'!D40</f>
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="F42">
         <f>'grpc time raw data'!E40</f>
@@ -36386,7 +36384,7 @@
       </c>
       <c r="I42">
         <f>'grpc time raw data'!G40</f>
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="J42">
         <f>'grpc time raw data'!H40</f>
@@ -36402,7 +36400,7 @@
       </c>
       <c r="M42">
         <f>'grpc time raw data'!J40</f>
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="N42">
         <f>'grpc time raw data'!K40</f>
@@ -36418,7 +36416,7 @@
       </c>
       <c r="Q42">
         <f>'grpc time raw data'!M40</f>
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="R42">
         <f>'grpc time raw data'!N40</f>
@@ -36482,7 +36480,7 @@
       </c>
       <c r="AH42">
         <f>'http time raw data'!A40</f>
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="AI42">
         <f>'http time raw data'!B40</f>
@@ -36498,7 +36496,7 @@
       </c>
       <c r="AL42">
         <f>'http time raw data'!D40</f>
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="AM42">
         <f>'http time raw data'!E40</f>
@@ -36514,7 +36512,7 @@
       </c>
       <c r="AP42">
         <f>'http time raw data'!G40</f>
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="AQ42">
         <f>'http time raw data'!H40</f>
@@ -36530,7 +36528,7 @@
       </c>
       <c r="AT42">
         <f>'http time raw data'!J40</f>
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="AU42">
         <f>'http time raw data'!K40</f>
@@ -36546,7 +36544,7 @@
       </c>
       <c r="AX42">
         <f>'http time raw data'!M40</f>
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="AY42">
         <f>'http time raw data'!N40</f>
@@ -36660,7 +36658,7 @@
     <row r="43" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A43">
         <f>'grpc time raw data'!A41</f>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B43">
         <f>'grpc time raw data'!B41</f>
@@ -36676,7 +36674,7 @@
       </c>
       <c r="E43">
         <f>'grpc time raw data'!D41</f>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F43">
         <f>'grpc time raw data'!E41</f>
@@ -36692,7 +36690,7 @@
       </c>
       <c r="I43">
         <f>'grpc time raw data'!G41</f>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J43">
         <f>'grpc time raw data'!H41</f>
@@ -36708,7 +36706,7 @@
       </c>
       <c r="M43">
         <f>'grpc time raw data'!J41</f>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N43">
         <f>'grpc time raw data'!K41</f>
@@ -36724,7 +36722,7 @@
       </c>
       <c r="Q43">
         <f>'grpc time raw data'!M41</f>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R43">
         <f>'grpc time raw data'!N41</f>
@@ -36788,7 +36786,7 @@
       </c>
       <c r="AH43">
         <f>'http time raw data'!A41</f>
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="AI43">
         <f>'http time raw data'!B41</f>
@@ -36804,7 +36802,7 @@
       </c>
       <c r="AL43">
         <f>'http time raw data'!D41</f>
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="AM43">
         <f>'http time raw data'!E41</f>
@@ -36820,7 +36818,7 @@
       </c>
       <c r="AP43">
         <f>'http time raw data'!G41</f>
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="AQ43">
         <f>'http time raw data'!H41</f>
@@ -36836,7 +36834,7 @@
       </c>
       <c r="AT43">
         <f>'http time raw data'!J41</f>
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="AU43">
         <f>'http time raw data'!K41</f>
@@ -36852,7 +36850,7 @@
       </c>
       <c r="AX43">
         <f>'http time raw data'!M41</f>
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="AY43">
         <f>'http time raw data'!N41</f>
@@ -36966,7 +36964,7 @@
     <row r="44" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A44">
         <f>'grpc time raw data'!A42</f>
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B44">
         <f>'grpc time raw data'!B42</f>
@@ -36982,7 +36980,7 @@
       </c>
       <c r="E44">
         <f>'grpc time raw data'!D42</f>
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="F44">
         <f>'grpc time raw data'!E42</f>
@@ -36998,7 +36996,7 @@
       </c>
       <c r="I44">
         <f>'grpc time raw data'!G42</f>
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="J44">
         <f>'grpc time raw data'!H42</f>
@@ -37014,7 +37012,7 @@
       </c>
       <c r="M44">
         <f>'grpc time raw data'!J42</f>
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="N44">
         <f>'grpc time raw data'!K42</f>
@@ -37030,7 +37028,7 @@
       </c>
       <c r="Q44">
         <f>'grpc time raw data'!M42</f>
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="R44">
         <f>'grpc time raw data'!N42</f>
@@ -37094,7 +37092,7 @@
       </c>
       <c r="AH44">
         <f>'http time raw data'!A42</f>
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="AI44">
         <f>'http time raw data'!B42</f>
@@ -37110,7 +37108,7 @@
       </c>
       <c r="AL44">
         <f>'http time raw data'!D42</f>
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="AM44">
         <f>'http time raw data'!E42</f>
@@ -37126,7 +37124,7 @@
       </c>
       <c r="AP44">
         <f>'http time raw data'!G42</f>
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="AQ44">
         <f>'http time raw data'!H42</f>
@@ -37142,7 +37140,7 @@
       </c>
       <c r="AT44">
         <f>'http time raw data'!J42</f>
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="AU44">
         <f>'http time raw data'!K42</f>
@@ -37158,7 +37156,7 @@
       </c>
       <c r="AX44">
         <f>'http time raw data'!M42</f>
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="AY44">
         <f>'http time raw data'!N42</f>
@@ -37272,7 +37270,7 @@
     <row r="45" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A45">
         <f>'grpc time raw data'!A43</f>
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="B45">
         <f>'grpc time raw data'!B43</f>
@@ -37288,7 +37286,7 @@
       </c>
       <c r="E45">
         <f>'grpc time raw data'!D43</f>
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="F45">
         <f>'grpc time raw data'!E43</f>
@@ -37304,7 +37302,7 @@
       </c>
       <c r="I45">
         <f>'grpc time raw data'!G43</f>
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="J45">
         <f>'grpc time raw data'!H43</f>
@@ -37320,7 +37318,7 @@
       </c>
       <c r="M45">
         <f>'grpc time raw data'!J43</f>
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="N45">
         <f>'grpc time raw data'!K43</f>
@@ -37336,7 +37334,7 @@
       </c>
       <c r="Q45">
         <f>'grpc time raw data'!M43</f>
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R45">
         <f>'grpc time raw data'!N43</f>
@@ -37400,7 +37398,7 @@
       </c>
       <c r="AH45">
         <f>'http time raw data'!A43</f>
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="AI45">
         <f>'http time raw data'!B43</f>
@@ -37416,7 +37414,7 @@
       </c>
       <c r="AL45">
         <f>'http time raw data'!D43</f>
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="AM45">
         <f>'http time raw data'!E43</f>
@@ -37432,7 +37430,7 @@
       </c>
       <c r="AP45">
         <f>'http time raw data'!G43</f>
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="AQ45">
         <f>'http time raw data'!H43</f>
@@ -37448,7 +37446,7 @@
       </c>
       <c r="AT45">
         <f>'http time raw data'!J43</f>
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="AU45">
         <f>'http time raw data'!K43</f>
@@ -37464,7 +37462,7 @@
       </c>
       <c r="AX45">
         <f>'http time raw data'!M43</f>
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="AY45">
         <f>'http time raw data'!N43</f>
@@ -37578,7 +37576,7 @@
     <row r="46" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A46">
         <f>'grpc time raw data'!A44</f>
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B46">
         <f>'grpc time raw data'!B44</f>
@@ -37594,7 +37592,7 @@
       </c>
       <c r="E46">
         <f>'grpc time raw data'!D44</f>
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="F46">
         <f>'grpc time raw data'!E44</f>
@@ -37610,7 +37608,7 @@
       </c>
       <c r="I46">
         <f>'grpc time raw data'!G44</f>
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="J46">
         <f>'grpc time raw data'!H44</f>
@@ -37626,7 +37624,7 @@
       </c>
       <c r="M46">
         <f>'grpc time raw data'!J44</f>
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="N46">
         <f>'grpc time raw data'!K44</f>
@@ -37642,7 +37640,7 @@
       </c>
       <c r="Q46">
         <f>'grpc time raw data'!M44</f>
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="R46">
         <f>'grpc time raw data'!N44</f>
@@ -37706,7 +37704,7 @@
       </c>
       <c r="AH46">
         <f>'http time raw data'!A44</f>
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="AI46">
         <f>'http time raw data'!B44</f>
@@ -37722,7 +37720,7 @@
       </c>
       <c r="AL46">
         <f>'http time raw data'!D44</f>
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="AM46">
         <f>'http time raw data'!E44</f>
@@ -37738,7 +37736,7 @@
       </c>
       <c r="AP46">
         <f>'http time raw data'!G44</f>
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="AQ46">
         <f>'http time raw data'!H44</f>
@@ -37754,7 +37752,7 @@
       </c>
       <c r="AT46">
         <f>'http time raw data'!J44</f>
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="AU46">
         <f>'http time raw data'!K44</f>
@@ -37770,7 +37768,7 @@
       </c>
       <c r="AX46">
         <f>'http time raw data'!M44</f>
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="AY46">
         <f>'http time raw data'!N44</f>
@@ -37884,7 +37882,7 @@
     <row r="47" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A47">
         <f>'grpc time raw data'!A45</f>
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B47">
         <f>'grpc time raw data'!B45</f>
@@ -37900,7 +37898,7 @@
       </c>
       <c r="E47">
         <f>'grpc time raw data'!D45</f>
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="F47">
         <f>'grpc time raw data'!E45</f>
@@ -37916,7 +37914,7 @@
       </c>
       <c r="I47">
         <f>'grpc time raw data'!G45</f>
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="J47">
         <f>'grpc time raw data'!H45</f>
@@ -37932,7 +37930,7 @@
       </c>
       <c r="M47">
         <f>'grpc time raw data'!J45</f>
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="N47">
         <f>'grpc time raw data'!K45</f>
@@ -37948,7 +37946,7 @@
       </c>
       <c r="Q47">
         <f>'grpc time raw data'!M45</f>
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="R47">
         <f>'grpc time raw data'!N45</f>
@@ -38012,7 +38010,7 @@
       </c>
       <c r="AH47">
         <f>'http time raw data'!A45</f>
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="AI47">
         <f>'http time raw data'!B45</f>
@@ -38028,7 +38026,7 @@
       </c>
       <c r="AL47">
         <f>'http time raw data'!D45</f>
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="AM47">
         <f>'http time raw data'!E45</f>
@@ -38044,7 +38042,7 @@
       </c>
       <c r="AP47">
         <f>'http time raw data'!G45</f>
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="AQ47">
         <f>'http time raw data'!H45</f>
@@ -38060,7 +38058,7 @@
       </c>
       <c r="AT47">
         <f>'http time raw data'!J45</f>
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="AU47">
         <f>'http time raw data'!K45</f>
@@ -38076,7 +38074,7 @@
       </c>
       <c r="AX47">
         <f>'http time raw data'!M45</f>
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="AY47">
         <f>'http time raw data'!N45</f>
@@ -38190,7 +38188,7 @@
     <row r="48" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A48">
         <f>'grpc time raw data'!A46</f>
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B48">
         <f>'grpc time raw data'!B46</f>
@@ -38206,7 +38204,7 @@
       </c>
       <c r="E48">
         <f>'grpc time raw data'!D46</f>
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F48">
         <f>'grpc time raw data'!E46</f>
@@ -38222,7 +38220,7 @@
       </c>
       <c r="I48">
         <f>'grpc time raw data'!G46</f>
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="J48">
         <f>'grpc time raw data'!H46</f>
@@ -38238,7 +38236,7 @@
       </c>
       <c r="M48">
         <f>'grpc time raw data'!J46</f>
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="N48">
         <f>'grpc time raw data'!K46</f>
@@ -38254,7 +38252,7 @@
       </c>
       <c r="Q48">
         <f>'grpc time raw data'!M46</f>
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="R48">
         <f>'grpc time raw data'!N46</f>
@@ -38318,7 +38316,7 @@
       </c>
       <c r="AH48">
         <f>'http time raw data'!A46</f>
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="AI48">
         <f>'http time raw data'!B46</f>
@@ -38334,7 +38332,7 @@
       </c>
       <c r="AL48">
         <f>'http time raw data'!D46</f>
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="AM48">
         <f>'http time raw data'!E46</f>
@@ -38350,7 +38348,7 @@
       </c>
       <c r="AP48">
         <f>'http time raw data'!G46</f>
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="AQ48">
         <f>'http time raw data'!H46</f>
@@ -38366,7 +38364,7 @@
       </c>
       <c r="AT48">
         <f>'http time raw data'!J46</f>
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="AU48">
         <f>'http time raw data'!K46</f>
@@ -38382,7 +38380,7 @@
       </c>
       <c r="AX48">
         <f>'http time raw data'!M46</f>
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="AY48">
         <f>'http time raw data'!N46</f>
@@ -38496,7 +38494,7 @@
     <row r="49" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A49">
         <f>'grpc time raw data'!A47</f>
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B49">
         <f>'grpc time raw data'!B47</f>
@@ -38512,7 +38510,7 @@
       </c>
       <c r="E49">
         <f>'grpc time raw data'!D47</f>
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="F49">
         <f>'grpc time raw data'!E47</f>
@@ -38528,7 +38526,7 @@
       </c>
       <c r="I49">
         <f>'grpc time raw data'!G47</f>
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="J49">
         <f>'grpc time raw data'!H47</f>
@@ -38544,7 +38542,7 @@
       </c>
       <c r="M49">
         <f>'grpc time raw data'!J47</f>
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="N49">
         <f>'grpc time raw data'!K47</f>
@@ -38560,7 +38558,7 @@
       </c>
       <c r="Q49">
         <f>'grpc time raw data'!M47</f>
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="R49">
         <f>'grpc time raw data'!N47</f>
@@ -38624,7 +38622,7 @@
       </c>
       <c r="AH49">
         <f>'http time raw data'!A47</f>
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="AI49">
         <f>'http time raw data'!B47</f>
@@ -38640,7 +38638,7 @@
       </c>
       <c r="AL49">
         <f>'http time raw data'!D47</f>
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="AM49">
         <f>'http time raw data'!E47</f>
@@ -38656,7 +38654,7 @@
       </c>
       <c r="AP49">
         <f>'http time raw data'!G47</f>
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="AQ49">
         <f>'http time raw data'!H47</f>
@@ -38672,7 +38670,7 @@
       </c>
       <c r="AT49">
         <f>'http time raw data'!J47</f>
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="AU49">
         <f>'http time raw data'!K47</f>
@@ -38688,7 +38686,7 @@
       </c>
       <c r="AX49">
         <f>'http time raw data'!M47</f>
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="AY49">
         <f>'http time raw data'!N47</f>
@@ -38802,7 +38800,7 @@
     <row r="50" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A50">
         <f>'grpc time raw data'!A48</f>
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B50">
         <f>'grpc time raw data'!B48</f>
@@ -38818,7 +38816,7 @@
       </c>
       <c r="E50">
         <f>'grpc time raw data'!D48</f>
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="F50">
         <f>'grpc time raw data'!E48</f>
@@ -38834,7 +38832,7 @@
       </c>
       <c r="I50">
         <f>'grpc time raw data'!G48</f>
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="J50">
         <f>'grpc time raw data'!H48</f>
@@ -38850,7 +38848,7 @@
       </c>
       <c r="M50">
         <f>'grpc time raw data'!J48</f>
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="N50">
         <f>'grpc time raw data'!K48</f>
@@ -38866,7 +38864,7 @@
       </c>
       <c r="Q50">
         <f>'grpc time raw data'!M48</f>
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="R50">
         <f>'grpc time raw data'!N48</f>
@@ -38930,7 +38928,7 @@
       </c>
       <c r="AH50">
         <f>'http time raw data'!A48</f>
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="AI50">
         <f>'http time raw data'!B48</f>
@@ -38946,7 +38944,7 @@
       </c>
       <c r="AL50">
         <f>'http time raw data'!D48</f>
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="AM50">
         <f>'http time raw data'!E48</f>
@@ -38962,7 +38960,7 @@
       </c>
       <c r="AP50">
         <f>'http time raw data'!G48</f>
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="AQ50">
         <f>'http time raw data'!H48</f>
@@ -38978,7 +38976,7 @@
       </c>
       <c r="AT50">
         <f>'http time raw data'!J48</f>
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="AU50">
         <f>'http time raw data'!K48</f>
@@ -38994,7 +38992,7 @@
       </c>
       <c r="AX50">
         <f>'http time raw data'!M48</f>
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="AY50">
         <f>'http time raw data'!N48</f>
@@ -39108,7 +39106,7 @@
     <row r="51" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A51">
         <f>'grpc time raw data'!A49</f>
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B51">
         <f>'grpc time raw data'!B49</f>
@@ -39124,7 +39122,7 @@
       </c>
       <c r="E51">
         <f>'grpc time raw data'!D49</f>
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="F51">
         <f>'grpc time raw data'!E49</f>
@@ -39140,7 +39138,7 @@
       </c>
       <c r="I51">
         <f>'grpc time raw data'!G49</f>
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="J51">
         <f>'grpc time raw data'!H49</f>
@@ -39156,7 +39154,7 @@
       </c>
       <c r="M51">
         <f>'grpc time raw data'!J49</f>
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="N51">
         <f>'grpc time raw data'!K49</f>
@@ -39172,7 +39170,7 @@
       </c>
       <c r="Q51">
         <f>'grpc time raw data'!M49</f>
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="R51">
         <f>'grpc time raw data'!N49</f>
@@ -39236,7 +39234,7 @@
       </c>
       <c r="AH51">
         <f>'http time raw data'!A49</f>
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="AI51">
         <f>'http time raw data'!B49</f>
@@ -39252,7 +39250,7 @@
       </c>
       <c r="AL51">
         <f>'http time raw data'!D49</f>
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="AM51">
         <f>'http time raw data'!E49</f>
@@ -39268,7 +39266,7 @@
       </c>
       <c r="AP51">
         <f>'http time raw data'!G49</f>
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="AQ51">
         <f>'http time raw data'!H49</f>
@@ -39284,7 +39282,7 @@
       </c>
       <c r="AT51">
         <f>'http time raw data'!J49</f>
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="AU51">
         <f>'http time raw data'!K49</f>
@@ -39300,7 +39298,7 @@
       </c>
       <c r="AX51">
         <f>'http time raw data'!M49</f>
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="AY51">
         <f>'http time raw data'!N49</f>
@@ -39414,7 +39412,7 @@
     <row r="52" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A52">
         <f>'grpc time raw data'!A50</f>
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B52">
         <f>'grpc time raw data'!B50</f>
@@ -39430,7 +39428,7 @@
       </c>
       <c r="E52">
         <f>'grpc time raw data'!D50</f>
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="F52">
         <f>'grpc time raw data'!E50</f>
@@ -39446,7 +39444,7 @@
       </c>
       <c r="I52">
         <f>'grpc time raw data'!G50</f>
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J52">
         <f>'grpc time raw data'!H50</f>
@@ -39462,7 +39460,7 @@
       </c>
       <c r="M52">
         <f>'grpc time raw data'!J50</f>
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="N52">
         <f>'grpc time raw data'!K50</f>
@@ -39478,7 +39476,7 @@
       </c>
       <c r="Q52">
         <f>'grpc time raw data'!M50</f>
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="R52">
         <f>'grpc time raw data'!N50</f>
@@ -39542,7 +39540,7 @@
       </c>
       <c r="AH52">
         <f>'http time raw data'!A50</f>
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="AI52">
         <f>'http time raw data'!B50</f>
@@ -39558,7 +39556,7 @@
       </c>
       <c r="AL52">
         <f>'http time raw data'!D50</f>
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="AM52">
         <f>'http time raw data'!E50</f>
@@ -39574,7 +39572,7 @@
       </c>
       <c r="AP52">
         <f>'http time raw data'!G50</f>
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="AQ52">
         <f>'http time raw data'!H50</f>
@@ -39590,7 +39588,7 @@
       </c>
       <c r="AT52">
         <f>'http time raw data'!J50</f>
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="AU52">
         <f>'http time raw data'!K50</f>
@@ -39606,7 +39604,7 @@
       </c>
       <c r="AX52">
         <f>'http time raw data'!M50</f>
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="AY52">
         <f>'http time raw data'!N50</f>

--- a/grpcbenchmarking.xlsx
+++ b/grpcbenchmarking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Desktop\grpcbenchmarking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28019876-B72E-496A-A2D3-DEFDBF1A028D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80300B7C-2F61-46DF-ABF5-B5580A27DF46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="grpc size raw data" sheetId="5" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="57">
   <si>
     <t>grpc</t>
   </si>
@@ -194,13 +194,32 @@
   <si>
     <t>responseheadersize_download</t>
   </si>
+  <si>
+    <t>Test 5</t>
+  </si>
+  <si>
+    <t>Test 6</t>
+  </si>
+  <si>
+    <t>Test 7</t>
+  </si>
+  <si>
+    <t>Test 8</t>
+  </si>
+  <si>
+    <t>average size uploaded file [Megabyte]</t>
+  </si>
+  <si>
+    <t>average size downloaded [Megabyte]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.000%"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -256,7 +275,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -311,21 +330,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -347,17 +351,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -408,22 +401,16 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -434,7 +421,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -446,24 +433,31 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -632,34 +626,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>5331.3798999999999</c:v>
+                  <c:v>1865.0048999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5039.1736000000001</c:v>
+                  <c:v>1341.9227000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4874.6598999999997</c:v>
+                  <c:v>1261.6004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4665.6536999999998</c:v>
+                  <c:v>1149.9896000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4308.491</c:v>
+                  <c:v>1182.8979999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4625.6525000000001</c:v>
+                  <c:v>1175.8776</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5048.9863999999998</c:v>
+                  <c:v>1223.7091</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5354.0766999999996</c:v>
+                  <c:v>1509.835</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5096.7389000000003</c:v>
+                  <c:v>1136.3040000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4073.5563999999999</c:v>
+                  <c:v>1249.8856000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -816,34 +810,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>24742.015200000002</c:v>
+                  <c:v>7966.8809000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23319.619699999999</c:v>
+                  <c:v>6772.0446000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23140.836800000001</c:v>
+                  <c:v>6831.8447999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24370.483199999999</c:v>
+                  <c:v>7877.4946</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24515.0589</c:v>
+                  <c:v>6693.1373999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23833.7785</c:v>
+                  <c:v>6858.4579999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>25494.176599999999</c:v>
+                  <c:v>7774.6853000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>26923.939900000001</c:v>
+                  <c:v>7688.4769999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>23603.731</c:v>
+                  <c:v>7163.4946</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>21641.741399999999</c:v>
+                  <c:v>7878.6688999999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -1387,34 +1381,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2.0547</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2.9361999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2.9683000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1.9044000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>2.5125000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>2.2623000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>3.0931000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1.9448000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1.9276</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>1.8166</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -1571,34 +1565,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>20.1433</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>21.613199999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>19.8492</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>21.623699999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>13.946</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>24.610399999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>22.446300000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>17.276</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>20.7835</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>20.980699999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -2184,34 +2178,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>15.4771</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>15.96</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>16.3841</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>16.55</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>14.251300000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>9.5803999999999991</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>11.985200000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>10.391</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>11.3035</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>17.991199999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -2368,34 +2362,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>40.098999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>30.9054</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>26.484999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>28.029199999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>37.625399999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>35.068300000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>27.636600000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>21.253699999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>41.385100000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>22.723099999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -4556,34 +4550,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.213368</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.213368</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.213368</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.213368</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.213368</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.213368</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.213368</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.213368</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.213368</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.213368</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -4740,34 +4734,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.21338299999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.21338299999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.21338299999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.21338299999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.21338299999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.21338299999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.21338299999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.21338299999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.21338299999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.21338299999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -4924,34 +4918,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1.9999999999999999E-6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1.9999999999999999E-6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1.9999999999999999E-6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1.9999999999999999E-6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1.9999999999999999E-6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1.9999999999999999E-6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1.9999999999999999E-6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1.9999999999999999E-6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1.9999999999999999E-6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>1.9999999999999999E-6</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -5512,34 +5506,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.21340400000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.21340400000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.21340400000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.21340400000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.21340400000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.21340400000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.21340400000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.21340400000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.21340400000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.21340400000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -5696,34 +5690,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.21365999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.21365999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.21365999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.21365999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.21365999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.21365999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.21365999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.21365999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.21365999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.21365999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -5880,34 +5874,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>9.9999999999999995E-7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>9.9999999999999995E-7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>9.9999999999999995E-7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>9.9999999999999995E-7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>9.9999999999999995E-7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>9.9999999999999995E-7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>9.9999999999999995E-7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>9.9999999999999995E-7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>9.9999999999999995E-7</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>9.9999999999999995E-7</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -6464,34 +6458,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>4629.8332</c:v>
+                  <c:v>1433.077</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4138.0803999999998</c:v>
+                  <c:v>1552.5143</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4505.4285</c:v>
+                  <c:v>1399.2922000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4530.8164999999999</c:v>
+                  <c:v>1820.7652</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5178.6745000000001</c:v>
+                  <c:v>1557.5581</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4833.5312000000004</c:v>
+                  <c:v>1473.461</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4685.8770000000004</c:v>
+                  <c:v>1386.7739999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4630.384</c:v>
+                  <c:v>1377.7629999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5602.2678999999998</c:v>
+                  <c:v>1599.1576</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4644.2052999999996</c:v>
+                  <c:v>1353.2420999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -6648,34 +6642,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>4839.6747999999998</c:v>
+                  <c:v>1537.7109</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5256.6860999999999</c:v>
+                  <c:v>1577.4726000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5135.9699000000001</c:v>
+                  <c:v>1410.1982</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6488.0792000000001</c:v>
+                  <c:v>1546.2859000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5416.3221999999996</c:v>
+                  <c:v>1464.2582</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5227.1198000000004</c:v>
+                  <c:v>1407.4042999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5608.5316000000003</c:v>
+                  <c:v>1694.8210999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6057.6970000000001</c:v>
+                  <c:v>1595.3613</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6174.0397999999996</c:v>
+                  <c:v>1563.2405000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5334.7343000000001</c:v>
+                  <c:v>1580.1162999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -7255,34 +7249,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>0.82170600000000005</c:v>
+                  <c:v>0.85451999999999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.86437399999999998</c:v>
+                  <c:v>1.0151600000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.83146799999999998</c:v>
+                  <c:v>1.0144</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.81278399999999995</c:v>
+                  <c:v>1.2051499999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.0294840000000001</c:v>
+                  <c:v>0.55681999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.93339000000000005</c:v>
+                  <c:v>1.1653800000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.85683600000000004</c:v>
+                  <c:v>3.8767499999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.94587600000000005</c:v>
+                  <c:v>1.0762400000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.6745800000000002</c:v>
+                  <c:v>0.55508000000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.93177600000000005</c:v>
+                  <c:v>1.2014199999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -7439,34 +7433,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>4.8394300000000001</c:v>
+                  <c:v>1.00319</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1775199999999999</c:v>
+                  <c:v>1.1905699999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.1793800000000001</c:v>
+                  <c:v>2.9578899999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.5866600000000002</c:v>
+                  <c:v>0.99009999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.7249800000000004</c:v>
+                  <c:v>2.4865400000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.96122</c:v>
+                  <c:v>1.1637900000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.3146100000000001</c:v>
+                  <c:v>1.52437</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.0200699999999996</c:v>
+                  <c:v>0.28560999999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.0360800000000001</c:v>
+                  <c:v>1.9947999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.9647899999999998</c:v>
+                  <c:v>1.2823</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -8018,34 +8012,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>79.903402</c:v>
+                  <c:v>26.696339999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>79.659683999999999</c:v>
+                  <c:v>27.014690000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>80.269360000000006</c:v>
+                  <c:v>25.874500000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>80.493067999999994</c:v>
+                  <c:v>25.769570000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>80.579132000000001</c:v>
+                  <c:v>35.988810000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>80.289439999999999</c:v>
+                  <c:v>26.174410000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>81.352041999999997</c:v>
+                  <c:v>26.052330000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>80.258654000000007</c:v>
+                  <c:v>25.709510000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>99.784570000000002</c:v>
+                  <c:v>38.930900000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>87.105717999999996</c:v>
+                  <c:v>26.036809999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -8202,34 +8196,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>86.434749999999994</c:v>
+                  <c:v>27.606459999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>93.249949999999998</c:v>
+                  <c:v>47.35859</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>88.45017</c:v>
+                  <c:v>31.777139999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>90.986739999999998</c:v>
+                  <c:v>29.375240000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>87.418430000000001</c:v>
+                  <c:v>32.111370000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>91.009820000000005</c:v>
+                  <c:v>29.78585</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>89.456710000000001</c:v>
+                  <c:v>27.715039999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>90.423670000000001</c:v>
+                  <c:v>31.618670000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>113.88804</c:v>
+                  <c:v>27.992049999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>100.14798</c:v>
+                  <c:v>35.36636</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -8780,34 +8774,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>73.336967999999999</c:v>
+                  <c:v>23.635639999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>73.636591999999993</c:v>
+                  <c:v>23.172879999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>74.156987999999998</c:v>
+                  <c:v>29.67089</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>73.512075999999993</c:v>
+                  <c:v>22.3156</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>74.317487999999997</c:v>
+                  <c:v>25.038180000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>73.903474000000003</c:v>
+                  <c:v>22.440860000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>74.326595999999995</c:v>
+                  <c:v>22.852150000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>73.552622</c:v>
+                  <c:v>22.014869999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>75.092913999999993</c:v>
+                  <c:v>25.179020000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>74.060828000000001</c:v>
+                  <c:v>22.194870000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -8964,34 +8958,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>65.378730000000004</c:v>
+                  <c:v>19.006450000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>75.074830000000006</c:v>
+                  <c:v>18.27937</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>68.576430000000002</c:v>
+                  <c:v>18.511009999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>66.690659999999994</c:v>
+                  <c:v>19.311119999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>66.199259999999995</c:v>
+                  <c:v>18.941600000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>66.88167</c:v>
+                  <c:v>19.653390000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>66.260869999999997</c:v>
+                  <c:v>17.87529</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>67.180989999999994</c:v>
+                  <c:v>19.5473</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>80.989540000000005</c:v>
+                  <c:v>20.00189</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>68.694670000000002</c:v>
+                  <c:v>19.709109999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -9587,16 +9581,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>124</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>124</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>125</c:v>
@@ -9611,10 +9605,10 @@
                   <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>124</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>124</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -10551,34 +10545,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>99.999876999999998</c:v>
+                  <c:v>100.00013199999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100.000024</c:v>
+                  <c:v>100.000422</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>99.999961999999996</c:v>
+                  <c:v>99.999930000000006</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100.0001</c:v>
+                  <c:v>100.00018300000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>99.999955</c:v>
+                  <c:v>99.999920000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>100.000193</c:v>
+                  <c:v>99.999954000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>100.000184</c:v>
+                  <c:v>100.000235</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>100.00022</c:v>
+                  <c:v>99.999988000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>100.000011</c:v>
+                  <c:v>100.000117</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>100.000084</c:v>
+                  <c:v>99.999932000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -12531,34 +12525,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>99.999948000000003</c:v>
+                  <c:v>100.00019899999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>99.999948000000003</c:v>
+                  <c:v>100.00019899999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>99.999948000000003</c:v>
+                  <c:v>100.00019899999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>99.999948000000003</c:v>
+                  <c:v>100.00019899999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>99.999948000000003</c:v>
+                  <c:v>100.00019899999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>99.999948000000003</c:v>
+                  <c:v>100.00019899999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>99.999948000000003</c:v>
+                  <c:v>100.00019899999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>99.999948000000003</c:v>
+                  <c:v>100.00019899999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>99.999948000000003</c:v>
+                  <c:v>100.00019899999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>99.999948000000003</c:v>
+                  <c:v>100.00019899999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -21879,14 +21873,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>1903765</xdr:colOff>
+      <xdr:colOff>1970999</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>22500</xdr:rowOff>
     </xdr:to>
@@ -21917,14 +21911,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>1903765</xdr:colOff>
+      <xdr:colOff>1970999</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>22500</xdr:rowOff>
     </xdr:to>
@@ -21956,13 +21950,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>2140323</xdr:colOff>
+      <xdr:colOff>2140322</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>616322</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>246530</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>22500</xdr:rowOff>
     </xdr:to>
@@ -21999,8 +21993,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>64398</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>503030</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>22500</xdr:rowOff>
     </xdr:to>
@@ -22227,8 +22221,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>760765</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>503030</xdr:colOff>
       <xdr:row>57</xdr:row>
       <xdr:rowOff>22500</xdr:rowOff>
     </xdr:to>
@@ -22539,7 +22533,7 @@
         <v>0</v>
       </c>
       <c r="C1">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D1">
         <v>0</v>
@@ -22557,7 +22551,7 @@
         <v>2</v>
       </c>
       <c r="I1">
-        <v>99999877</v>
+        <v>100000132</v>
       </c>
       <c r="J1">
         <v>0</v>
@@ -22566,7 +22560,7 @@
         <v>3</v>
       </c>
       <c r="L1">
-        <v>99999948</v>
+        <v>100000199</v>
       </c>
       <c r="M1">
         <v>0</v>
@@ -22575,7 +22569,7 @@
         <v>4</v>
       </c>
       <c r="O1">
-        <v>0</v>
+        <v>213404</v>
       </c>
       <c r="P1">
         <v>0</v>
@@ -22584,7 +22578,7 @@
         <v>5</v>
       </c>
       <c r="R1">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="S1">
         <v>0</v>
@@ -22593,7 +22587,7 @@
         <v>6</v>
       </c>
       <c r="U1">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="V1">
         <v>0</v>
@@ -22602,7 +22596,7 @@
         <v>7</v>
       </c>
       <c r="X1">
-        <v>0</v>
+        <v>213368</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
@@ -22613,7 +22607,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -22631,7 +22625,7 @@
         <v>2</v>
       </c>
       <c r="I2">
-        <v>100000024</v>
+        <v>100000422</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -22640,7 +22634,7 @@
         <v>3</v>
       </c>
       <c r="L2">
-        <v>99999948</v>
+        <v>100000199</v>
       </c>
       <c r="M2">
         <v>1</v>
@@ -22649,7 +22643,7 @@
         <v>4</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>213404</v>
       </c>
       <c r="P2">
         <v>1</v>
@@ -22658,7 +22652,7 @@
         <v>5</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="S2">
         <v>1</v>
@@ -22667,7 +22661,7 @@
         <v>6</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="V2">
         <v>1</v>
@@ -22676,7 +22670,7 @@
         <v>7</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>213368</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
@@ -22705,7 +22699,7 @@
         <v>2</v>
       </c>
       <c r="I3">
-        <v>99999962</v>
+        <v>99999930</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -22714,7 +22708,7 @@
         <v>3</v>
       </c>
       <c r="L3">
-        <v>99999948</v>
+        <v>100000199</v>
       </c>
       <c r="M3">
         <v>2</v>
@@ -22723,7 +22717,7 @@
         <v>4</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>213404</v>
       </c>
       <c r="P3">
         <v>2</v>
@@ -22732,7 +22726,7 @@
         <v>5</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="S3">
         <v>2</v>
@@ -22741,7 +22735,7 @@
         <v>6</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="V3">
         <v>2</v>
@@ -22750,7 +22744,7 @@
         <v>7</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>213368</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
@@ -22761,7 +22755,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -22779,7 +22773,7 @@
         <v>2</v>
       </c>
       <c r="I4">
-        <v>100000100</v>
+        <v>100000183</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -22788,7 +22782,7 @@
         <v>3</v>
       </c>
       <c r="L4">
-        <v>99999948</v>
+        <v>100000199</v>
       </c>
       <c r="M4">
         <v>3</v>
@@ -22797,7 +22791,7 @@
         <v>4</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>213404</v>
       </c>
       <c r="P4">
         <v>3</v>
@@ -22806,7 +22800,7 @@
         <v>5</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="S4">
         <v>3</v>
@@ -22815,7 +22809,7 @@
         <v>6</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="V4">
         <v>3</v>
@@ -22824,7 +22818,7 @@
         <v>7</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>213368</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
@@ -22853,7 +22847,7 @@
         <v>2</v>
       </c>
       <c r="I5">
-        <v>99999955</v>
+        <v>99999920</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -22862,7 +22856,7 @@
         <v>3</v>
       </c>
       <c r="L5">
-        <v>99999948</v>
+        <v>100000199</v>
       </c>
       <c r="M5">
         <v>4</v>
@@ -22871,7 +22865,7 @@
         <v>4</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>213404</v>
       </c>
       <c r="P5">
         <v>4</v>
@@ -22880,7 +22874,7 @@
         <v>5</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="S5">
         <v>4</v>
@@ -22889,7 +22883,7 @@
         <v>6</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="V5">
         <v>4</v>
@@ -22898,7 +22892,7 @@
         <v>7</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>213368</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
@@ -22927,7 +22921,7 @@
         <v>2</v>
       </c>
       <c r="I6">
-        <v>100000193</v>
+        <v>99999954</v>
       </c>
       <c r="J6">
         <v>5</v>
@@ -22936,7 +22930,7 @@
         <v>3</v>
       </c>
       <c r="L6">
-        <v>99999948</v>
+        <v>100000199</v>
       </c>
       <c r="M6">
         <v>5</v>
@@ -22945,7 +22939,7 @@
         <v>4</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>213404</v>
       </c>
       <c r="P6">
         <v>5</v>
@@ -22954,7 +22948,7 @@
         <v>5</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="S6">
         <v>5</v>
@@ -22963,7 +22957,7 @@
         <v>6</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="V6">
         <v>5</v>
@@ -22972,7 +22966,7 @@
         <v>7</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>213368</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
@@ -23001,7 +22995,7 @@
         <v>2</v>
       </c>
       <c r="I7">
-        <v>100000184</v>
+        <v>100000235</v>
       </c>
       <c r="J7">
         <v>6</v>
@@ -23010,7 +23004,7 @@
         <v>3</v>
       </c>
       <c r="L7">
-        <v>99999948</v>
+        <v>100000199</v>
       </c>
       <c r="M7">
         <v>6</v>
@@ -23019,7 +23013,7 @@
         <v>4</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>213404</v>
       </c>
       <c r="P7">
         <v>6</v>
@@ -23028,7 +23022,7 @@
         <v>5</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="S7">
         <v>6</v>
@@ -23037,7 +23031,7 @@
         <v>6</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="V7">
         <v>6</v>
@@ -23046,7 +23040,7 @@
         <v>7</v>
       </c>
       <c r="X7">
-        <v>0</v>
+        <v>213368</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
@@ -23075,7 +23069,7 @@
         <v>2</v>
       </c>
       <c r="I8">
-        <v>100000220</v>
+        <v>99999988</v>
       </c>
       <c r="J8">
         <v>7</v>
@@ -23084,7 +23078,7 @@
         <v>3</v>
       </c>
       <c r="L8">
-        <v>99999948</v>
+        <v>100000199</v>
       </c>
       <c r="M8">
         <v>7</v>
@@ -23093,7 +23087,7 @@
         <v>4</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>213404</v>
       </c>
       <c r="P8">
         <v>7</v>
@@ -23102,7 +23096,7 @@
         <v>5</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="S8">
         <v>7</v>
@@ -23111,7 +23105,7 @@
         <v>6</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="V8">
         <v>7</v>
@@ -23120,7 +23114,7 @@
         <v>7</v>
       </c>
       <c r="X8">
-        <v>0</v>
+        <v>213368</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
@@ -23131,7 +23125,7 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D9">
         <v>8</v>
@@ -23149,7 +23143,7 @@
         <v>2</v>
       </c>
       <c r="I9">
-        <v>100000011</v>
+        <v>100000117</v>
       </c>
       <c r="J9">
         <v>8</v>
@@ -23158,7 +23152,7 @@
         <v>3</v>
       </c>
       <c r="L9">
-        <v>99999948</v>
+        <v>100000199</v>
       </c>
       <c r="M9">
         <v>8</v>
@@ -23167,7 +23161,7 @@
         <v>4</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>213404</v>
       </c>
       <c r="P9">
         <v>8</v>
@@ -23176,7 +23170,7 @@
         <v>5</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="S9">
         <v>8</v>
@@ -23185,7 +23179,7 @@
         <v>6</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="V9">
         <v>8</v>
@@ -23194,7 +23188,7 @@
         <v>7</v>
       </c>
       <c r="X9">
-        <v>0</v>
+        <v>213368</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
@@ -23205,7 +23199,7 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D10">
         <v>9</v>
@@ -23223,7 +23217,7 @@
         <v>2</v>
       </c>
       <c r="I10">
-        <v>100000084</v>
+        <v>99999932</v>
       </c>
       <c r="J10">
         <v>9</v>
@@ -23232,7 +23226,7 @@
         <v>3</v>
       </c>
       <c r="L10">
-        <v>99999948</v>
+        <v>100000199</v>
       </c>
       <c r="M10">
         <v>9</v>
@@ -23241,7 +23235,7 @@
         <v>4</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>213404</v>
       </c>
       <c r="P10">
         <v>9</v>
@@ -23250,7 +23244,7 @@
         <v>5</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="S10">
         <v>9</v>
@@ -23259,7 +23253,7 @@
         <v>6</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="V10">
         <v>9</v>
@@ -23268,7 +23262,7 @@
         <v>7</v>
       </c>
       <c r="X10">
-        <v>0</v>
+        <v>213368</v>
       </c>
     </row>
   </sheetData>
@@ -23280,8 +23274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23298,7 +23292,7 @@
         <v>0</v>
       </c>
       <c r="C1">
-        <v>5331379900</v>
+        <v>1865004900</v>
       </c>
       <c r="D1">
         <v>0</v>
@@ -23307,7 +23301,7 @@
         <v>1</v>
       </c>
       <c r="F1">
-        <v>4629833200</v>
+        <v>1433077000</v>
       </c>
       <c r="G1">
         <v>0</v>
@@ -23316,7 +23310,7 @@
         <v>2</v>
       </c>
       <c r="I1">
-        <v>821706</v>
+        <v>854520</v>
       </c>
       <c r="J1">
         <v>0</v>
@@ -23325,7 +23319,7 @@
         <v>3</v>
       </c>
       <c r="L1">
-        <v>79903402</v>
+        <v>26696340</v>
       </c>
       <c r="M1">
         <v>0</v>
@@ -23334,7 +23328,7 @@
         <v>4</v>
       </c>
       <c r="O1">
-        <v>73336968</v>
+        <v>23635640</v>
       </c>
       <c r="P1">
         <v>0</v>
@@ -23343,7 +23337,7 @@
         <v>5</v>
       </c>
       <c r="R1">
-        <v>0</v>
+        <v>2054700</v>
       </c>
       <c r="S1">
         <v>0</v>
@@ -23352,7 +23346,7 @@
         <v>6</v>
       </c>
       <c r="U1">
-        <v>0</v>
+        <v>15477100</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -23363,7 +23357,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5039173600</v>
+        <v>1341922700</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -23372,7 +23366,7 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>4138080400</v>
+        <v>1552514300</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -23381,7 +23375,7 @@
         <v>2</v>
       </c>
       <c r="I2">
-        <v>864374</v>
+        <v>1015160</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -23390,7 +23384,7 @@
         <v>3</v>
       </c>
       <c r="L2">
-        <v>79659684</v>
+        <v>27014690</v>
       </c>
       <c r="M2">
         <v>1</v>
@@ -23399,7 +23393,7 @@
         <v>4</v>
       </c>
       <c r="O2">
-        <v>73636592</v>
+        <v>23172880</v>
       </c>
       <c r="P2">
         <v>1</v>
@@ -23408,7 +23402,7 @@
         <v>5</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>2936200</v>
       </c>
       <c r="S2">
         <v>1</v>
@@ -23417,7 +23411,7 @@
         <v>6</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>15960000</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
@@ -23428,7 +23422,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4874659900</v>
+        <v>1261600400</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -23437,7 +23431,7 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>4505428500</v>
+        <v>1399292200</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -23446,7 +23440,7 @@
         <v>2</v>
       </c>
       <c r="I3">
-        <v>831468</v>
+        <v>1014400</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -23455,7 +23449,7 @@
         <v>3</v>
       </c>
       <c r="L3">
-        <v>80269360</v>
+        <v>25874500</v>
       </c>
       <c r="M3">
         <v>2</v>
@@ -23464,7 +23458,7 @@
         <v>4</v>
       </c>
       <c r="O3">
-        <v>74156988</v>
+        <v>29670890</v>
       </c>
       <c r="P3">
         <v>2</v>
@@ -23473,7 +23467,7 @@
         <v>5</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>2968300</v>
       </c>
       <c r="S3">
         <v>2</v>
@@ -23482,7 +23476,7 @@
         <v>6</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>16384100</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
@@ -23493,7 +23487,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4665653700</v>
+        <v>1149989600</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -23502,7 +23496,7 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>4530816500</v>
+        <v>1820765200</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -23511,7 +23505,7 @@
         <v>2</v>
       </c>
       <c r="I4">
-        <v>812784</v>
+        <v>1205150</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -23520,7 +23514,7 @@
         <v>3</v>
       </c>
       <c r="L4">
-        <v>80493068</v>
+        <v>25769570</v>
       </c>
       <c r="M4">
         <v>3</v>
@@ -23529,7 +23523,7 @@
         <v>4</v>
       </c>
       <c r="O4">
-        <v>73512076</v>
+        <v>22315600</v>
       </c>
       <c r="P4">
         <v>3</v>
@@ -23538,7 +23532,7 @@
         <v>5</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>1904400</v>
       </c>
       <c r="S4">
         <v>3</v>
@@ -23547,7 +23541,7 @@
         <v>6</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>16550000</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
@@ -23558,7 +23552,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4308491000</v>
+        <v>1182898000</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -23567,7 +23561,7 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>5178674500</v>
+        <v>1557558100</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -23576,7 +23570,7 @@
         <v>2</v>
       </c>
       <c r="I5">
-        <v>6029484</v>
+        <v>556820</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -23585,7 +23579,7 @@
         <v>3</v>
       </c>
       <c r="L5">
-        <v>80579132</v>
+        <v>35988810</v>
       </c>
       <c r="M5">
         <v>4</v>
@@ -23594,7 +23588,7 @@
         <v>4</v>
       </c>
       <c r="O5">
-        <v>74317488</v>
+        <v>25038180</v>
       </c>
       <c r="P5">
         <v>4</v>
@@ -23603,7 +23597,7 @@
         <v>5</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>2512500</v>
       </c>
       <c r="S5">
         <v>4</v>
@@ -23612,7 +23606,7 @@
         <v>6</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>14251300</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
@@ -23623,7 +23617,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4625652500</v>
+        <v>1175877600</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -23632,7 +23626,7 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>4833531200</v>
+        <v>1473461000</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -23641,7 +23635,7 @@
         <v>2</v>
       </c>
       <c r="I6">
-        <v>933390</v>
+        <v>1165380</v>
       </c>
       <c r="J6">
         <v>5</v>
@@ -23650,7 +23644,7 @@
         <v>3</v>
       </c>
       <c r="L6">
-        <v>80289440</v>
+        <v>26174410</v>
       </c>
       <c r="M6">
         <v>5</v>
@@ -23659,7 +23653,7 @@
         <v>4</v>
       </c>
       <c r="O6">
-        <v>73903474</v>
+        <v>22440860</v>
       </c>
       <c r="P6">
         <v>5</v>
@@ -23668,7 +23662,7 @@
         <v>5</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>2262300</v>
       </c>
       <c r="S6">
         <v>5</v>
@@ -23677,7 +23671,7 @@
         <v>6</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>9580400</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
@@ -23688,7 +23682,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>5048986400</v>
+        <v>1223709100</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -23697,7 +23691,7 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>4685877000</v>
+        <v>1386774000</v>
       </c>
       <c r="G7">
         <v>6</v>
@@ -23706,7 +23700,7 @@
         <v>2</v>
       </c>
       <c r="I7">
-        <v>856836</v>
+        <v>3876750</v>
       </c>
       <c r="J7">
         <v>6</v>
@@ -23715,7 +23709,7 @@
         <v>3</v>
       </c>
       <c r="L7">
-        <v>81352042</v>
+        <v>26052330</v>
       </c>
       <c r="M7">
         <v>6</v>
@@ -23724,7 +23718,7 @@
         <v>4</v>
       </c>
       <c r="O7">
-        <v>74326596</v>
+        <v>22852150</v>
       </c>
       <c r="P7">
         <v>6</v>
@@ -23733,7 +23727,7 @@
         <v>5</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>3093100</v>
       </c>
       <c r="S7">
         <v>6</v>
@@ -23742,7 +23736,7 @@
         <v>6</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>11985200</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
@@ -23753,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>5354076700</v>
+        <v>1509835000</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -23762,7 +23756,7 @@
         <v>1</v>
       </c>
       <c r="F8">
-        <v>4630384000</v>
+        <v>1377763000</v>
       </c>
       <c r="G8">
         <v>7</v>
@@ -23771,7 +23765,7 @@
         <v>2</v>
       </c>
       <c r="I8">
-        <v>945876</v>
+        <v>1076240</v>
       </c>
       <c r="J8">
         <v>7</v>
@@ -23780,7 +23774,7 @@
         <v>3</v>
       </c>
       <c r="L8">
-        <v>80258654</v>
+        <v>25709510</v>
       </c>
       <c r="M8">
         <v>7</v>
@@ -23789,7 +23783,7 @@
         <v>4</v>
       </c>
       <c r="O8">
-        <v>73552622</v>
+        <v>22014870</v>
       </c>
       <c r="P8">
         <v>7</v>
@@ -23798,7 +23792,7 @@
         <v>5</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>1944800</v>
       </c>
       <c r="S8">
         <v>7</v>
@@ -23807,7 +23801,7 @@
         <v>6</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>10391000</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
@@ -23818,7 +23812,7 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5096738900</v>
+        <v>1136304000</v>
       </c>
       <c r="D9">
         <v>8</v>
@@ -23827,7 +23821,7 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>5602267900</v>
+        <v>1599157600</v>
       </c>
       <c r="G9">
         <v>8</v>
@@ -23836,7 +23830,7 @@
         <v>2</v>
       </c>
       <c r="I9">
-        <v>2674580</v>
+        <v>555080</v>
       </c>
       <c r="J9">
         <v>8</v>
@@ -23845,7 +23839,7 @@
         <v>3</v>
       </c>
       <c r="L9">
-        <v>99784570</v>
+        <v>38930900</v>
       </c>
       <c r="M9">
         <v>8</v>
@@ -23854,7 +23848,7 @@
         <v>4</v>
       </c>
       <c r="O9">
-        <v>75092914</v>
+        <v>25179020</v>
       </c>
       <c r="P9">
         <v>8</v>
@@ -23863,7 +23857,7 @@
         <v>5</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>1927600</v>
       </c>
       <c r="S9">
         <v>8</v>
@@ -23872,7 +23866,7 @@
         <v>6</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>11303500</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
@@ -23883,7 +23877,7 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>4073556400</v>
+        <v>1249885600</v>
       </c>
       <c r="D10">
         <v>9</v>
@@ -23892,7 +23886,7 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>4644205300</v>
+        <v>1353242100</v>
       </c>
       <c r="G10">
         <v>9</v>
@@ -23901,7 +23895,7 @@
         <v>2</v>
       </c>
       <c r="I10">
-        <v>931776</v>
+        <v>1201420</v>
       </c>
       <c r="J10">
         <v>9</v>
@@ -23910,7 +23904,7 @@
         <v>3</v>
       </c>
       <c r="L10">
-        <v>87105718</v>
+        <v>26036810</v>
       </c>
       <c r="M10">
         <v>9</v>
@@ -23919,7 +23913,7 @@
         <v>4</v>
       </c>
       <c r="O10">
-        <v>74060828</v>
+        <v>22194870</v>
       </c>
       <c r="P10">
         <v>9</v>
@@ -23928,7 +23922,7 @@
         <v>5</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>1816600</v>
       </c>
       <c r="S10">
         <v>9</v>
@@ -23937,7 +23931,7 @@
         <v>6</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>17991200</v>
       </c>
     </row>
   </sheetData>
@@ -23950,7 +23944,7 @@
   <dimension ref="A1:AP10"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24035,7 +24029,7 @@
         <v>8</v>
       </c>
       <c r="AA1">
-        <v>0</v>
+        <v>213660</v>
       </c>
       <c r="AB1">
         <v>0</v>
@@ -24044,7 +24038,7 @@
         <v>9</v>
       </c>
       <c r="AD1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE1">
         <v>0</v>
@@ -24053,7 +24047,7 @@
         <v>10</v>
       </c>
       <c r="AG1">
-        <v>0</v>
+        <v>494</v>
       </c>
       <c r="AH1">
         <v>0</v>
@@ -24062,7 +24056,7 @@
         <v>11</v>
       </c>
       <c r="AJ1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AK1">
         <v>0</v>
@@ -24071,7 +24065,7 @@
         <v>12</v>
       </c>
       <c r="AM1">
-        <v>0</v>
+        <v>213383</v>
       </c>
       <c r="AN1">
         <v>0</v>
@@ -24080,7 +24074,7 @@
         <v>13</v>
       </c>
       <c r="AP1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:42" x14ac:dyDescent="0.25">
@@ -24163,7 +24157,7 @@
         <v>8</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>213660</v>
       </c>
       <c r="AB2">
         <v>1</v>
@@ -24172,7 +24166,7 @@
         <v>9</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE2">
         <v>1</v>
@@ -24181,7 +24175,7 @@
         <v>10</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>494</v>
       </c>
       <c r="AH2">
         <v>1</v>
@@ -24190,7 +24184,7 @@
         <v>11</v>
       </c>
       <c r="AJ2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AK2">
         <v>1</v>
@@ -24199,7 +24193,7 @@
         <v>12</v>
       </c>
       <c r="AM2">
-        <v>0</v>
+        <v>213383</v>
       </c>
       <c r="AN2">
         <v>1</v>
@@ -24208,7 +24202,7 @@
         <v>13</v>
       </c>
       <c r="AP2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:42" x14ac:dyDescent="0.25">
@@ -24291,7 +24285,7 @@
         <v>8</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>213660</v>
       </c>
       <c r="AB3">
         <v>2</v>
@@ -24300,7 +24294,7 @@
         <v>9</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE3">
         <v>2</v>
@@ -24309,7 +24303,7 @@
         <v>10</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>494</v>
       </c>
       <c r="AH3">
         <v>2</v>
@@ -24318,7 +24312,7 @@
         <v>11</v>
       </c>
       <c r="AJ3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AK3">
         <v>2</v>
@@ -24327,7 +24321,7 @@
         <v>12</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <v>213383</v>
       </c>
       <c r="AN3">
         <v>2</v>
@@ -24336,7 +24330,7 @@
         <v>13</v>
       </c>
       <c r="AP3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:42" x14ac:dyDescent="0.25">
@@ -24419,7 +24413,7 @@
         <v>8</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>213660</v>
       </c>
       <c r="AB4">
         <v>3</v>
@@ -24428,7 +24422,7 @@
         <v>9</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE4">
         <v>3</v>
@@ -24437,7 +24431,7 @@
         <v>10</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>494</v>
       </c>
       <c r="AH4">
         <v>3</v>
@@ -24446,7 +24440,7 @@
         <v>11</v>
       </c>
       <c r="AJ4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AK4">
         <v>3</v>
@@ -24455,7 +24449,7 @@
         <v>12</v>
       </c>
       <c r="AM4">
-        <v>0</v>
+        <v>213383</v>
       </c>
       <c r="AN4">
         <v>3</v>
@@ -24464,7 +24458,7 @@
         <v>13</v>
       </c>
       <c r="AP4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:42" x14ac:dyDescent="0.25">
@@ -24547,7 +24541,7 @@
         <v>8</v>
       </c>
       <c r="AA5">
-        <v>0</v>
+        <v>213660</v>
       </c>
       <c r="AB5">
         <v>4</v>
@@ -24556,7 +24550,7 @@
         <v>9</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE5">
         <v>4</v>
@@ -24565,7 +24559,7 @@
         <v>10</v>
       </c>
       <c r="AG5">
-        <v>0</v>
+        <v>494</v>
       </c>
       <c r="AH5">
         <v>4</v>
@@ -24574,7 +24568,7 @@
         <v>11</v>
       </c>
       <c r="AJ5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AK5">
         <v>4</v>
@@ -24583,7 +24577,7 @@
         <v>12</v>
       </c>
       <c r="AM5">
-        <v>0</v>
+        <v>213383</v>
       </c>
       <c r="AN5">
         <v>4</v>
@@ -24592,7 +24586,7 @@
         <v>13</v>
       </c>
       <c r="AP5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:42" x14ac:dyDescent="0.25">
@@ -24675,7 +24669,7 @@
         <v>8</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>213660</v>
       </c>
       <c r="AB6">
         <v>5</v>
@@ -24684,7 +24678,7 @@
         <v>9</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE6">
         <v>5</v>
@@ -24693,7 +24687,7 @@
         <v>10</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <v>494</v>
       </c>
       <c r="AH6">
         <v>5</v>
@@ -24702,7 +24696,7 @@
         <v>11</v>
       </c>
       <c r="AJ6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AK6">
         <v>5</v>
@@ -24711,7 +24705,7 @@
         <v>12</v>
       </c>
       <c r="AM6">
-        <v>0</v>
+        <v>213383</v>
       </c>
       <c r="AN6">
         <v>5</v>
@@ -24720,7 +24714,7 @@
         <v>13</v>
       </c>
       <c r="AP6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:42" x14ac:dyDescent="0.25">
@@ -24803,7 +24797,7 @@
         <v>8</v>
       </c>
       <c r="AA7">
-        <v>0</v>
+        <v>213660</v>
       </c>
       <c r="AB7">
         <v>6</v>
@@ -24812,7 +24806,7 @@
         <v>9</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE7">
         <v>6</v>
@@ -24821,7 +24815,7 @@
         <v>10</v>
       </c>
       <c r="AG7">
-        <v>0</v>
+        <v>494</v>
       </c>
       <c r="AH7">
         <v>6</v>
@@ -24830,7 +24824,7 @@
         <v>11</v>
       </c>
       <c r="AJ7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AK7">
         <v>6</v>
@@ -24839,7 +24833,7 @@
         <v>12</v>
       </c>
       <c r="AM7">
-        <v>0</v>
+        <v>213383</v>
       </c>
       <c r="AN7">
         <v>6</v>
@@ -24848,7 +24842,7 @@
         <v>13</v>
       </c>
       <c r="AP7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:42" x14ac:dyDescent="0.25">
@@ -24931,7 +24925,7 @@
         <v>8</v>
       </c>
       <c r="AA8">
-        <v>0</v>
+        <v>213660</v>
       </c>
       <c r="AB8">
         <v>7</v>
@@ -24940,7 +24934,7 @@
         <v>9</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE8">
         <v>7</v>
@@ -24949,7 +24943,7 @@
         <v>10</v>
       </c>
       <c r="AG8">
-        <v>0</v>
+        <v>494</v>
       </c>
       <c r="AH8">
         <v>7</v>
@@ -24958,7 +24952,7 @@
         <v>11</v>
       </c>
       <c r="AJ8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AK8">
         <v>7</v>
@@ -24967,7 +24961,7 @@
         <v>12</v>
       </c>
       <c r="AM8">
-        <v>0</v>
+        <v>213383</v>
       </c>
       <c r="AN8">
         <v>7</v>
@@ -24976,7 +24970,7 @@
         <v>13</v>
       </c>
       <c r="AP8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:42" x14ac:dyDescent="0.25">
@@ -25059,7 +25053,7 @@
         <v>8</v>
       </c>
       <c r="AA9">
-        <v>0</v>
+        <v>213660</v>
       </c>
       <c r="AB9">
         <v>8</v>
@@ -25068,7 +25062,7 @@
         <v>9</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE9">
         <v>8</v>
@@ -25077,7 +25071,7 @@
         <v>10</v>
       </c>
       <c r="AG9">
-        <v>0</v>
+        <v>494</v>
       </c>
       <c r="AH9">
         <v>8</v>
@@ -25086,7 +25080,7 @@
         <v>11</v>
       </c>
       <c r="AJ9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AK9">
         <v>8</v>
@@ -25095,7 +25089,7 @@
         <v>12</v>
       </c>
       <c r="AM9">
-        <v>0</v>
+        <v>213383</v>
       </c>
       <c r="AN9">
         <v>8</v>
@@ -25104,7 +25098,7 @@
         <v>13</v>
       </c>
       <c r="AP9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:42" x14ac:dyDescent="0.25">
@@ -25187,7 +25181,7 @@
         <v>8</v>
       </c>
       <c r="AA10">
-        <v>0</v>
+        <v>213660</v>
       </c>
       <c r="AB10">
         <v>9</v>
@@ -25196,7 +25190,7 @@
         <v>9</v>
       </c>
       <c r="AD10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE10">
         <v>9</v>
@@ -25205,7 +25199,7 @@
         <v>10</v>
       </c>
       <c r="AG10">
-        <v>0</v>
+        <v>494</v>
       </c>
       <c r="AH10">
         <v>9</v>
@@ -25214,7 +25208,7 @@
         <v>11</v>
       </c>
       <c r="AJ10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AK10">
         <v>9</v>
@@ -25223,7 +25217,7 @@
         <v>12</v>
       </c>
       <c r="AM10">
-        <v>0</v>
+        <v>213383</v>
       </c>
       <c r="AN10">
         <v>9</v>
@@ -25232,7 +25226,7 @@
         <v>13</v>
       </c>
       <c r="AP10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -25245,7 +25239,7 @@
   <dimension ref="A1:U10"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25258,7 +25252,7 @@
         <v>0</v>
       </c>
       <c r="C1">
-        <v>24742015200</v>
+        <v>7966880900</v>
       </c>
       <c r="D1">
         <v>0</v>
@@ -25267,7 +25261,7 @@
         <v>1</v>
       </c>
       <c r="F1">
-        <v>4839674800</v>
+        <v>1537710900</v>
       </c>
       <c r="G1">
         <v>0</v>
@@ -25276,7 +25270,7 @@
         <v>2</v>
       </c>
       <c r="I1">
-        <v>4839430</v>
+        <v>1003190</v>
       </c>
       <c r="J1">
         <v>0</v>
@@ -25285,7 +25279,7 @@
         <v>3</v>
       </c>
       <c r="L1">
-        <v>86434750</v>
+        <v>27606460</v>
       </c>
       <c r="M1">
         <v>0</v>
@@ -25294,7 +25288,7 @@
         <v>4</v>
       </c>
       <c r="O1">
-        <v>65378730</v>
+        <v>19006450</v>
       </c>
       <c r="P1">
         <v>0</v>
@@ -25303,7 +25297,7 @@
         <v>5</v>
       </c>
       <c r="R1">
-        <v>0</v>
+        <v>20143300</v>
       </c>
       <c r="S1">
         <v>0</v>
@@ -25312,7 +25306,7 @@
         <v>6</v>
       </c>
       <c r="U1">
-        <v>0</v>
+        <v>40099000</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -25323,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>23319619700</v>
+        <v>6772044600</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -25332,7 +25326,7 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>5256686100</v>
+        <v>1577472600</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -25341,7 +25335,7 @@
         <v>2</v>
       </c>
       <c r="I2">
-        <v>1177520</v>
+        <v>1190570</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -25350,7 +25344,7 @@
         <v>3</v>
       </c>
       <c r="L2">
-        <v>93249950</v>
+        <v>47358590</v>
       </c>
       <c r="M2">
         <v>1</v>
@@ -25359,7 +25353,7 @@
         <v>4</v>
       </c>
       <c r="O2">
-        <v>75074830</v>
+        <v>18279370</v>
       </c>
       <c r="P2">
         <v>1</v>
@@ -25368,7 +25362,7 @@
         <v>5</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>21613200</v>
       </c>
       <c r="S2">
         <v>1</v>
@@ -25377,7 +25371,7 @@
         <v>6</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>30905400</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
@@ -25388,7 +25382,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>23140836800</v>
+        <v>6831844800</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -25397,7 +25391,7 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>5135969900</v>
+        <v>1410198200</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -25406,7 +25400,7 @@
         <v>2</v>
       </c>
       <c r="I3">
-        <v>5179380</v>
+        <v>2957890</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -25415,7 +25409,7 @@
         <v>3</v>
       </c>
       <c r="L3">
-        <v>88450170</v>
+        <v>31777140</v>
       </c>
       <c r="M3">
         <v>2</v>
@@ -25424,7 +25418,7 @@
         <v>4</v>
       </c>
       <c r="O3">
-        <v>68576430</v>
+        <v>18511010</v>
       </c>
       <c r="P3">
         <v>2</v>
@@ -25433,7 +25427,7 @@
         <v>5</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>19849200</v>
       </c>
       <c r="S3">
         <v>2</v>
@@ -25442,7 +25436,7 @@
         <v>6</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>26485000</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
@@ -25453,7 +25447,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>24370483200</v>
+        <v>7877494600</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -25462,7 +25456,7 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>6488079200</v>
+        <v>1546285900</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -25471,7 +25465,7 @@
         <v>2</v>
       </c>
       <c r="I4">
-        <v>2586660</v>
+        <v>990100</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -25480,7 +25474,7 @@
         <v>3</v>
       </c>
       <c r="L4">
-        <v>90986740</v>
+        <v>29375240</v>
       </c>
       <c r="M4">
         <v>3</v>
@@ -25489,7 +25483,7 @@
         <v>4</v>
       </c>
       <c r="O4">
-        <v>66690660</v>
+        <v>19311120</v>
       </c>
       <c r="P4">
         <v>3</v>
@@ -25498,7 +25492,7 @@
         <v>5</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>21623700</v>
       </c>
       <c r="S4">
         <v>3</v>
@@ -25507,7 +25501,7 @@
         <v>6</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>28029200</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
@@ -25518,7 +25512,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>24515058900</v>
+        <v>6693137400</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -25527,7 +25521,7 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>5416322200</v>
+        <v>1464258200</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -25536,7 +25530,7 @@
         <v>2</v>
       </c>
       <c r="I5">
-        <v>4724980</v>
+        <v>2486540</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -25545,7 +25539,7 @@
         <v>3</v>
       </c>
       <c r="L5">
-        <v>87418430</v>
+        <v>32111370</v>
       </c>
       <c r="M5">
         <v>4</v>
@@ -25554,7 +25548,7 @@
         <v>4</v>
       </c>
       <c r="O5">
-        <v>66199260</v>
+        <v>18941600</v>
       </c>
       <c r="P5">
         <v>4</v>
@@ -25563,7 +25557,7 @@
         <v>5</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>13946000</v>
       </c>
       <c r="S5">
         <v>4</v>
@@ -25572,7 +25566,7 @@
         <v>6</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>37625400</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
@@ -25583,7 +25577,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>23833778500</v>
+        <v>6858458000</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -25592,7 +25586,7 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>5227119800</v>
+        <v>1407404300</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -25601,7 +25595,7 @@
         <v>2</v>
       </c>
       <c r="I6">
-        <v>4961220</v>
+        <v>1163790</v>
       </c>
       <c r="J6">
         <v>5</v>
@@ -25610,7 +25604,7 @@
         <v>3</v>
       </c>
       <c r="L6">
-        <v>91009820</v>
+        <v>29785850</v>
       </c>
       <c r="M6">
         <v>5</v>
@@ -25619,7 +25613,7 @@
         <v>4</v>
       </c>
       <c r="O6">
-        <v>66881670</v>
+        <v>19653390</v>
       </c>
       <c r="P6">
         <v>5</v>
@@ -25628,7 +25622,7 @@
         <v>5</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>24610400</v>
       </c>
       <c r="S6">
         <v>5</v>
@@ -25637,7 +25631,7 @@
         <v>6</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>35068300</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
@@ -25648,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>25494176600</v>
+        <v>7774685300</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -25657,7 +25651,7 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>5608531600</v>
+        <v>1694821100</v>
       </c>
       <c r="G7">
         <v>6</v>
@@ -25666,7 +25660,7 @@
         <v>2</v>
       </c>
       <c r="I7">
-        <v>3314610</v>
+        <v>1524370</v>
       </c>
       <c r="J7">
         <v>6</v>
@@ -25675,7 +25669,7 @@
         <v>3</v>
       </c>
       <c r="L7">
-        <v>89456710</v>
+        <v>27715040</v>
       </c>
       <c r="M7">
         <v>6</v>
@@ -25684,7 +25678,7 @@
         <v>4</v>
       </c>
       <c r="O7">
-        <v>66260870</v>
+        <v>17875290</v>
       </c>
       <c r="P7">
         <v>6</v>
@@ -25693,7 +25687,7 @@
         <v>5</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>22446300</v>
       </c>
       <c r="S7">
         <v>6</v>
@@ -25702,7 +25696,7 @@
         <v>6</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>27636600</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
@@ -25713,7 +25707,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>26923939900</v>
+        <v>7688477000</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -25722,7 +25716,7 @@
         <v>1</v>
       </c>
       <c r="F8">
-        <v>6057697000</v>
+        <v>1595361300</v>
       </c>
       <c r="G8">
         <v>7</v>
@@ -25731,7 +25725,7 @@
         <v>2</v>
       </c>
       <c r="I8">
-        <v>5020070</v>
+        <v>285610</v>
       </c>
       <c r="J8">
         <v>7</v>
@@ -25740,7 +25734,7 @@
         <v>3</v>
       </c>
       <c r="L8">
-        <v>90423670</v>
+        <v>31618670</v>
       </c>
       <c r="M8">
         <v>7</v>
@@ -25749,7 +25743,7 @@
         <v>4</v>
       </c>
       <c r="O8">
-        <v>67180990</v>
+        <v>19547300</v>
       </c>
       <c r="P8">
         <v>7</v>
@@ -25758,7 +25752,7 @@
         <v>5</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>17276000</v>
       </c>
       <c r="S8">
         <v>7</v>
@@ -25767,7 +25761,7 @@
         <v>6</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>21253700</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
@@ -25778,7 +25772,7 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>23603731000</v>
+        <v>7163494600</v>
       </c>
       <c r="D9">
         <v>8</v>
@@ -25787,7 +25781,7 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>6174039800</v>
+        <v>1563240500</v>
       </c>
       <c r="G9">
         <v>8</v>
@@ -25796,7 +25790,7 @@
         <v>2</v>
       </c>
       <c r="I9">
-        <v>7036080</v>
+        <v>1994800</v>
       </c>
       <c r="J9">
         <v>8</v>
@@ -25805,7 +25799,7 @@
         <v>3</v>
       </c>
       <c r="L9">
-        <v>113888040</v>
+        <v>27992050</v>
       </c>
       <c r="M9">
         <v>8</v>
@@ -25814,7 +25808,7 @@
         <v>4</v>
       </c>
       <c r="O9">
-        <v>80989540</v>
+        <v>20001890</v>
       </c>
       <c r="P9">
         <v>8</v>
@@ -25823,7 +25817,7 @@
         <v>5</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>20783500</v>
       </c>
       <c r="S9">
         <v>8</v>
@@ -25832,7 +25826,7 @@
         <v>6</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>41385100</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
@@ -25843,7 +25837,7 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>21641741400</v>
+        <v>7878668900</v>
       </c>
       <c r="D10">
         <v>9</v>
@@ -25852,7 +25846,7 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>5334734300</v>
+        <v>1580116300</v>
       </c>
       <c r="G10">
         <v>9</v>
@@ -25861,7 +25855,7 @@
         <v>2</v>
       </c>
       <c r="I10">
-        <v>3964790</v>
+        <v>1282300</v>
       </c>
       <c r="J10">
         <v>9</v>
@@ -25870,7 +25864,7 @@
         <v>3</v>
       </c>
       <c r="L10">
-        <v>100147980</v>
+        <v>35366360</v>
       </c>
       <c r="M10">
         <v>9</v>
@@ -25879,7 +25873,7 @@
         <v>4</v>
       </c>
       <c r="O10">
-        <v>68694670</v>
+        <v>19709110</v>
       </c>
       <c r="P10">
         <v>9</v>
@@ -25888,7 +25882,7 @@
         <v>5</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>20980700</v>
       </c>
       <c r="S10">
         <v>9</v>
@@ -25897,7 +25891,7 @@
         <v>6</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>22723100</v>
       </c>
     </row>
   </sheetData>
@@ -25909,8 +25903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{152BB407-0D0A-47D4-81B8-950D3ABAE83D}">
   <dimension ref="A1:EK52"/>
   <sheetViews>
-    <sheetView topLeftCell="DE1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BC2" sqref="BC2"/>
+    <sheetView topLeftCell="AJ1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="CS4" sqref="CS4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26483,11 +26477,11 @@
       </c>
       <c r="C3">
         <f>IF('grpc time raw data'!C1&lt;&gt;"",'grpc time raw data'!C1/1000000,"")</f>
-        <v>5331.3798999999999</v>
+        <v>1865.0048999999999</v>
       </c>
       <c r="D3">
         <f>IF('grpc time raw data'!C1&lt;&gt;"",AVERAGE(C$3:C$998),"")</f>
-        <v>4841.8368999999993</v>
+        <v>1309.7026899999998</v>
       </c>
       <c r="E3">
         <f>'grpc time raw data'!D1</f>
@@ -26499,11 +26493,11 @@
       </c>
       <c r="G3">
         <f>IF('grpc time raw data'!F1&lt;&gt;"",'grpc time raw data'!F1/1000000,"")</f>
-        <v>4629.8332</v>
+        <v>1433.077</v>
       </c>
       <c r="H3">
         <f>IF('grpc time raw data'!F1&lt;&gt;"",AVERAGE(G$3:G$998),"")</f>
-        <v>4737.90985</v>
+        <v>1495.3604499999999</v>
       </c>
       <c r="I3">
         <f>'grpc time raw data'!G1</f>
@@ -26515,11 +26509,11 @@
       </c>
       <c r="K3">
         <f>IF('grpc time raw data'!I1&lt;&gt;"",'grpc time raw data'!I1/1000000,"")</f>
-        <v>0.82170600000000005</v>
+        <v>0.85451999999999995</v>
       </c>
       <c r="L3">
         <f>IF('grpc time raw data'!I1&lt;&gt;"",AVERAGE(K$3:K$998),"")</f>
-        <v>1.5702273999999998</v>
+        <v>1.252092</v>
       </c>
       <c r="M3">
         <f>'grpc time raw data'!J1</f>
@@ -26531,11 +26525,11 @@
       </c>
       <c r="O3">
         <f>IF('grpc time raw data'!L1&lt;&gt;"",'grpc time raw data'!L1/1000000,"")</f>
-        <v>79.903402</v>
+        <v>26.696339999999999</v>
       </c>
       <c r="P3">
         <f>IF('grpc time raw data'!L1&lt;&gt;"",AVERAGE(O$3:O$998),"")</f>
-        <v>82.969507000000007</v>
+        <v>28.424786999999998</v>
       </c>
       <c r="Q3">
         <f>'grpc time raw data'!M1</f>
@@ -26547,11 +26541,11 @@
       </c>
       <c r="S3">
         <f>IF('grpc time raw data'!O1&lt;&gt;"",'grpc time raw data'!O1/1000000,"")</f>
-        <v>73.336967999999999</v>
+        <v>23.635639999999999</v>
       </c>
       <c r="T3">
         <f>IF('grpc time raw data'!O1&lt;&gt;"",AVERAGE(S$3:S$998),"")</f>
-        <v>73.989654600000009</v>
+        <v>23.851496000000001</v>
       </c>
       <c r="U3">
         <f>'grpc time raw data'!P1</f>
@@ -26563,11 +26557,11 @@
       </c>
       <c r="W3">
         <f>IF('grpc time raw data'!R1&lt;&gt;"",'grpc time raw data'!R1/1000000,"")</f>
-        <v>0</v>
+        <v>2.0547</v>
       </c>
       <c r="X3">
         <f>IF('grpc time raw data'!R1&lt;&gt;"",AVERAGE(W$3:W$998),"")</f>
-        <v>0</v>
+        <v>2.3420500000000004</v>
       </c>
       <c r="Y3">
         <f>'grpc time raw data'!S1</f>
@@ -26579,11 +26573,11 @@
       </c>
       <c r="AA3">
         <f>IF('grpc time raw data'!U1&lt;&gt;"",'grpc time raw data'!U1/1000000,"")</f>
-        <v>0</v>
+        <v>15.4771</v>
       </c>
       <c r="AB3">
         <f>IF('grpc time raw data'!U1&lt;&gt;"",AVERAGE(AA$3:AA$998),"")</f>
-        <v>0</v>
+        <v>13.987380000000002</v>
       </c>
       <c r="AC3">
         <f>'grpc time raw data'!V1</f>
@@ -26627,7 +26621,7 @@
       </c>
       <c r="AN3">
         <f>IF('grpc size raw data'!C1&lt;&gt;"",'grpc size raw data'!C1,"")</f>
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AO3">
         <f>'grpc size raw data'!D1</f>
@@ -26651,7 +26645,7 @@
       </c>
       <c r="AT3">
         <f>IF('grpc size raw data'!I1&lt;&gt;"",'grpc size raw data'!I1/1000000,"")</f>
-        <v>99.999876999999998</v>
+        <v>100.00013199999999</v>
       </c>
       <c r="AU3">
         <f>'grpc size raw data'!J1</f>
@@ -26663,7 +26657,7 @@
       </c>
       <c r="AW3">
         <f>IF('grpc size raw data'!L1&lt;&gt;"",'grpc size raw data'!L1/1000000,"")</f>
-        <v>99.999948000000003</v>
+        <v>100.00019899999999</v>
       </c>
       <c r="AX3">
         <f>'grpc size raw data'!M1</f>
@@ -26675,7 +26669,7 @@
       </c>
       <c r="AZ3">
         <f>IF('grpc size raw data'!O1&lt;&gt;"",'grpc size raw data'!O1/1000000,"")</f>
-        <v>0</v>
+        <v>0.21340400000000001</v>
       </c>
       <c r="BA3">
         <f>'grpc size raw data'!P1</f>
@@ -26687,7 +26681,7 @@
       </c>
       <c r="BC3">
         <f>IF('grpc size raw data'!R1&lt;&gt;"",'grpc size raw data'!R1/1000000,"")</f>
-        <v>0</v>
+        <v>1.25E-4</v>
       </c>
       <c r="BD3">
         <f>'grpc size raw data'!S1</f>
@@ -26699,7 +26693,7 @@
       </c>
       <c r="BF3">
         <f>IF('grpc size raw data'!U1&lt;&gt;"",'grpc size raw data'!U1/1000000,"")</f>
-        <v>0</v>
+        <v>3.6000000000000001E-5</v>
       </c>
       <c r="BG3">
         <f>'grpc size raw data'!V1</f>
@@ -26711,7 +26705,7 @@
       </c>
       <c r="BI3">
         <f>IF('grpc size raw data'!X1&lt;&gt;"",'grpc size raw data'!X1/1000000,"")</f>
-        <v>0</v>
+        <v>0.213368</v>
       </c>
       <c r="BK3">
         <f>'http time raw data'!A1</f>
@@ -26723,11 +26717,11 @@
       </c>
       <c r="BM3">
         <f>IF('http time raw data'!C1&lt;&gt;"",'http time raw data'!C1/1000000,"")</f>
-        <v>24742.015200000002</v>
+        <v>7966.8809000000001</v>
       </c>
       <c r="BN3">
         <f>IF('http time raw data'!C1&lt;&gt;"",AVERAGE(BM$3:BM$998),"")</f>
-        <v>24158.538120000005</v>
+        <v>7350.518610000001</v>
       </c>
       <c r="BO3">
         <f>'http time raw data'!D1</f>
@@ -26739,11 +26733,11 @@
       </c>
       <c r="BQ3">
         <f>IF('http time raw data'!F1&lt;&gt;"",'http time raw data'!F1/1000000,"")</f>
-        <v>4839.6747999999998</v>
+        <v>1537.7109</v>
       </c>
       <c r="BR3">
         <f>IF('http time raw data'!F1&lt;&gt;"",AVERAGE(BQ$3:BQ$998),"")</f>
-        <v>5553.8854699999993</v>
+        <v>1537.6869299999998</v>
       </c>
       <c r="BS3">
         <f>'http time raw data'!G1</f>
@@ -26755,11 +26749,11 @@
       </c>
       <c r="BU3">
         <f>IF('http time raw data'!I1&lt;&gt;"",'http time raw data'!I1/1000000,"")</f>
-        <v>4.8394300000000001</v>
+        <v>1.00319</v>
       </c>
       <c r="BV3">
         <f>IF('http time raw data'!I1&lt;&gt;"",AVERAGE(BU$3:BU$998),"")</f>
-        <v>4.2804739999999999</v>
+        <v>1.4879159999999998</v>
       </c>
       <c r="BW3">
         <f>'http time raw data'!J1</f>
@@ -26771,11 +26765,11 @@
       </c>
       <c r="BY3">
         <f>IF('http time raw data'!L1&lt;&gt;"",'http time raw data'!L1/1000000,"")</f>
-        <v>86.434749999999994</v>
+        <v>27.606459999999998</v>
       </c>
       <c r="BZ3">
         <f>IF('http time raw data'!L1&lt;&gt;"",AVERAGE(BY$3:BY$998),"")</f>
-        <v>93.146625999999998</v>
+        <v>32.070676999999996</v>
       </c>
       <c r="CA3">
         <f>'http time raw data'!M1</f>
@@ -26787,11 +26781,11 @@
       </c>
       <c r="CC3">
         <f>IF('http time raw data'!O1&lt;&gt;"",'http time raw data'!O1/1000000,"")</f>
-        <v>65.378730000000004</v>
+        <v>19.006450000000001</v>
       </c>
       <c r="CD3">
         <f>IF('http time raw data'!O1&lt;&gt;"",AVERAGE(CC$3:CC$998),"")</f>
-        <v>69.192764999999994</v>
+        <v>19.083653000000005</v>
       </c>
       <c r="CE3">
         <f>'http time raw data'!P1</f>
@@ -26803,11 +26797,11 @@
       </c>
       <c r="CG3">
         <f>IF('http time raw data'!R1&lt;&gt;"",'http time raw data'!R1/1000000,"")</f>
-        <v>0</v>
+        <v>20.1433</v>
       </c>
       <c r="CH3">
         <f>IF('http time raw data'!R1&lt;&gt;"",AVERAGE(CG$3:CG$998),"")</f>
-        <v>0</v>
+        <v>20.327230000000004</v>
       </c>
       <c r="CI3">
         <f>'http time raw data'!S1</f>
@@ -26819,11 +26813,11 @@
       </c>
       <c r="CK3">
         <f>IF('http time raw data'!U1&lt;&gt;"",'http time raw data'!U1/1000000,"")</f>
-        <v>0</v>
+        <v>40.098999999999997</v>
       </c>
       <c r="CL3">
         <f>IF('http time raw data'!U1&lt;&gt;"",AVERAGE(CK$3:CK$998),"")</f>
-        <v>0</v>
+        <v>31.121079999999999</v>
       </c>
       <c r="CM3">
         <f>'http time raw data'!V1</f>
@@ -26961,9 +26955,9 @@
         <f>'http size raw data'!Z1</f>
         <v>8</v>
       </c>
-      <c r="DV3" t="str">
+      <c r="DV3">
         <f>IF('http size raw data'!AA1&lt;&gt;0,'http size raw data'!AA1/1000000,"")</f>
-        <v/>
+        <v>0.21365999999999999</v>
       </c>
       <c r="DW3">
         <f>'http size raw data'!AB1</f>
@@ -26973,9 +26967,9 @@
         <f>'http size raw data'!AC1</f>
         <v>9</v>
       </c>
-      <c r="DY3" t="str">
+      <c r="DY3">
         <f>IF('http size raw data'!AD1&lt;&gt;0,'http size raw data'!AD1/1000000,"")</f>
-        <v/>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="DZ3">
         <f>'http size raw data'!AE1</f>
@@ -26985,9 +26979,9 @@
         <f>'http size raw data'!AF1</f>
         <v>10</v>
       </c>
-      <c r="EB3" t="str">
+      <c r="EB3">
         <f>IF('http size raw data'!AG1&lt;&gt;0,'http size raw data'!AG1/1000000,"")</f>
-        <v/>
+        <v>4.9399999999999997E-4</v>
       </c>
       <c r="EC3">
         <f>'http size raw data'!AH1</f>
@@ -26997,9 +26991,9 @@
         <f>'http size raw data'!AI1</f>
         <v>11</v>
       </c>
-      <c r="EE3" t="str">
+      <c r="EE3">
         <f>IF('http size raw data'!AJ1&lt;&gt;0,'http size raw data'!AJ1/1000000,"")</f>
-        <v/>
+        <v>3.0000000000000001E-6</v>
       </c>
       <c r="EF3">
         <f>'http size raw data'!AK1</f>
@@ -27009,9 +27003,9 @@
         <f>'http size raw data'!AL1</f>
         <v>12</v>
       </c>
-      <c r="EH3" t="str">
+      <c r="EH3">
         <f>IF('http size raw data'!AM1&lt;&gt;0,'http size raw data'!AM1/1000000,"")</f>
-        <v/>
+        <v>0.21338299999999999</v>
       </c>
       <c r="EI3">
         <f>'http size raw data'!AN1</f>
@@ -27021,9 +27015,9 @@
         <f>'http size raw data'!AO1</f>
         <v>13</v>
       </c>
-      <c r="EK3" t="str">
+      <c r="EK3">
         <f>IF('http size raw data'!AP1&lt;&gt;0,'http size raw data'!AP1/1000000,"")</f>
-        <v/>
+        <v>1.9999999999999999E-6</v>
       </c>
     </row>
     <row r="4" spans="1:141" x14ac:dyDescent="0.25">
@@ -27037,11 +27031,11 @@
       </c>
       <c r="C4">
         <f>IF('grpc time raw data'!C2&lt;&gt;"",'grpc time raw data'!C2/1000000,"")</f>
-        <v>5039.1736000000001</v>
+        <v>1341.9227000000001</v>
       </c>
       <c r="D4">
         <f>IF('grpc time raw data'!C2&lt;&gt;"",AVERAGE(C$3:C$998),"")</f>
-        <v>4841.8368999999993</v>
+        <v>1309.7026899999998</v>
       </c>
       <c r="E4">
         <f>'grpc time raw data'!D2</f>
@@ -27053,11 +27047,11 @@
       </c>
       <c r="G4">
         <f>IF('grpc time raw data'!F2&lt;&gt;"",'grpc time raw data'!F2/1000000,"")</f>
-        <v>4138.0803999999998</v>
+        <v>1552.5143</v>
       </c>
       <c r="H4">
         <f>IF('grpc time raw data'!F2&lt;&gt;"",AVERAGE(G$3:G$998),"")</f>
-        <v>4737.90985</v>
+        <v>1495.3604499999999</v>
       </c>
       <c r="I4">
         <f>'grpc time raw data'!G2</f>
@@ -27069,11 +27063,11 @@
       </c>
       <c r="K4">
         <f>IF('grpc time raw data'!I2&lt;&gt;"",'grpc time raw data'!I2/1000000,"")</f>
-        <v>0.86437399999999998</v>
+        <v>1.0151600000000001</v>
       </c>
       <c r="L4">
         <f>IF('grpc time raw data'!I2&lt;&gt;"",AVERAGE(K$3:K$998),"")</f>
-        <v>1.5702273999999998</v>
+        <v>1.252092</v>
       </c>
       <c r="M4">
         <f>'grpc time raw data'!J2</f>
@@ -27085,11 +27079,11 @@
       </c>
       <c r="O4">
         <f>IF('grpc time raw data'!L2&lt;&gt;"",'grpc time raw data'!L2/1000000,"")</f>
-        <v>79.659683999999999</v>
+        <v>27.014690000000002</v>
       </c>
       <c r="P4">
         <f>IF('grpc time raw data'!L2&lt;&gt;"",AVERAGE(O$3:O$998),"")</f>
-        <v>82.969507000000007</v>
+        <v>28.424786999999998</v>
       </c>
       <c r="Q4">
         <f>'grpc time raw data'!M2</f>
@@ -27101,11 +27095,11 @@
       </c>
       <c r="S4">
         <f>IF('grpc time raw data'!O2&lt;&gt;"",'grpc time raw data'!O2/1000000,"")</f>
-        <v>73.636591999999993</v>
+        <v>23.172879999999999</v>
       </c>
       <c r="T4">
         <f>IF('grpc time raw data'!O2&lt;&gt;"",AVERAGE(S$3:S$998),"")</f>
-        <v>73.989654600000009</v>
+        <v>23.851496000000001</v>
       </c>
       <c r="U4">
         <f>'grpc time raw data'!P2</f>
@@ -27117,11 +27111,11 @@
       </c>
       <c r="W4">
         <f>IF('grpc time raw data'!R2&lt;&gt;"",'grpc time raw data'!R2/1000000,"")</f>
-        <v>0</v>
+        <v>2.9361999999999999</v>
       </c>
       <c r="X4">
         <f>IF('grpc time raw data'!R2&lt;&gt;"",AVERAGE(W$3:W$998),"")</f>
-        <v>0</v>
+        <v>2.3420500000000004</v>
       </c>
       <c r="Y4">
         <f>'grpc time raw data'!S2</f>
@@ -27133,11 +27127,11 @@
       </c>
       <c r="AA4">
         <f>IF('grpc time raw data'!U2&lt;&gt;"",'grpc time raw data'!U2/1000000,"")</f>
-        <v>0</v>
+        <v>15.96</v>
       </c>
       <c r="AB4">
         <f>IF('grpc time raw data'!U2&lt;&gt;"",AVERAGE(AA$3:AA$998),"")</f>
-        <v>0</v>
+        <v>13.987380000000002</v>
       </c>
       <c r="AC4">
         <f>'grpc time raw data'!V2</f>
@@ -27181,7 +27175,7 @@
       </c>
       <c r="AN4">
         <f>IF('grpc size raw data'!C2&lt;&gt;"",'grpc size raw data'!C2,"")</f>
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AO4">
         <f>'grpc size raw data'!D2</f>
@@ -27205,7 +27199,7 @@
       </c>
       <c r="AT4">
         <f>IF('grpc size raw data'!I2&lt;&gt;"",'grpc size raw data'!I2/1000000,"")</f>
-        <v>100.000024</v>
+        <v>100.000422</v>
       </c>
       <c r="AU4">
         <f>'grpc size raw data'!J2</f>
@@ -27217,7 +27211,7 @@
       </c>
       <c r="AW4">
         <f>IF('grpc size raw data'!L2&lt;&gt;"",'grpc size raw data'!L2/1000000,"")</f>
-        <v>99.999948000000003</v>
+        <v>100.00019899999999</v>
       </c>
       <c r="AX4">
         <f>'grpc size raw data'!M2</f>
@@ -27229,7 +27223,7 @@
       </c>
       <c r="AZ4">
         <f>IF('grpc size raw data'!O2&lt;&gt;"",'grpc size raw data'!O2/1000000,"")</f>
-        <v>0</v>
+        <v>0.21340400000000001</v>
       </c>
       <c r="BA4">
         <f>'grpc size raw data'!P2</f>
@@ -27241,7 +27235,7 @@
       </c>
       <c r="BC4">
         <f>IF('grpc size raw data'!R2&lt;&gt;"",'grpc size raw data'!R2/1000000,"")</f>
-        <v>0</v>
+        <v>1.25E-4</v>
       </c>
       <c r="BD4">
         <f>'grpc size raw data'!S2</f>
@@ -27253,7 +27247,7 @@
       </c>
       <c r="BF4">
         <f>IF('grpc size raw data'!U2&lt;&gt;"",'grpc size raw data'!U2/1000000,"")</f>
-        <v>0</v>
+        <v>3.6000000000000001E-5</v>
       </c>
       <c r="BG4">
         <f>'grpc size raw data'!V2</f>
@@ -27265,7 +27259,7 @@
       </c>
       <c r="BI4">
         <f>IF('grpc size raw data'!X2&lt;&gt;"",'grpc size raw data'!X2/1000000,"")</f>
-        <v>0</v>
+        <v>0.213368</v>
       </c>
       <c r="BK4">
         <f>'http time raw data'!A2</f>
@@ -27277,11 +27271,11 @@
       </c>
       <c r="BM4">
         <f>IF('http time raw data'!C2&lt;&gt;"",'http time raw data'!C2/1000000,"")</f>
-        <v>23319.619699999999</v>
+        <v>6772.0446000000002</v>
       </c>
       <c r="BN4">
         <f>IF('http time raw data'!C2&lt;&gt;"",AVERAGE(BM$3:BM$998),"")</f>
-        <v>24158.538120000005</v>
+        <v>7350.518610000001</v>
       </c>
       <c r="BO4">
         <f>'http time raw data'!D2</f>
@@ -27293,11 +27287,11 @@
       </c>
       <c r="BQ4">
         <f>IF('http time raw data'!F2&lt;&gt;"",'http time raw data'!F2/1000000,"")</f>
-        <v>5256.6860999999999</v>
+        <v>1577.4726000000001</v>
       </c>
       <c r="BR4">
         <f>IF('http time raw data'!F2&lt;&gt;"",AVERAGE(BQ$3:BQ$998),"")</f>
-        <v>5553.8854699999993</v>
+        <v>1537.6869299999998</v>
       </c>
       <c r="BS4">
         <f>'http time raw data'!G2</f>
@@ -27309,11 +27303,11 @@
       </c>
       <c r="BU4">
         <f>IF('http time raw data'!I2&lt;&gt;"",'http time raw data'!I2/1000000,"")</f>
-        <v>1.1775199999999999</v>
+        <v>1.1905699999999999</v>
       </c>
       <c r="BV4">
         <f>IF('http time raw data'!I2&lt;&gt;"",AVERAGE(BU$3:BU$998),"")</f>
-        <v>4.2804739999999999</v>
+        <v>1.4879159999999998</v>
       </c>
       <c r="BW4">
         <f>'http time raw data'!J2</f>
@@ -27325,11 +27319,11 @@
       </c>
       <c r="BY4">
         <f>IF('http time raw data'!L2&lt;&gt;"",'http time raw data'!L2/1000000,"")</f>
-        <v>93.249949999999998</v>
+        <v>47.35859</v>
       </c>
       <c r="BZ4">
         <f>IF('http time raw data'!L2&lt;&gt;"",AVERAGE(BY$3:BY$998),"")</f>
-        <v>93.146625999999998</v>
+        <v>32.070676999999996</v>
       </c>
       <c r="CA4">
         <f>'http time raw data'!M2</f>
@@ -27341,11 +27335,11 @@
       </c>
       <c r="CC4">
         <f>IF('http time raw data'!O2&lt;&gt;"",'http time raw data'!O2/1000000,"")</f>
-        <v>75.074830000000006</v>
+        <v>18.27937</v>
       </c>
       <c r="CD4">
         <f>IF('http time raw data'!O2&lt;&gt;"",AVERAGE(CC$3:CC$998),"")</f>
-        <v>69.192764999999994</v>
+        <v>19.083653000000005</v>
       </c>
       <c r="CE4">
         <f>'http time raw data'!P2</f>
@@ -27357,11 +27351,11 @@
       </c>
       <c r="CG4">
         <f>IF('http time raw data'!R2&lt;&gt;"",'http time raw data'!R2/1000000,"")</f>
-        <v>0</v>
+        <v>21.613199999999999</v>
       </c>
       <c r="CH4">
         <f>IF('http time raw data'!R2&lt;&gt;"",AVERAGE(CG$3:CG$998),"")</f>
-        <v>0</v>
+        <v>20.327230000000004</v>
       </c>
       <c r="CI4">
         <f>'http time raw data'!S2</f>
@@ -27373,11 +27367,11 @@
       </c>
       <c r="CK4">
         <f>IF('http time raw data'!U2&lt;&gt;"",'http time raw data'!U2/1000000,"")</f>
-        <v>0</v>
+        <v>30.9054</v>
       </c>
       <c r="CL4">
         <f>IF('http time raw data'!U2&lt;&gt;"",AVERAGE(CK$3:CK$998),"")</f>
-        <v>0</v>
+        <v>31.121079999999999</v>
       </c>
       <c r="CM4">
         <f>'http time raw data'!V2</f>
@@ -27515,9 +27509,9 @@
         <f>'http size raw data'!Z2</f>
         <v>8</v>
       </c>
-      <c r="DV4" t="str">
+      <c r="DV4">
         <f>IF('http size raw data'!AA2&lt;&gt;0,'http size raw data'!AA2/1000000,"")</f>
-        <v/>
+        <v>0.21365999999999999</v>
       </c>
       <c r="DW4">
         <f>'http size raw data'!AB2</f>
@@ -27527,9 +27521,9 @@
         <f>'http size raw data'!AC2</f>
         <v>9</v>
       </c>
-      <c r="DY4" t="str">
+      <c r="DY4">
         <f>IF('http size raw data'!AD2&lt;&gt;0,'http size raw data'!AD2/1000000,"")</f>
-        <v/>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="DZ4">
         <f>'http size raw data'!AE2</f>
@@ -27539,9 +27533,9 @@
         <f>'http size raw data'!AF2</f>
         <v>10</v>
       </c>
-      <c r="EB4" t="str">
+      <c r="EB4">
         <f>IF('http size raw data'!AG2&lt;&gt;0,'http size raw data'!AG2/1000000,"")</f>
-        <v/>
+        <v>4.9399999999999997E-4</v>
       </c>
       <c r="EC4">
         <f>'http size raw data'!AH2</f>
@@ -27551,9 +27545,9 @@
         <f>'http size raw data'!AI2</f>
         <v>11</v>
       </c>
-      <c r="EE4" t="str">
+      <c r="EE4">
         <f>IF('http size raw data'!AJ2&lt;&gt;0,'http size raw data'!AJ2/1000000,"")</f>
-        <v/>
+        <v>3.0000000000000001E-6</v>
       </c>
       <c r="EF4">
         <f>'http size raw data'!AK2</f>
@@ -27563,9 +27557,9 @@
         <f>'http size raw data'!AL2</f>
         <v>12</v>
       </c>
-      <c r="EH4" t="str">
+      <c r="EH4">
         <f>IF('http size raw data'!AM2&lt;&gt;0,'http size raw data'!AM2/1000000,"")</f>
-        <v/>
+        <v>0.21338299999999999</v>
       </c>
       <c r="EI4">
         <f>'http size raw data'!AN2</f>
@@ -27575,9 +27569,9 @@
         <f>'http size raw data'!AO2</f>
         <v>13</v>
       </c>
-      <c r="EK4" t="str">
+      <c r="EK4">
         <f>IF('http size raw data'!AP2&lt;&gt;0,'http size raw data'!AP2/1000000,"")</f>
-        <v/>
+        <v>1.9999999999999999E-6</v>
       </c>
     </row>
     <row r="5" spans="1:141" x14ac:dyDescent="0.25">
@@ -27591,11 +27585,11 @@
       </c>
       <c r="C5">
         <f>IF('grpc time raw data'!C3&lt;&gt;"",'grpc time raw data'!C3/1000000,"")</f>
-        <v>4874.6598999999997</v>
+        <v>1261.6004</v>
       </c>
       <c r="D5">
         <f>IF('grpc time raw data'!C3&lt;&gt;"",AVERAGE(C$3:C$998),"")</f>
-        <v>4841.8368999999993</v>
+        <v>1309.7026899999998</v>
       </c>
       <c r="E5">
         <f>'grpc time raw data'!D3</f>
@@ -27607,11 +27601,11 @@
       </c>
       <c r="G5">
         <f>IF('grpc time raw data'!F3&lt;&gt;"",'grpc time raw data'!F3/1000000,"")</f>
-        <v>4505.4285</v>
+        <v>1399.2922000000001</v>
       </c>
       <c r="H5">
         <f>IF('grpc time raw data'!F3&lt;&gt;"",AVERAGE(G$3:G$998),"")</f>
-        <v>4737.90985</v>
+        <v>1495.3604499999999</v>
       </c>
       <c r="I5">
         <f>'grpc time raw data'!G3</f>
@@ -27623,11 +27617,11 @@
       </c>
       <c r="K5">
         <f>IF('grpc time raw data'!I3&lt;&gt;"",'grpc time raw data'!I3/1000000,"")</f>
-        <v>0.83146799999999998</v>
+        <v>1.0144</v>
       </c>
       <c r="L5">
         <f>IF('grpc time raw data'!I3&lt;&gt;"",AVERAGE(K$3:K$998),"")</f>
-        <v>1.5702273999999998</v>
+        <v>1.252092</v>
       </c>
       <c r="M5">
         <f>'grpc time raw data'!J3</f>
@@ -27639,11 +27633,11 @@
       </c>
       <c r="O5">
         <f>IF('grpc time raw data'!L3&lt;&gt;"",'grpc time raw data'!L3/1000000,"")</f>
-        <v>80.269360000000006</v>
+        <v>25.874500000000001</v>
       </c>
       <c r="P5">
         <f>IF('grpc time raw data'!L3&lt;&gt;"",AVERAGE(O$3:O$998),"")</f>
-        <v>82.969507000000007</v>
+        <v>28.424786999999998</v>
       </c>
       <c r="Q5">
         <f>'grpc time raw data'!M3</f>
@@ -27655,11 +27649,11 @@
       </c>
       <c r="S5">
         <f>IF('grpc time raw data'!O3&lt;&gt;"",'grpc time raw data'!O3/1000000,"")</f>
-        <v>74.156987999999998</v>
+        <v>29.67089</v>
       </c>
       <c r="T5">
         <f>IF('grpc time raw data'!O3&lt;&gt;"",AVERAGE(S$3:S$998),"")</f>
-        <v>73.989654600000009</v>
+        <v>23.851496000000001</v>
       </c>
       <c r="U5">
         <f>'grpc time raw data'!P3</f>
@@ -27671,11 +27665,11 @@
       </c>
       <c r="W5">
         <f>IF('grpc time raw data'!R3&lt;&gt;"",'grpc time raw data'!R3/1000000,"")</f>
-        <v>0</v>
+        <v>2.9683000000000002</v>
       </c>
       <c r="X5">
         <f>IF('grpc time raw data'!R3&lt;&gt;"",AVERAGE(W$3:W$998),"")</f>
-        <v>0</v>
+        <v>2.3420500000000004</v>
       </c>
       <c r="Y5">
         <f>'grpc time raw data'!S3</f>
@@ -27687,11 +27681,11 @@
       </c>
       <c r="AA5">
         <f>IF('grpc time raw data'!U3&lt;&gt;"",'grpc time raw data'!U3/1000000,"")</f>
-        <v>0</v>
+        <v>16.3841</v>
       </c>
       <c r="AB5">
         <f>IF('grpc time raw data'!U3&lt;&gt;"",AVERAGE(AA$3:AA$998),"")</f>
-        <v>0</v>
+        <v>13.987380000000002</v>
       </c>
       <c r="AC5">
         <f>'grpc time raw data'!V3</f>
@@ -27759,7 +27753,7 @@
       </c>
       <c r="AT5">
         <f>IF('grpc size raw data'!I3&lt;&gt;"",'grpc size raw data'!I3/1000000,"")</f>
-        <v>99.999961999999996</v>
+        <v>99.999930000000006</v>
       </c>
       <c r="AU5">
         <f>'grpc size raw data'!J3</f>
@@ -27771,7 +27765,7 @@
       </c>
       <c r="AW5">
         <f>IF('grpc size raw data'!L3&lt;&gt;"",'grpc size raw data'!L3/1000000,"")</f>
-        <v>99.999948000000003</v>
+        <v>100.00019899999999</v>
       </c>
       <c r="AX5">
         <f>'grpc size raw data'!M3</f>
@@ -27783,7 +27777,7 @@
       </c>
       <c r="AZ5">
         <f>IF('grpc size raw data'!O3&lt;&gt;"",'grpc size raw data'!O3/1000000,"")</f>
-        <v>0</v>
+        <v>0.21340400000000001</v>
       </c>
       <c r="BA5">
         <f>'grpc size raw data'!P3</f>
@@ -27795,7 +27789,7 @@
       </c>
       <c r="BC5">
         <f>IF('grpc size raw data'!R3&lt;&gt;"",'grpc size raw data'!R3/1000000,"")</f>
-        <v>0</v>
+        <v>1.25E-4</v>
       </c>
       <c r="BD5">
         <f>'grpc size raw data'!S3</f>
@@ -27807,7 +27801,7 @@
       </c>
       <c r="BF5">
         <f>IF('grpc size raw data'!U3&lt;&gt;"",'grpc size raw data'!U3/1000000,"")</f>
-        <v>0</v>
+        <v>3.6000000000000001E-5</v>
       </c>
       <c r="BG5">
         <f>'grpc size raw data'!V3</f>
@@ -27819,7 +27813,7 @@
       </c>
       <c r="BI5">
         <f>IF('grpc size raw data'!X3&lt;&gt;"",'grpc size raw data'!X3/1000000,"")</f>
-        <v>0</v>
+        <v>0.213368</v>
       </c>
       <c r="BK5">
         <f>'http time raw data'!A3</f>
@@ -27831,11 +27825,11 @@
       </c>
       <c r="BM5">
         <f>IF('http time raw data'!C3&lt;&gt;"",'http time raw data'!C3/1000000,"")</f>
-        <v>23140.836800000001</v>
+        <v>6831.8447999999999</v>
       </c>
       <c r="BN5">
         <f>IF('http time raw data'!C3&lt;&gt;"",AVERAGE(BM$3:BM$998),"")</f>
-        <v>24158.538120000005</v>
+        <v>7350.518610000001</v>
       </c>
       <c r="BO5">
         <f>'http time raw data'!D3</f>
@@ -27847,11 +27841,11 @@
       </c>
       <c r="BQ5">
         <f>IF('http time raw data'!F3&lt;&gt;"",'http time raw data'!F3/1000000,"")</f>
-        <v>5135.9699000000001</v>
+        <v>1410.1982</v>
       </c>
       <c r="BR5">
         <f>IF('http time raw data'!F3&lt;&gt;"",AVERAGE(BQ$3:BQ$998),"")</f>
-        <v>5553.8854699999993</v>
+        <v>1537.6869299999998</v>
       </c>
       <c r="BS5">
         <f>'http time raw data'!G3</f>
@@ -27863,11 +27857,11 @@
       </c>
       <c r="BU5">
         <f>IF('http time raw data'!I3&lt;&gt;"",'http time raw data'!I3/1000000,"")</f>
-        <v>5.1793800000000001</v>
+        <v>2.9578899999999999</v>
       </c>
       <c r="BV5">
         <f>IF('http time raw data'!I3&lt;&gt;"",AVERAGE(BU$3:BU$998),"")</f>
-        <v>4.2804739999999999</v>
+        <v>1.4879159999999998</v>
       </c>
       <c r="BW5">
         <f>'http time raw data'!J3</f>
@@ -27879,11 +27873,11 @@
       </c>
       <c r="BY5">
         <f>IF('http time raw data'!L3&lt;&gt;"",'http time raw data'!L3/1000000,"")</f>
-        <v>88.45017</v>
+        <v>31.777139999999999</v>
       </c>
       <c r="BZ5">
         <f>IF('http time raw data'!L3&lt;&gt;"",AVERAGE(BY$3:BY$998),"")</f>
-        <v>93.146625999999998</v>
+        <v>32.070676999999996</v>
       </c>
       <c r="CA5">
         <f>'http time raw data'!M3</f>
@@ -27895,11 +27889,11 @@
       </c>
       <c r="CC5">
         <f>IF('http time raw data'!O3&lt;&gt;"",'http time raw data'!O3/1000000,"")</f>
-        <v>68.576430000000002</v>
+        <v>18.511009999999999</v>
       </c>
       <c r="CD5">
         <f>IF('http time raw data'!O3&lt;&gt;"",AVERAGE(CC$3:CC$998),"")</f>
-        <v>69.192764999999994</v>
+        <v>19.083653000000005</v>
       </c>
       <c r="CE5">
         <f>'http time raw data'!P3</f>
@@ -27911,11 +27905,11 @@
       </c>
       <c r="CG5">
         <f>IF('http time raw data'!R3&lt;&gt;"",'http time raw data'!R3/1000000,"")</f>
-        <v>0</v>
+        <v>19.8492</v>
       </c>
       <c r="CH5">
         <f>IF('http time raw data'!R3&lt;&gt;"",AVERAGE(CG$3:CG$998),"")</f>
-        <v>0</v>
+        <v>20.327230000000004</v>
       </c>
       <c r="CI5">
         <f>'http time raw data'!S3</f>
@@ -27927,11 +27921,11 @@
       </c>
       <c r="CK5">
         <f>IF('http time raw data'!U3&lt;&gt;"",'http time raw data'!U3/1000000,"")</f>
-        <v>0</v>
+        <v>26.484999999999999</v>
       </c>
       <c r="CL5">
         <f>IF('http time raw data'!U3&lt;&gt;"",AVERAGE(CK$3:CK$998),"")</f>
-        <v>0</v>
+        <v>31.121079999999999</v>
       </c>
       <c r="CM5">
         <f>'http time raw data'!V3</f>
@@ -28069,9 +28063,9 @@
         <f>'http size raw data'!Z3</f>
         <v>8</v>
       </c>
-      <c r="DV5" t="str">
+      <c r="DV5">
         <f>IF('http size raw data'!AA3&lt;&gt;0,'http size raw data'!AA3/1000000,"")</f>
-        <v/>
+        <v>0.21365999999999999</v>
       </c>
       <c r="DW5">
         <f>'http size raw data'!AB3</f>
@@ -28081,9 +28075,9 @@
         <f>'http size raw data'!AC3</f>
         <v>9</v>
       </c>
-      <c r="DY5" t="str">
+      <c r="DY5">
         <f>IF('http size raw data'!AD3&lt;&gt;0,'http size raw data'!AD3/1000000,"")</f>
-        <v/>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="DZ5">
         <f>'http size raw data'!AE3</f>
@@ -28093,9 +28087,9 @@
         <f>'http size raw data'!AF3</f>
         <v>10</v>
       </c>
-      <c r="EB5" t="str">
+      <c r="EB5">
         <f>IF('http size raw data'!AG3&lt;&gt;0,'http size raw data'!AG3/1000000,"")</f>
-        <v/>
+        <v>4.9399999999999997E-4</v>
       </c>
       <c r="EC5">
         <f>'http size raw data'!AH3</f>
@@ -28105,9 +28099,9 @@
         <f>'http size raw data'!AI3</f>
         <v>11</v>
       </c>
-      <c r="EE5" t="str">
+      <c r="EE5">
         <f>IF('http size raw data'!AJ3&lt;&gt;0,'http size raw data'!AJ3/1000000,"")</f>
-        <v/>
+        <v>3.0000000000000001E-6</v>
       </c>
       <c r="EF5">
         <f>'http size raw data'!AK3</f>
@@ -28117,9 +28111,9 @@
         <f>'http size raw data'!AL3</f>
         <v>12</v>
       </c>
-      <c r="EH5" t="str">
+      <c r="EH5">
         <f>IF('http size raw data'!AM3&lt;&gt;0,'http size raw data'!AM3/1000000,"")</f>
-        <v/>
+        <v>0.21338299999999999</v>
       </c>
       <c r="EI5">
         <f>'http size raw data'!AN3</f>
@@ -28129,9 +28123,9 @@
         <f>'http size raw data'!AO3</f>
         <v>13</v>
       </c>
-      <c r="EK5" t="str">
+      <c r="EK5">
         <f>IF('http size raw data'!AP3&lt;&gt;0,'http size raw data'!AP3/1000000,"")</f>
-        <v/>
+        <v>1.9999999999999999E-6</v>
       </c>
     </row>
     <row r="6" spans="1:141" x14ac:dyDescent="0.25">
@@ -28145,11 +28139,11 @@
       </c>
       <c r="C6">
         <f>IF('grpc time raw data'!C4&lt;&gt;"",'grpc time raw data'!C4/1000000,"")</f>
-        <v>4665.6536999999998</v>
+        <v>1149.9896000000001</v>
       </c>
       <c r="D6">
         <f>IF('grpc time raw data'!C4&lt;&gt;"",AVERAGE(C$3:C$998),"")</f>
-        <v>4841.8368999999993</v>
+        <v>1309.7026899999998</v>
       </c>
       <c r="E6">
         <f>'grpc time raw data'!D4</f>
@@ -28161,11 +28155,11 @@
       </c>
       <c r="G6">
         <f>IF('grpc time raw data'!F4&lt;&gt;"",'grpc time raw data'!F4/1000000,"")</f>
-        <v>4530.8164999999999</v>
+        <v>1820.7652</v>
       </c>
       <c r="H6">
         <f>IF('grpc time raw data'!F4&lt;&gt;"",AVERAGE(G$3:G$998),"")</f>
-        <v>4737.90985</v>
+        <v>1495.3604499999999</v>
       </c>
       <c r="I6">
         <f>'grpc time raw data'!G4</f>
@@ -28177,11 +28171,11 @@
       </c>
       <c r="K6">
         <f>IF('grpc time raw data'!I4&lt;&gt;"",'grpc time raw data'!I4/1000000,"")</f>
-        <v>0.81278399999999995</v>
+        <v>1.2051499999999999</v>
       </c>
       <c r="L6">
         <f>IF('grpc time raw data'!I4&lt;&gt;"",AVERAGE(K$3:K$998),"")</f>
-        <v>1.5702273999999998</v>
+        <v>1.252092</v>
       </c>
       <c r="M6">
         <f>'grpc time raw data'!J4</f>
@@ -28193,11 +28187,11 @@
       </c>
       <c r="O6">
         <f>IF('grpc time raw data'!L4&lt;&gt;"",'grpc time raw data'!L4/1000000,"")</f>
-        <v>80.493067999999994</v>
+        <v>25.769570000000002</v>
       </c>
       <c r="P6">
         <f>IF('grpc time raw data'!L4&lt;&gt;"",AVERAGE(O$3:O$998),"")</f>
-        <v>82.969507000000007</v>
+        <v>28.424786999999998</v>
       </c>
       <c r="Q6">
         <f>'grpc time raw data'!M4</f>
@@ -28209,11 +28203,11 @@
       </c>
       <c r="S6">
         <f>IF('grpc time raw data'!O4&lt;&gt;"",'grpc time raw data'!O4/1000000,"")</f>
-        <v>73.512075999999993</v>
+        <v>22.3156</v>
       </c>
       <c r="T6">
         <f>IF('grpc time raw data'!O4&lt;&gt;"",AVERAGE(S$3:S$998),"")</f>
-        <v>73.989654600000009</v>
+        <v>23.851496000000001</v>
       </c>
       <c r="U6">
         <f>'grpc time raw data'!P4</f>
@@ -28225,11 +28219,11 @@
       </c>
       <c r="W6">
         <f>IF('grpc time raw data'!R4&lt;&gt;"",'grpc time raw data'!R4/1000000,"")</f>
-        <v>0</v>
+        <v>1.9044000000000001</v>
       </c>
       <c r="X6">
         <f>IF('grpc time raw data'!R4&lt;&gt;"",AVERAGE(W$3:W$998),"")</f>
-        <v>0</v>
+        <v>2.3420500000000004</v>
       </c>
       <c r="Y6">
         <f>'grpc time raw data'!S4</f>
@@ -28241,11 +28235,11 @@
       </c>
       <c r="AA6">
         <f>IF('grpc time raw data'!U4&lt;&gt;"",'grpc time raw data'!U4/1000000,"")</f>
-        <v>0</v>
+        <v>16.55</v>
       </c>
       <c r="AB6">
         <f>IF('grpc time raw data'!U4&lt;&gt;"",AVERAGE(AA$3:AA$998),"")</f>
-        <v>0</v>
+        <v>13.987380000000002</v>
       </c>
       <c r="AC6">
         <f>'grpc time raw data'!V4</f>
@@ -28289,7 +28283,7 @@
       </c>
       <c r="AN6">
         <f>IF('grpc size raw data'!C4&lt;&gt;"",'grpc size raw data'!C4,"")</f>
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AO6">
         <f>'grpc size raw data'!D4</f>
@@ -28313,7 +28307,7 @@
       </c>
       <c r="AT6">
         <f>IF('grpc size raw data'!I4&lt;&gt;"",'grpc size raw data'!I4/1000000,"")</f>
-        <v>100.0001</v>
+        <v>100.00018300000001</v>
       </c>
       <c r="AU6">
         <f>'grpc size raw data'!J4</f>
@@ -28325,7 +28319,7 @@
       </c>
       <c r="AW6">
         <f>IF('grpc size raw data'!L4&lt;&gt;"",'grpc size raw data'!L4/1000000,"")</f>
-        <v>99.999948000000003</v>
+        <v>100.00019899999999</v>
       </c>
       <c r="AX6">
         <f>'grpc size raw data'!M4</f>
@@ -28337,7 +28331,7 @@
       </c>
       <c r="AZ6">
         <f>IF('grpc size raw data'!O4&lt;&gt;"",'grpc size raw data'!O4/1000000,"")</f>
-        <v>0</v>
+        <v>0.21340400000000001</v>
       </c>
       <c r="BA6">
         <f>'grpc size raw data'!P4</f>
@@ -28349,7 +28343,7 @@
       </c>
       <c r="BC6">
         <f>IF('grpc size raw data'!R4&lt;&gt;"",'grpc size raw data'!R4/1000000,"")</f>
-        <v>0</v>
+        <v>1.25E-4</v>
       </c>
       <c r="BD6">
         <f>'grpc size raw data'!S4</f>
@@ -28361,7 +28355,7 @@
       </c>
       <c r="BF6">
         <f>IF('grpc size raw data'!U4&lt;&gt;"",'grpc size raw data'!U4/1000000,"")</f>
-        <v>0</v>
+        <v>3.6000000000000001E-5</v>
       </c>
       <c r="BG6">
         <f>'grpc size raw data'!V4</f>
@@ -28373,7 +28367,7 @@
       </c>
       <c r="BI6">
         <f>IF('grpc size raw data'!X4&lt;&gt;"",'grpc size raw data'!X4/1000000,"")</f>
-        <v>0</v>
+        <v>0.213368</v>
       </c>
       <c r="BK6">
         <f>'http time raw data'!A4</f>
@@ -28385,11 +28379,11 @@
       </c>
       <c r="BM6">
         <f>IF('http time raw data'!C4&lt;&gt;"",'http time raw data'!C4/1000000,"")</f>
-        <v>24370.483199999999</v>
+        <v>7877.4946</v>
       </c>
       <c r="BN6">
         <f>IF('http time raw data'!C4&lt;&gt;"",AVERAGE(BM$3:BM$998),"")</f>
-        <v>24158.538120000005</v>
+        <v>7350.518610000001</v>
       </c>
       <c r="BO6">
         <f>'http time raw data'!D4</f>
@@ -28401,11 +28395,11 @@
       </c>
       <c r="BQ6">
         <f>IF('http time raw data'!F4&lt;&gt;"",'http time raw data'!F4/1000000,"")</f>
-        <v>6488.0792000000001</v>
+        <v>1546.2859000000001</v>
       </c>
       <c r="BR6">
         <f>IF('http time raw data'!F4&lt;&gt;"",AVERAGE(BQ$3:BQ$998),"")</f>
-        <v>5553.8854699999993</v>
+        <v>1537.6869299999998</v>
       </c>
       <c r="BS6">
         <f>'http time raw data'!G4</f>
@@ -28417,11 +28411,11 @@
       </c>
       <c r="BU6">
         <f>IF('http time raw data'!I4&lt;&gt;"",'http time raw data'!I4/1000000,"")</f>
-        <v>2.5866600000000002</v>
+        <v>0.99009999999999998</v>
       </c>
       <c r="BV6">
         <f>IF('http time raw data'!I4&lt;&gt;"",AVERAGE(BU$3:BU$998),"")</f>
-        <v>4.2804739999999999</v>
+        <v>1.4879159999999998</v>
       </c>
       <c r="BW6">
         <f>'http time raw data'!J4</f>
@@ -28433,11 +28427,11 @@
       </c>
       <c r="BY6">
         <f>IF('http time raw data'!L4&lt;&gt;"",'http time raw data'!L4/1000000,"")</f>
-        <v>90.986739999999998</v>
+        <v>29.375240000000002</v>
       </c>
       <c r="BZ6">
         <f>IF('http time raw data'!L4&lt;&gt;"",AVERAGE(BY$3:BY$998),"")</f>
-        <v>93.146625999999998</v>
+        <v>32.070676999999996</v>
       </c>
       <c r="CA6">
         <f>'http time raw data'!M4</f>
@@ -28449,11 +28443,11 @@
       </c>
       <c r="CC6">
         <f>IF('http time raw data'!O4&lt;&gt;"",'http time raw data'!O4/1000000,"")</f>
-        <v>66.690659999999994</v>
+        <v>19.311119999999999</v>
       </c>
       <c r="CD6">
         <f>IF('http time raw data'!O4&lt;&gt;"",AVERAGE(CC$3:CC$998),"")</f>
-        <v>69.192764999999994</v>
+        <v>19.083653000000005</v>
       </c>
       <c r="CE6">
         <f>'http time raw data'!P4</f>
@@ -28465,11 +28459,11 @@
       </c>
       <c r="CG6">
         <f>IF('http time raw data'!R4&lt;&gt;"",'http time raw data'!R4/1000000,"")</f>
-        <v>0</v>
+        <v>21.623699999999999</v>
       </c>
       <c r="CH6">
         <f>IF('http time raw data'!R4&lt;&gt;"",AVERAGE(CG$3:CG$998),"")</f>
-        <v>0</v>
+        <v>20.327230000000004</v>
       </c>
       <c r="CI6">
         <f>'http time raw data'!S4</f>
@@ -28481,11 +28475,11 @@
       </c>
       <c r="CK6">
         <f>IF('http time raw data'!U4&lt;&gt;"",'http time raw data'!U4/1000000,"")</f>
-        <v>0</v>
+        <v>28.029199999999999</v>
       </c>
       <c r="CL6">
         <f>IF('http time raw data'!U4&lt;&gt;"",AVERAGE(CK$3:CK$998),"")</f>
-        <v>0</v>
+        <v>31.121079999999999</v>
       </c>
       <c r="CM6">
         <f>'http time raw data'!V4</f>
@@ -28623,9 +28617,9 @@
         <f>'http size raw data'!Z4</f>
         <v>8</v>
       </c>
-      <c r="DV6" t="str">
+      <c r="DV6">
         <f>IF('http size raw data'!AA4&lt;&gt;0,'http size raw data'!AA4/1000000,"")</f>
-        <v/>
+        <v>0.21365999999999999</v>
       </c>
       <c r="DW6">
         <f>'http size raw data'!AB4</f>
@@ -28635,9 +28629,9 @@
         <f>'http size raw data'!AC4</f>
         <v>9</v>
       </c>
-      <c r="DY6" t="str">
+      <c r="DY6">
         <f>IF('http size raw data'!AD4&lt;&gt;0,'http size raw data'!AD4/1000000,"")</f>
-        <v/>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="DZ6">
         <f>'http size raw data'!AE4</f>
@@ -28647,9 +28641,9 @@
         <f>'http size raw data'!AF4</f>
         <v>10</v>
       </c>
-      <c r="EB6" t="str">
+      <c r="EB6">
         <f>IF('http size raw data'!AG4&lt;&gt;0,'http size raw data'!AG4/1000000,"")</f>
-        <v/>
+        <v>4.9399999999999997E-4</v>
       </c>
       <c r="EC6">
         <f>'http size raw data'!AH4</f>
@@ -28659,9 +28653,9 @@
         <f>'http size raw data'!AI4</f>
         <v>11</v>
       </c>
-      <c r="EE6" t="str">
+      <c r="EE6">
         <f>IF('http size raw data'!AJ4&lt;&gt;0,'http size raw data'!AJ4/1000000,"")</f>
-        <v/>
+        <v>3.0000000000000001E-6</v>
       </c>
       <c r="EF6">
         <f>'http size raw data'!AK4</f>
@@ -28671,9 +28665,9 @@
         <f>'http size raw data'!AL4</f>
         <v>12</v>
       </c>
-      <c r="EH6" t="str">
+      <c r="EH6">
         <f>IF('http size raw data'!AM4&lt;&gt;0,'http size raw data'!AM4/1000000,"")</f>
-        <v/>
+        <v>0.21338299999999999</v>
       </c>
       <c r="EI6">
         <f>'http size raw data'!AN4</f>
@@ -28683,9 +28677,9 @@
         <f>'http size raw data'!AO4</f>
         <v>13</v>
       </c>
-      <c r="EK6" t="str">
+      <c r="EK6">
         <f>IF('http size raw data'!AP4&lt;&gt;0,'http size raw data'!AP4/1000000,"")</f>
-        <v/>
+        <v>1.9999999999999999E-6</v>
       </c>
     </row>
     <row r="7" spans="1:141" x14ac:dyDescent="0.25">
@@ -28699,11 +28693,11 @@
       </c>
       <c r="C7">
         <f>IF('grpc time raw data'!C5&lt;&gt;"",'grpc time raw data'!C5/1000000,"")</f>
-        <v>4308.491</v>
+        <v>1182.8979999999999</v>
       </c>
       <c r="D7">
         <f>IF('grpc time raw data'!C5&lt;&gt;"",AVERAGE(C$3:C$998),"")</f>
-        <v>4841.8368999999993</v>
+        <v>1309.7026899999998</v>
       </c>
       <c r="E7">
         <f>'grpc time raw data'!D5</f>
@@ -28715,11 +28709,11 @@
       </c>
       <c r="G7">
         <f>IF('grpc time raw data'!F5&lt;&gt;"",'grpc time raw data'!F5/1000000,"")</f>
-        <v>5178.6745000000001</v>
+        <v>1557.5581</v>
       </c>
       <c r="H7">
         <f>IF('grpc time raw data'!F5&lt;&gt;"",AVERAGE(G$3:G$998),"")</f>
-        <v>4737.90985</v>
+        <v>1495.3604499999999</v>
       </c>
       <c r="I7">
         <f>'grpc time raw data'!G5</f>
@@ -28731,11 +28725,11 @@
       </c>
       <c r="K7">
         <f>IF('grpc time raw data'!I5&lt;&gt;"",'grpc time raw data'!I5/1000000,"")</f>
-        <v>6.0294840000000001</v>
+        <v>0.55681999999999998</v>
       </c>
       <c r="L7">
         <f>IF('grpc time raw data'!I5&lt;&gt;"",AVERAGE(K$3:K$998),"")</f>
-        <v>1.5702273999999998</v>
+        <v>1.252092</v>
       </c>
       <c r="M7">
         <f>'grpc time raw data'!J5</f>
@@ -28747,11 +28741,11 @@
       </c>
       <c r="O7">
         <f>IF('grpc time raw data'!L5&lt;&gt;"",'grpc time raw data'!L5/1000000,"")</f>
-        <v>80.579132000000001</v>
+        <v>35.988810000000001</v>
       </c>
       <c r="P7">
         <f>IF('grpc time raw data'!L5&lt;&gt;"",AVERAGE(O$3:O$998),"")</f>
-        <v>82.969507000000007</v>
+        <v>28.424786999999998</v>
       </c>
       <c r="Q7">
         <f>'grpc time raw data'!M5</f>
@@ -28763,11 +28757,11 @@
       </c>
       <c r="S7">
         <f>IF('grpc time raw data'!O5&lt;&gt;"",'grpc time raw data'!O5/1000000,"")</f>
-        <v>74.317487999999997</v>
+        <v>25.038180000000001</v>
       </c>
       <c r="T7">
         <f>IF('grpc time raw data'!O5&lt;&gt;"",AVERAGE(S$3:S$998),"")</f>
-        <v>73.989654600000009</v>
+        <v>23.851496000000001</v>
       </c>
       <c r="U7">
         <f>'grpc time raw data'!P5</f>
@@ -28779,11 +28773,11 @@
       </c>
       <c r="W7">
         <f>IF('grpc time raw data'!R5&lt;&gt;"",'grpc time raw data'!R5/1000000,"")</f>
-        <v>0</v>
+        <v>2.5125000000000002</v>
       </c>
       <c r="X7">
         <f>IF('grpc time raw data'!R5&lt;&gt;"",AVERAGE(W$3:W$998),"")</f>
-        <v>0</v>
+        <v>2.3420500000000004</v>
       </c>
       <c r="Y7">
         <f>'grpc time raw data'!S5</f>
@@ -28795,11 +28789,11 @@
       </c>
       <c r="AA7">
         <f>IF('grpc time raw data'!U5&lt;&gt;"",'grpc time raw data'!U5/1000000,"")</f>
-        <v>0</v>
+        <v>14.251300000000001</v>
       </c>
       <c r="AB7">
         <f>IF('grpc time raw data'!U5&lt;&gt;"",AVERAGE(AA$3:AA$998),"")</f>
-        <v>0</v>
+        <v>13.987380000000002</v>
       </c>
       <c r="AC7">
         <f>'grpc time raw data'!V5</f>
@@ -28867,7 +28861,7 @@
       </c>
       <c r="AT7">
         <f>IF('grpc size raw data'!I5&lt;&gt;"",'grpc size raw data'!I5/1000000,"")</f>
-        <v>99.999955</v>
+        <v>99.999920000000003</v>
       </c>
       <c r="AU7">
         <f>'grpc size raw data'!J5</f>
@@ -28879,7 +28873,7 @@
       </c>
       <c r="AW7">
         <f>IF('grpc size raw data'!L5&lt;&gt;"",'grpc size raw data'!L5/1000000,"")</f>
-        <v>99.999948000000003</v>
+        <v>100.00019899999999</v>
       </c>
       <c r="AX7">
         <f>'grpc size raw data'!M5</f>
@@ -28891,7 +28885,7 @@
       </c>
       <c r="AZ7">
         <f>IF('grpc size raw data'!O5&lt;&gt;"",'grpc size raw data'!O5/1000000,"")</f>
-        <v>0</v>
+        <v>0.21340400000000001</v>
       </c>
       <c r="BA7">
         <f>'grpc size raw data'!P5</f>
@@ -28903,7 +28897,7 @@
       </c>
       <c r="BC7">
         <f>IF('grpc size raw data'!R5&lt;&gt;"",'grpc size raw data'!R5/1000000,"")</f>
-        <v>0</v>
+        <v>1.25E-4</v>
       </c>
       <c r="BD7">
         <f>'grpc size raw data'!S5</f>
@@ -28915,7 +28909,7 @@
       </c>
       <c r="BF7">
         <f>IF('grpc size raw data'!U5&lt;&gt;"",'grpc size raw data'!U5/1000000,"")</f>
-        <v>0</v>
+        <v>3.6000000000000001E-5</v>
       </c>
       <c r="BG7">
         <f>'grpc size raw data'!V5</f>
@@ -28927,7 +28921,7 @@
       </c>
       <c r="BI7">
         <f>IF('grpc size raw data'!X5&lt;&gt;"",'grpc size raw data'!X5/1000000,"")</f>
-        <v>0</v>
+        <v>0.213368</v>
       </c>
       <c r="BK7">
         <f>'http time raw data'!A5</f>
@@ -28939,11 +28933,11 @@
       </c>
       <c r="BM7">
         <f>IF('http time raw data'!C5&lt;&gt;"",'http time raw data'!C5/1000000,"")</f>
-        <v>24515.0589</v>
+        <v>6693.1373999999996</v>
       </c>
       <c r="BN7">
         <f>IF('http time raw data'!C5&lt;&gt;"",AVERAGE(BM$3:BM$998),"")</f>
-        <v>24158.538120000005</v>
+        <v>7350.518610000001</v>
       </c>
       <c r="BO7">
         <f>'http time raw data'!D5</f>
@@ -28955,11 +28949,11 @@
       </c>
       <c r="BQ7">
         <f>IF('http time raw data'!F5&lt;&gt;"",'http time raw data'!F5/1000000,"")</f>
-        <v>5416.3221999999996</v>
+        <v>1464.2582</v>
       </c>
       <c r="BR7">
         <f>IF('http time raw data'!F5&lt;&gt;"",AVERAGE(BQ$3:BQ$998),"")</f>
-        <v>5553.8854699999993</v>
+        <v>1537.6869299999998</v>
       </c>
       <c r="BS7">
         <f>'http time raw data'!G5</f>
@@ -28971,11 +28965,11 @@
       </c>
       <c r="BU7">
         <f>IF('http time raw data'!I5&lt;&gt;"",'http time raw data'!I5/1000000,"")</f>
-        <v>4.7249800000000004</v>
+        <v>2.4865400000000002</v>
       </c>
       <c r="BV7">
         <f>IF('http time raw data'!I5&lt;&gt;"",AVERAGE(BU$3:BU$998),"")</f>
-        <v>4.2804739999999999</v>
+        <v>1.4879159999999998</v>
       </c>
       <c r="BW7">
         <f>'http time raw data'!J5</f>
@@ -28987,11 +28981,11 @@
       </c>
       <c r="BY7">
         <f>IF('http time raw data'!L5&lt;&gt;"",'http time raw data'!L5/1000000,"")</f>
-        <v>87.418430000000001</v>
+        <v>32.111370000000001</v>
       </c>
       <c r="BZ7">
         <f>IF('http time raw data'!L5&lt;&gt;"",AVERAGE(BY$3:BY$998),"")</f>
-        <v>93.146625999999998</v>
+        <v>32.070676999999996</v>
       </c>
       <c r="CA7">
         <f>'http time raw data'!M5</f>
@@ -29003,11 +28997,11 @@
       </c>
       <c r="CC7">
         <f>IF('http time raw data'!O5&lt;&gt;"",'http time raw data'!O5/1000000,"")</f>
-        <v>66.199259999999995</v>
+        <v>18.941600000000001</v>
       </c>
       <c r="CD7">
         <f>IF('http time raw data'!O5&lt;&gt;"",AVERAGE(CC$3:CC$998),"")</f>
-        <v>69.192764999999994</v>
+        <v>19.083653000000005</v>
       </c>
       <c r="CE7">
         <f>'http time raw data'!P5</f>
@@ -29019,11 +29013,11 @@
       </c>
       <c r="CG7">
         <f>IF('http time raw data'!R5&lt;&gt;"",'http time raw data'!R5/1000000,"")</f>
-        <v>0</v>
+        <v>13.946</v>
       </c>
       <c r="CH7">
         <f>IF('http time raw data'!R5&lt;&gt;"",AVERAGE(CG$3:CG$998),"")</f>
-        <v>0</v>
+        <v>20.327230000000004</v>
       </c>
       <c r="CI7">
         <f>'http time raw data'!S5</f>
@@ -29035,11 +29029,11 @@
       </c>
       <c r="CK7">
         <f>IF('http time raw data'!U5&lt;&gt;"",'http time raw data'!U5/1000000,"")</f>
-        <v>0</v>
+        <v>37.625399999999999</v>
       </c>
       <c r="CL7">
         <f>IF('http time raw data'!U5&lt;&gt;"",AVERAGE(CK$3:CK$998),"")</f>
-        <v>0</v>
+        <v>31.121079999999999</v>
       </c>
       <c r="CM7">
         <f>'http time raw data'!V5</f>
@@ -29177,9 +29171,9 @@
         <f>'http size raw data'!Z5</f>
         <v>8</v>
       </c>
-      <c r="DV7" t="str">
+      <c r="DV7">
         <f>IF('http size raw data'!AA5&lt;&gt;0,'http size raw data'!AA5/1000000,"")</f>
-        <v/>
+        <v>0.21365999999999999</v>
       </c>
       <c r="DW7">
         <f>'http size raw data'!AB5</f>
@@ -29189,9 +29183,9 @@
         <f>'http size raw data'!AC5</f>
         <v>9</v>
       </c>
-      <c r="DY7" t="str">
+      <c r="DY7">
         <f>IF('http size raw data'!AD5&lt;&gt;0,'http size raw data'!AD5/1000000,"")</f>
-        <v/>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="DZ7">
         <f>'http size raw data'!AE5</f>
@@ -29201,9 +29195,9 @@
         <f>'http size raw data'!AF5</f>
         <v>10</v>
       </c>
-      <c r="EB7" t="str">
+      <c r="EB7">
         <f>IF('http size raw data'!AG5&lt;&gt;0,'http size raw data'!AG5/1000000,"")</f>
-        <v/>
+        <v>4.9399999999999997E-4</v>
       </c>
       <c r="EC7">
         <f>'http size raw data'!AH5</f>
@@ -29213,9 +29207,9 @@
         <f>'http size raw data'!AI5</f>
         <v>11</v>
       </c>
-      <c r="EE7" t="str">
+      <c r="EE7">
         <f>IF('http size raw data'!AJ5&lt;&gt;0,'http size raw data'!AJ5/1000000,"")</f>
-        <v/>
+        <v>3.0000000000000001E-6</v>
       </c>
       <c r="EF7">
         <f>'http size raw data'!AK5</f>
@@ -29225,9 +29219,9 @@
         <f>'http size raw data'!AL5</f>
         <v>12</v>
       </c>
-      <c r="EH7" t="str">
+      <c r="EH7">
         <f>IF('http size raw data'!AM5&lt;&gt;0,'http size raw data'!AM5/1000000,"")</f>
-        <v/>
+        <v>0.21338299999999999</v>
       </c>
       <c r="EI7">
         <f>'http size raw data'!AN5</f>
@@ -29237,9 +29231,9 @@
         <f>'http size raw data'!AO5</f>
         <v>13</v>
       </c>
-      <c r="EK7" t="str">
+      <c r="EK7">
         <f>IF('http size raw data'!AP5&lt;&gt;0,'http size raw data'!AP5/1000000,"")</f>
-        <v/>
+        <v>1.9999999999999999E-6</v>
       </c>
     </row>
     <row r="8" spans="1:141" x14ac:dyDescent="0.25">
@@ -29253,11 +29247,11 @@
       </c>
       <c r="C8">
         <f>IF('grpc time raw data'!C6&lt;&gt;"",'grpc time raw data'!C6/1000000,"")</f>
-        <v>4625.6525000000001</v>
+        <v>1175.8776</v>
       </c>
       <c r="D8">
         <f>IF('grpc time raw data'!C6&lt;&gt;"",AVERAGE(C$3:C$998),"")</f>
-        <v>4841.8368999999993</v>
+        <v>1309.7026899999998</v>
       </c>
       <c r="E8">
         <f>'grpc time raw data'!D6</f>
@@ -29269,11 +29263,11 @@
       </c>
       <c r="G8">
         <f>IF('grpc time raw data'!F6&lt;&gt;"",'grpc time raw data'!F6/1000000,"")</f>
-        <v>4833.5312000000004</v>
+        <v>1473.461</v>
       </c>
       <c r="H8">
         <f>IF('grpc time raw data'!F6&lt;&gt;"",AVERAGE(G$3:G$998),"")</f>
-        <v>4737.90985</v>
+        <v>1495.3604499999999</v>
       </c>
       <c r="I8">
         <f>'grpc time raw data'!G6</f>
@@ -29285,11 +29279,11 @@
       </c>
       <c r="K8">
         <f>IF('grpc time raw data'!I6&lt;&gt;"",'grpc time raw data'!I6/1000000,"")</f>
-        <v>0.93339000000000005</v>
+        <v>1.1653800000000001</v>
       </c>
       <c r="L8">
         <f>IF('grpc time raw data'!I6&lt;&gt;"",AVERAGE(K$3:K$998),"")</f>
-        <v>1.5702273999999998</v>
+        <v>1.252092</v>
       </c>
       <c r="M8">
         <f>'grpc time raw data'!J6</f>
@@ -29301,11 +29295,11 @@
       </c>
       <c r="O8">
         <f>IF('grpc time raw data'!L6&lt;&gt;"",'grpc time raw data'!L6/1000000,"")</f>
-        <v>80.289439999999999</v>
+        <v>26.174410000000002</v>
       </c>
       <c r="P8">
         <f>IF('grpc time raw data'!L6&lt;&gt;"",AVERAGE(O$3:O$998),"")</f>
-        <v>82.969507000000007</v>
+        <v>28.424786999999998</v>
       </c>
       <c r="Q8">
         <f>'grpc time raw data'!M6</f>
@@ -29317,11 +29311,11 @@
       </c>
       <c r="S8">
         <f>IF('grpc time raw data'!O6&lt;&gt;"",'grpc time raw data'!O6/1000000,"")</f>
-        <v>73.903474000000003</v>
+        <v>22.440860000000001</v>
       </c>
       <c r="T8">
         <f>IF('grpc time raw data'!O6&lt;&gt;"",AVERAGE(S$3:S$998),"")</f>
-        <v>73.989654600000009</v>
+        <v>23.851496000000001</v>
       </c>
       <c r="U8">
         <f>'grpc time raw data'!P6</f>
@@ -29333,11 +29327,11 @@
       </c>
       <c r="W8">
         <f>IF('grpc time raw data'!R6&lt;&gt;"",'grpc time raw data'!R6/1000000,"")</f>
-        <v>0</v>
+        <v>2.2623000000000002</v>
       </c>
       <c r="X8">
         <f>IF('grpc time raw data'!R6&lt;&gt;"",AVERAGE(W$3:W$998),"")</f>
-        <v>0</v>
+        <v>2.3420500000000004</v>
       </c>
       <c r="Y8">
         <f>'grpc time raw data'!S6</f>
@@ -29349,11 +29343,11 @@
       </c>
       <c r="AA8">
         <f>IF('grpc time raw data'!U6&lt;&gt;"",'grpc time raw data'!U6/1000000,"")</f>
-        <v>0</v>
+        <v>9.5803999999999991</v>
       </c>
       <c r="AB8">
         <f>IF('grpc time raw data'!U6&lt;&gt;"",AVERAGE(AA$3:AA$998),"")</f>
-        <v>0</v>
+        <v>13.987380000000002</v>
       </c>
       <c r="AC8">
         <f>'grpc time raw data'!V6</f>
@@ -29421,7 +29415,7 @@
       </c>
       <c r="AT8">
         <f>IF('grpc size raw data'!I6&lt;&gt;"",'grpc size raw data'!I6/1000000,"")</f>
-        <v>100.000193</v>
+        <v>99.999954000000002</v>
       </c>
       <c r="AU8">
         <f>'grpc size raw data'!J6</f>
@@ -29433,7 +29427,7 @@
       </c>
       <c r="AW8">
         <f>IF('grpc size raw data'!L6&lt;&gt;"",'grpc size raw data'!L6/1000000,"")</f>
-        <v>99.999948000000003</v>
+        <v>100.00019899999999</v>
       </c>
       <c r="AX8">
         <f>'grpc size raw data'!M6</f>
@@ -29445,7 +29439,7 @@
       </c>
       <c r="AZ8">
         <f>IF('grpc size raw data'!O6&lt;&gt;"",'grpc size raw data'!O6/1000000,"")</f>
-        <v>0</v>
+        <v>0.21340400000000001</v>
       </c>
       <c r="BA8">
         <f>'grpc size raw data'!P6</f>
@@ -29457,7 +29451,7 @@
       </c>
       <c r="BC8">
         <f>IF('grpc size raw data'!R6&lt;&gt;"",'grpc size raw data'!R6/1000000,"")</f>
-        <v>0</v>
+        <v>1.25E-4</v>
       </c>
       <c r="BD8">
         <f>'grpc size raw data'!S6</f>
@@ -29469,7 +29463,7 @@
       </c>
       <c r="BF8">
         <f>IF('grpc size raw data'!U6&lt;&gt;"",'grpc size raw data'!U6/1000000,"")</f>
-        <v>0</v>
+        <v>3.6000000000000001E-5</v>
       </c>
       <c r="BG8">
         <f>'grpc size raw data'!V6</f>
@@ -29481,7 +29475,7 @@
       </c>
       <c r="BI8">
         <f>IF('grpc size raw data'!X6&lt;&gt;"",'grpc size raw data'!X6/1000000,"")</f>
-        <v>0</v>
+        <v>0.213368</v>
       </c>
       <c r="BK8">
         <f>'http time raw data'!A6</f>
@@ -29493,11 +29487,11 @@
       </c>
       <c r="BM8">
         <f>IF('http time raw data'!C6&lt;&gt;"",'http time raw data'!C6/1000000,"")</f>
-        <v>23833.7785</v>
+        <v>6858.4579999999996</v>
       </c>
       <c r="BN8">
         <f>IF('http time raw data'!C6&lt;&gt;"",AVERAGE(BM$3:BM$998),"")</f>
-        <v>24158.538120000005</v>
+        <v>7350.518610000001</v>
       </c>
       <c r="BO8">
         <f>'http time raw data'!D6</f>
@@ -29509,11 +29503,11 @@
       </c>
       <c r="BQ8">
         <f>IF('http time raw data'!F6&lt;&gt;"",'http time raw data'!F6/1000000,"")</f>
-        <v>5227.1198000000004</v>
+        <v>1407.4042999999999</v>
       </c>
       <c r="BR8">
         <f>IF('http time raw data'!F6&lt;&gt;"",AVERAGE(BQ$3:BQ$998),"")</f>
-        <v>5553.8854699999993</v>
+        <v>1537.6869299999998</v>
       </c>
       <c r="BS8">
         <f>'http time raw data'!G6</f>
@@ -29525,11 +29519,11 @@
       </c>
       <c r="BU8">
         <f>IF('http time raw data'!I6&lt;&gt;"",'http time raw data'!I6/1000000,"")</f>
-        <v>4.96122</v>
+        <v>1.1637900000000001</v>
       </c>
       <c r="BV8">
         <f>IF('http time raw data'!I6&lt;&gt;"",AVERAGE(BU$3:BU$998),"")</f>
-        <v>4.2804739999999999</v>
+        <v>1.4879159999999998</v>
       </c>
       <c r="BW8">
         <f>'http time raw data'!J6</f>
@@ -29541,11 +29535,11 @@
       </c>
       <c r="BY8">
         <f>IF('http time raw data'!L6&lt;&gt;"",'http time raw data'!L6/1000000,"")</f>
-        <v>91.009820000000005</v>
+        <v>29.78585</v>
       </c>
       <c r="BZ8">
         <f>IF('http time raw data'!L6&lt;&gt;"",AVERAGE(BY$3:BY$998),"")</f>
-        <v>93.146625999999998</v>
+        <v>32.070676999999996</v>
       </c>
       <c r="CA8">
         <f>'http time raw data'!M6</f>
@@ -29557,11 +29551,11 @@
       </c>
       <c r="CC8">
         <f>IF('http time raw data'!O6&lt;&gt;"",'http time raw data'!O6/1000000,"")</f>
-        <v>66.88167</v>
+        <v>19.653390000000002</v>
       </c>
       <c r="CD8">
         <f>IF('http time raw data'!O6&lt;&gt;"",AVERAGE(CC$3:CC$998),"")</f>
-        <v>69.192764999999994</v>
+        <v>19.083653000000005</v>
       </c>
       <c r="CE8">
         <f>'http time raw data'!P6</f>
@@ -29573,11 +29567,11 @@
       </c>
       <c r="CG8">
         <f>IF('http time raw data'!R6&lt;&gt;"",'http time raw data'!R6/1000000,"")</f>
-        <v>0</v>
+        <v>24.610399999999998</v>
       </c>
       <c r="CH8">
         <f>IF('http time raw data'!R6&lt;&gt;"",AVERAGE(CG$3:CG$998),"")</f>
-        <v>0</v>
+        <v>20.327230000000004</v>
       </c>
       <c r="CI8">
         <f>'http time raw data'!S6</f>
@@ -29589,11 +29583,11 @@
       </c>
       <c r="CK8">
         <f>IF('http time raw data'!U6&lt;&gt;"",'http time raw data'!U6/1000000,"")</f>
-        <v>0</v>
+        <v>35.068300000000001</v>
       </c>
       <c r="CL8">
         <f>IF('http time raw data'!U6&lt;&gt;"",AVERAGE(CK$3:CK$998),"")</f>
-        <v>0</v>
+        <v>31.121079999999999</v>
       </c>
       <c r="CM8">
         <f>'http time raw data'!V6</f>
@@ -29731,9 +29725,9 @@
         <f>'http size raw data'!Z6</f>
         <v>8</v>
       </c>
-      <c r="DV8" t="str">
+      <c r="DV8">
         <f>IF('http size raw data'!AA6&lt;&gt;0,'http size raw data'!AA6/1000000,"")</f>
-        <v/>
+        <v>0.21365999999999999</v>
       </c>
       <c r="DW8">
         <f>'http size raw data'!AB6</f>
@@ -29743,9 +29737,9 @@
         <f>'http size raw data'!AC6</f>
         <v>9</v>
       </c>
-      <c r="DY8" t="str">
+      <c r="DY8">
         <f>IF('http size raw data'!AD6&lt;&gt;0,'http size raw data'!AD6/1000000,"")</f>
-        <v/>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="DZ8">
         <f>'http size raw data'!AE6</f>
@@ -29755,9 +29749,9 @@
         <f>'http size raw data'!AF6</f>
         <v>10</v>
       </c>
-      <c r="EB8" t="str">
+      <c r="EB8">
         <f>IF('http size raw data'!AG6&lt;&gt;0,'http size raw data'!AG6/1000000,"")</f>
-        <v/>
+        <v>4.9399999999999997E-4</v>
       </c>
       <c r="EC8">
         <f>'http size raw data'!AH6</f>
@@ -29767,9 +29761,9 @@
         <f>'http size raw data'!AI6</f>
         <v>11</v>
       </c>
-      <c r="EE8" t="str">
+      <c r="EE8">
         <f>IF('http size raw data'!AJ6&lt;&gt;0,'http size raw data'!AJ6/1000000,"")</f>
-        <v/>
+        <v>3.0000000000000001E-6</v>
       </c>
       <c r="EF8">
         <f>'http size raw data'!AK6</f>
@@ -29779,9 +29773,9 @@
         <f>'http size raw data'!AL6</f>
         <v>12</v>
       </c>
-      <c r="EH8" t="str">
+      <c r="EH8">
         <f>IF('http size raw data'!AM6&lt;&gt;0,'http size raw data'!AM6/1000000,"")</f>
-        <v/>
+        <v>0.21338299999999999</v>
       </c>
       <c r="EI8">
         <f>'http size raw data'!AN6</f>
@@ -29791,9 +29785,9 @@
         <f>'http size raw data'!AO6</f>
         <v>13</v>
       </c>
-      <c r="EK8" t="str">
+      <c r="EK8">
         <f>IF('http size raw data'!AP6&lt;&gt;0,'http size raw data'!AP6/1000000,"")</f>
-        <v/>
+        <v>1.9999999999999999E-6</v>
       </c>
     </row>
     <row r="9" spans="1:141" x14ac:dyDescent="0.25">
@@ -29807,11 +29801,11 @@
       </c>
       <c r="C9">
         <f>IF('grpc time raw data'!C7&lt;&gt;"",'grpc time raw data'!C7/1000000,"")</f>
-        <v>5048.9863999999998</v>
+        <v>1223.7091</v>
       </c>
       <c r="D9">
         <f>IF('grpc time raw data'!C7&lt;&gt;"",AVERAGE(C$3:C$998),"")</f>
-        <v>4841.8368999999993</v>
+        <v>1309.7026899999998</v>
       </c>
       <c r="E9">
         <f>'grpc time raw data'!D7</f>
@@ -29823,11 +29817,11 @@
       </c>
       <c r="G9">
         <f>IF('grpc time raw data'!F7&lt;&gt;"",'grpc time raw data'!F7/1000000,"")</f>
-        <v>4685.8770000000004</v>
+        <v>1386.7739999999999</v>
       </c>
       <c r="H9">
         <f>IF('grpc time raw data'!F7&lt;&gt;"",AVERAGE(G$3:G$998),"")</f>
-        <v>4737.90985</v>
+        <v>1495.3604499999999</v>
       </c>
       <c r="I9">
         <f>'grpc time raw data'!G7</f>
@@ -29839,11 +29833,11 @@
       </c>
       <c r="K9">
         <f>IF('grpc time raw data'!I7&lt;&gt;"",'grpc time raw data'!I7/1000000,"")</f>
-        <v>0.85683600000000004</v>
+        <v>3.8767499999999999</v>
       </c>
       <c r="L9">
         <f>IF('grpc time raw data'!I7&lt;&gt;"",AVERAGE(K$3:K$998),"")</f>
-        <v>1.5702273999999998</v>
+        <v>1.252092</v>
       </c>
       <c r="M9">
         <f>'grpc time raw data'!J7</f>
@@ -29855,11 +29849,11 @@
       </c>
       <c r="O9">
         <f>IF('grpc time raw data'!L7&lt;&gt;"",'grpc time raw data'!L7/1000000,"")</f>
-        <v>81.352041999999997</v>
+        <v>26.052330000000001</v>
       </c>
       <c r="P9">
         <f>IF('grpc time raw data'!L7&lt;&gt;"",AVERAGE(O$3:O$998),"")</f>
-        <v>82.969507000000007</v>
+        <v>28.424786999999998</v>
       </c>
       <c r="Q9">
         <f>'grpc time raw data'!M7</f>
@@ -29871,11 +29865,11 @@
       </c>
       <c r="S9">
         <f>IF('grpc time raw data'!O7&lt;&gt;"",'grpc time raw data'!O7/1000000,"")</f>
-        <v>74.326595999999995</v>
+        <v>22.852150000000002</v>
       </c>
       <c r="T9">
         <f>IF('grpc time raw data'!O7&lt;&gt;"",AVERAGE(S$3:S$998),"")</f>
-        <v>73.989654600000009</v>
+        <v>23.851496000000001</v>
       </c>
       <c r="U9">
         <f>'grpc time raw data'!P7</f>
@@ -29887,11 +29881,11 @@
       </c>
       <c r="W9">
         <f>IF('grpc time raw data'!R7&lt;&gt;"",'grpc time raw data'!R7/1000000,"")</f>
-        <v>0</v>
+        <v>3.0931000000000002</v>
       </c>
       <c r="X9">
         <f>IF('grpc time raw data'!R7&lt;&gt;"",AVERAGE(W$3:W$998),"")</f>
-        <v>0</v>
+        <v>2.3420500000000004</v>
       </c>
       <c r="Y9">
         <f>'grpc time raw data'!S7</f>
@@ -29903,11 +29897,11 @@
       </c>
       <c r="AA9">
         <f>IF('grpc time raw data'!U7&lt;&gt;"",'grpc time raw data'!U7/1000000,"")</f>
-        <v>0</v>
+        <v>11.985200000000001</v>
       </c>
       <c r="AB9">
         <f>IF('grpc time raw data'!U7&lt;&gt;"",AVERAGE(AA$3:AA$998),"")</f>
-        <v>0</v>
+        <v>13.987380000000002</v>
       </c>
       <c r="AC9">
         <f>'grpc time raw data'!V7</f>
@@ -29975,7 +29969,7 @@
       </c>
       <c r="AT9">
         <f>IF('grpc size raw data'!I7&lt;&gt;"",'grpc size raw data'!I7/1000000,"")</f>
-        <v>100.000184</v>
+        <v>100.000235</v>
       </c>
       <c r="AU9">
         <f>'grpc size raw data'!J7</f>
@@ -29987,7 +29981,7 @@
       </c>
       <c r="AW9">
         <f>IF('grpc size raw data'!L7&lt;&gt;"",'grpc size raw data'!L7/1000000,"")</f>
-        <v>99.999948000000003</v>
+        <v>100.00019899999999</v>
       </c>
       <c r="AX9">
         <f>'grpc size raw data'!M7</f>
@@ -29999,7 +29993,7 @@
       </c>
       <c r="AZ9">
         <f>IF('grpc size raw data'!O7&lt;&gt;"",'grpc size raw data'!O7/1000000,"")</f>
-        <v>0</v>
+        <v>0.21340400000000001</v>
       </c>
       <c r="BA9">
         <f>'grpc size raw data'!P7</f>
@@ -30011,7 +30005,7 @@
       </c>
       <c r="BC9">
         <f>IF('grpc size raw data'!R7&lt;&gt;"",'grpc size raw data'!R7/1000000,"")</f>
-        <v>0</v>
+        <v>1.25E-4</v>
       </c>
       <c r="BD9">
         <f>'grpc size raw data'!S7</f>
@@ -30023,7 +30017,7 @@
       </c>
       <c r="BF9">
         <f>IF('grpc size raw data'!U7&lt;&gt;"",'grpc size raw data'!U7/1000000,"")</f>
-        <v>0</v>
+        <v>3.6000000000000001E-5</v>
       </c>
       <c r="BG9">
         <f>'grpc size raw data'!V7</f>
@@ -30035,7 +30029,7 @@
       </c>
       <c r="BI9">
         <f>IF('grpc size raw data'!X7&lt;&gt;"",'grpc size raw data'!X7/1000000,"")</f>
-        <v>0</v>
+        <v>0.213368</v>
       </c>
       <c r="BK9">
         <f>'http time raw data'!A7</f>
@@ -30047,11 +30041,11 @@
       </c>
       <c r="BM9">
         <f>IF('http time raw data'!C7&lt;&gt;"",'http time raw data'!C7/1000000,"")</f>
-        <v>25494.176599999999</v>
+        <v>7774.6853000000001</v>
       </c>
       <c r="BN9">
         <f>IF('http time raw data'!C7&lt;&gt;"",AVERAGE(BM$3:BM$998),"")</f>
-        <v>24158.538120000005</v>
+        <v>7350.518610000001</v>
       </c>
       <c r="BO9">
         <f>'http time raw data'!D7</f>
@@ -30063,11 +30057,11 @@
       </c>
       <c r="BQ9">
         <f>IF('http time raw data'!F7&lt;&gt;"",'http time raw data'!F7/1000000,"")</f>
-        <v>5608.5316000000003</v>
+        <v>1694.8210999999999</v>
       </c>
       <c r="BR9">
         <f>IF('http time raw data'!F7&lt;&gt;"",AVERAGE(BQ$3:BQ$998),"")</f>
-        <v>5553.8854699999993</v>
+        <v>1537.6869299999998</v>
       </c>
       <c r="BS9">
         <f>'http time raw data'!G7</f>
@@ -30079,11 +30073,11 @@
       </c>
       <c r="BU9">
         <f>IF('http time raw data'!I7&lt;&gt;"",'http time raw data'!I7/1000000,"")</f>
-        <v>3.3146100000000001</v>
+        <v>1.52437</v>
       </c>
       <c r="BV9">
         <f>IF('http time raw data'!I7&lt;&gt;"",AVERAGE(BU$3:BU$998),"")</f>
-        <v>4.2804739999999999</v>
+        <v>1.4879159999999998</v>
       </c>
       <c r="BW9">
         <f>'http time raw data'!J7</f>
@@ -30095,11 +30089,11 @@
       </c>
       <c r="BY9">
         <f>IF('http time raw data'!L7&lt;&gt;"",'http time raw data'!L7/1000000,"")</f>
-        <v>89.456710000000001</v>
+        <v>27.715039999999998</v>
       </c>
       <c r="BZ9">
         <f>IF('http time raw data'!L7&lt;&gt;"",AVERAGE(BY$3:BY$998),"")</f>
-        <v>93.146625999999998</v>
+        <v>32.070676999999996</v>
       </c>
       <c r="CA9">
         <f>'http time raw data'!M7</f>
@@ -30111,11 +30105,11 @@
       </c>
       <c r="CC9">
         <f>IF('http time raw data'!O7&lt;&gt;"",'http time raw data'!O7/1000000,"")</f>
-        <v>66.260869999999997</v>
+        <v>17.87529</v>
       </c>
       <c r="CD9">
         <f>IF('http time raw data'!O7&lt;&gt;"",AVERAGE(CC$3:CC$998),"")</f>
-        <v>69.192764999999994</v>
+        <v>19.083653000000005</v>
       </c>
       <c r="CE9">
         <f>'http time raw data'!P7</f>
@@ -30127,11 +30121,11 @@
       </c>
       <c r="CG9">
         <f>IF('http time raw data'!R7&lt;&gt;"",'http time raw data'!R7/1000000,"")</f>
-        <v>0</v>
+        <v>22.446300000000001</v>
       </c>
       <c r="CH9">
         <f>IF('http time raw data'!R7&lt;&gt;"",AVERAGE(CG$3:CG$998),"")</f>
-        <v>0</v>
+        <v>20.327230000000004</v>
       </c>
       <c r="CI9">
         <f>'http time raw data'!S7</f>
@@ -30143,11 +30137,11 @@
       </c>
       <c r="CK9">
         <f>IF('http time raw data'!U7&lt;&gt;"",'http time raw data'!U7/1000000,"")</f>
-        <v>0</v>
+        <v>27.636600000000001</v>
       </c>
       <c r="CL9">
         <f>IF('http time raw data'!U7&lt;&gt;"",AVERAGE(CK$3:CK$998),"")</f>
-        <v>0</v>
+        <v>31.121079999999999</v>
       </c>
       <c r="CM9">
         <f>'http time raw data'!V7</f>
@@ -30285,9 +30279,9 @@
         <f>'http size raw data'!Z7</f>
         <v>8</v>
       </c>
-      <c r="DV9" t="str">
+      <c r="DV9">
         <f>IF('http size raw data'!AA7&lt;&gt;0,'http size raw data'!AA7/1000000,"")</f>
-        <v/>
+        <v>0.21365999999999999</v>
       </c>
       <c r="DW9">
         <f>'http size raw data'!AB7</f>
@@ -30297,9 +30291,9 @@
         <f>'http size raw data'!AC7</f>
         <v>9</v>
       </c>
-      <c r="DY9" t="str">
+      <c r="DY9">
         <f>IF('http size raw data'!AD7&lt;&gt;0,'http size raw data'!AD7/1000000,"")</f>
-        <v/>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="DZ9">
         <f>'http size raw data'!AE7</f>
@@ -30309,9 +30303,9 @@
         <f>'http size raw data'!AF7</f>
         <v>10</v>
       </c>
-      <c r="EB9" t="str">
+      <c r="EB9">
         <f>IF('http size raw data'!AG7&lt;&gt;0,'http size raw data'!AG7/1000000,"")</f>
-        <v/>
+        <v>4.9399999999999997E-4</v>
       </c>
       <c r="EC9">
         <f>'http size raw data'!AH7</f>
@@ -30321,9 +30315,9 @@
         <f>'http size raw data'!AI7</f>
         <v>11</v>
       </c>
-      <c r="EE9" t="str">
+      <c r="EE9">
         <f>IF('http size raw data'!AJ7&lt;&gt;0,'http size raw data'!AJ7/1000000,"")</f>
-        <v/>
+        <v>3.0000000000000001E-6</v>
       </c>
       <c r="EF9">
         <f>'http size raw data'!AK7</f>
@@ -30333,9 +30327,9 @@
         <f>'http size raw data'!AL7</f>
         <v>12</v>
       </c>
-      <c r="EH9" t="str">
+      <c r="EH9">
         <f>IF('http size raw data'!AM7&lt;&gt;0,'http size raw data'!AM7/1000000,"")</f>
-        <v/>
+        <v>0.21338299999999999</v>
       </c>
       <c r="EI9">
         <f>'http size raw data'!AN7</f>
@@ -30345,9 +30339,9 @@
         <f>'http size raw data'!AO7</f>
         <v>13</v>
       </c>
-      <c r="EK9" t="str">
+      <c r="EK9">
         <f>IF('http size raw data'!AP7&lt;&gt;0,'http size raw data'!AP7/1000000,"")</f>
-        <v/>
+        <v>1.9999999999999999E-6</v>
       </c>
     </row>
     <row r="10" spans="1:141" x14ac:dyDescent="0.25">
@@ -30361,11 +30355,11 @@
       </c>
       <c r="C10">
         <f>IF('grpc time raw data'!C8&lt;&gt;"",'grpc time raw data'!C8/1000000,"")</f>
-        <v>5354.0766999999996</v>
+        <v>1509.835</v>
       </c>
       <c r="D10">
         <f>IF('grpc time raw data'!C8&lt;&gt;"",AVERAGE(C$3:C$998),"")</f>
-        <v>4841.8368999999993</v>
+        <v>1309.7026899999998</v>
       </c>
       <c r="E10">
         <f>'grpc time raw data'!D8</f>
@@ -30377,11 +30371,11 @@
       </c>
       <c r="G10">
         <f>IF('grpc time raw data'!F8&lt;&gt;"",'grpc time raw data'!F8/1000000,"")</f>
-        <v>4630.384</v>
+        <v>1377.7629999999999</v>
       </c>
       <c r="H10">
         <f>IF('grpc time raw data'!F8&lt;&gt;"",AVERAGE(G$3:G$998),"")</f>
-        <v>4737.90985</v>
+        <v>1495.3604499999999</v>
       </c>
       <c r="I10">
         <f>'grpc time raw data'!G8</f>
@@ -30393,11 +30387,11 @@
       </c>
       <c r="K10">
         <f>IF('grpc time raw data'!I8&lt;&gt;"",'grpc time raw data'!I8/1000000,"")</f>
-        <v>0.94587600000000005</v>
+        <v>1.0762400000000001</v>
       </c>
       <c r="L10">
         <f>IF('grpc time raw data'!I8&lt;&gt;"",AVERAGE(K$3:K$998),"")</f>
-        <v>1.5702273999999998</v>
+        <v>1.252092</v>
       </c>
       <c r="M10">
         <f>'grpc time raw data'!J8</f>
@@ -30409,11 +30403,11 @@
       </c>
       <c r="O10">
         <f>IF('grpc time raw data'!L8&lt;&gt;"",'grpc time raw data'!L8/1000000,"")</f>
-        <v>80.258654000000007</v>
+        <v>25.709510000000002</v>
       </c>
       <c r="P10">
         <f>IF('grpc time raw data'!L8&lt;&gt;"",AVERAGE(O$3:O$998),"")</f>
-        <v>82.969507000000007</v>
+        <v>28.424786999999998</v>
       </c>
       <c r="Q10">
         <f>'grpc time raw data'!M8</f>
@@ -30425,11 +30419,11 @@
       </c>
       <c r="S10">
         <f>IF('grpc time raw data'!O8&lt;&gt;"",'grpc time raw data'!O8/1000000,"")</f>
-        <v>73.552622</v>
+        <v>22.014869999999998</v>
       </c>
       <c r="T10">
         <f>IF('grpc time raw data'!O8&lt;&gt;"",AVERAGE(S$3:S$998),"")</f>
-        <v>73.989654600000009</v>
+        <v>23.851496000000001</v>
       </c>
       <c r="U10">
         <f>'grpc time raw data'!P8</f>
@@ -30441,11 +30435,11 @@
       </c>
       <c r="W10">
         <f>IF('grpc time raw data'!R8&lt;&gt;"",'grpc time raw data'!R8/1000000,"")</f>
-        <v>0</v>
+        <v>1.9448000000000001</v>
       </c>
       <c r="X10">
         <f>IF('grpc time raw data'!R8&lt;&gt;"",AVERAGE(W$3:W$998),"")</f>
-        <v>0</v>
+        <v>2.3420500000000004</v>
       </c>
       <c r="Y10">
         <f>'grpc time raw data'!S8</f>
@@ -30457,11 +30451,11 @@
       </c>
       <c r="AA10">
         <f>IF('grpc time raw data'!U8&lt;&gt;"",'grpc time raw data'!U8/1000000,"")</f>
-        <v>0</v>
+        <v>10.391</v>
       </c>
       <c r="AB10">
         <f>IF('grpc time raw data'!U8&lt;&gt;"",AVERAGE(AA$3:AA$998),"")</f>
-        <v>0</v>
+        <v>13.987380000000002</v>
       </c>
       <c r="AC10">
         <f>'grpc time raw data'!V8</f>
@@ -30529,7 +30523,7 @@
       </c>
       <c r="AT10">
         <f>IF('grpc size raw data'!I8&lt;&gt;"",'grpc size raw data'!I8/1000000,"")</f>
-        <v>100.00022</v>
+        <v>99.999988000000002</v>
       </c>
       <c r="AU10">
         <f>'grpc size raw data'!J8</f>
@@ -30541,7 +30535,7 @@
       </c>
       <c r="AW10">
         <f>IF('grpc size raw data'!L8&lt;&gt;"",'grpc size raw data'!L8/1000000,"")</f>
-        <v>99.999948000000003</v>
+        <v>100.00019899999999</v>
       </c>
       <c r="AX10">
         <f>'grpc size raw data'!M8</f>
@@ -30553,7 +30547,7 @@
       </c>
       <c r="AZ10">
         <f>IF('grpc size raw data'!O8&lt;&gt;"",'grpc size raw data'!O8/1000000,"")</f>
-        <v>0</v>
+        <v>0.21340400000000001</v>
       </c>
       <c r="BA10">
         <f>'grpc size raw data'!P8</f>
@@ -30565,7 +30559,7 @@
       </c>
       <c r="BC10">
         <f>IF('grpc size raw data'!R8&lt;&gt;"",'grpc size raw data'!R8/1000000,"")</f>
-        <v>0</v>
+        <v>1.25E-4</v>
       </c>
       <c r="BD10">
         <f>'grpc size raw data'!S8</f>
@@ -30577,7 +30571,7 @@
       </c>
       <c r="BF10">
         <f>IF('grpc size raw data'!U8&lt;&gt;"",'grpc size raw data'!U8/1000000,"")</f>
-        <v>0</v>
+        <v>3.6000000000000001E-5</v>
       </c>
       <c r="BG10">
         <f>'grpc size raw data'!V8</f>
@@ -30589,7 +30583,7 @@
       </c>
       <c r="BI10">
         <f>IF('grpc size raw data'!X8&lt;&gt;"",'grpc size raw data'!X8/1000000,"")</f>
-        <v>0</v>
+        <v>0.213368</v>
       </c>
       <c r="BK10">
         <f>'http time raw data'!A8</f>
@@ -30601,11 +30595,11 @@
       </c>
       <c r="BM10">
         <f>IF('http time raw data'!C8&lt;&gt;"",'http time raw data'!C8/1000000,"")</f>
-        <v>26923.939900000001</v>
+        <v>7688.4769999999999</v>
       </c>
       <c r="BN10">
         <f>IF('http time raw data'!C8&lt;&gt;"",AVERAGE(BM$3:BM$998),"")</f>
-        <v>24158.538120000005</v>
+        <v>7350.518610000001</v>
       </c>
       <c r="BO10">
         <f>'http time raw data'!D8</f>
@@ -30617,11 +30611,11 @@
       </c>
       <c r="BQ10">
         <f>IF('http time raw data'!F8&lt;&gt;"",'http time raw data'!F8/1000000,"")</f>
-        <v>6057.6970000000001</v>
+        <v>1595.3613</v>
       </c>
       <c r="BR10">
         <f>IF('http time raw data'!F8&lt;&gt;"",AVERAGE(BQ$3:BQ$998),"")</f>
-        <v>5553.8854699999993</v>
+        <v>1537.6869299999998</v>
       </c>
       <c r="BS10">
         <f>'http time raw data'!G8</f>
@@ -30633,11 +30627,11 @@
       </c>
       <c r="BU10">
         <f>IF('http time raw data'!I8&lt;&gt;"",'http time raw data'!I8/1000000,"")</f>
-        <v>5.0200699999999996</v>
+        <v>0.28560999999999998</v>
       </c>
       <c r="BV10">
         <f>IF('http time raw data'!I8&lt;&gt;"",AVERAGE(BU$3:BU$998),"")</f>
-        <v>4.2804739999999999</v>
+        <v>1.4879159999999998</v>
       </c>
       <c r="BW10">
         <f>'http time raw data'!J8</f>
@@ -30649,11 +30643,11 @@
       </c>
       <c r="BY10">
         <f>IF('http time raw data'!L8&lt;&gt;"",'http time raw data'!L8/1000000,"")</f>
-        <v>90.423670000000001</v>
+        <v>31.618670000000002</v>
       </c>
       <c r="BZ10">
         <f>IF('http time raw data'!L8&lt;&gt;"",AVERAGE(BY$3:BY$998),"")</f>
-        <v>93.146625999999998</v>
+        <v>32.070676999999996</v>
       </c>
       <c r="CA10">
         <f>'http time raw data'!M8</f>
@@ -30665,11 +30659,11 @@
       </c>
       <c r="CC10">
         <f>IF('http time raw data'!O8&lt;&gt;"",'http time raw data'!O8/1000000,"")</f>
-        <v>67.180989999999994</v>
+        <v>19.5473</v>
       </c>
       <c r="CD10">
         <f>IF('http time raw data'!O8&lt;&gt;"",AVERAGE(CC$3:CC$998),"")</f>
-        <v>69.192764999999994</v>
+        <v>19.083653000000005</v>
       </c>
       <c r="CE10">
         <f>'http time raw data'!P8</f>
@@ -30681,11 +30675,11 @@
       </c>
       <c r="CG10">
         <f>IF('http time raw data'!R8&lt;&gt;"",'http time raw data'!R8/1000000,"")</f>
-        <v>0</v>
+        <v>17.276</v>
       </c>
       <c r="CH10">
         <f>IF('http time raw data'!R8&lt;&gt;"",AVERAGE(CG$3:CG$998),"")</f>
-        <v>0</v>
+        <v>20.327230000000004</v>
       </c>
       <c r="CI10">
         <f>'http time raw data'!S8</f>
@@ -30697,11 +30691,11 @@
       </c>
       <c r="CK10">
         <f>IF('http time raw data'!U8&lt;&gt;"",'http time raw data'!U8/1000000,"")</f>
-        <v>0</v>
+        <v>21.253699999999998</v>
       </c>
       <c r="CL10">
         <f>IF('http time raw data'!U8&lt;&gt;"",AVERAGE(CK$3:CK$998),"")</f>
-        <v>0</v>
+        <v>31.121079999999999</v>
       </c>
       <c r="CM10">
         <f>'http time raw data'!V8</f>
@@ -30839,9 +30833,9 @@
         <f>'http size raw data'!Z8</f>
         <v>8</v>
       </c>
-      <c r="DV10" t="str">
+      <c r="DV10">
         <f>IF('http size raw data'!AA8&lt;&gt;0,'http size raw data'!AA8/1000000,"")</f>
-        <v/>
+        <v>0.21365999999999999</v>
       </c>
       <c r="DW10">
         <f>'http size raw data'!AB8</f>
@@ -30851,9 +30845,9 @@
         <f>'http size raw data'!AC8</f>
         <v>9</v>
       </c>
-      <c r="DY10" t="str">
+      <c r="DY10">
         <f>IF('http size raw data'!AD8&lt;&gt;0,'http size raw data'!AD8/1000000,"")</f>
-        <v/>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="DZ10">
         <f>'http size raw data'!AE8</f>
@@ -30863,9 +30857,9 @@
         <f>'http size raw data'!AF8</f>
         <v>10</v>
       </c>
-      <c r="EB10" t="str">
+      <c r="EB10">
         <f>IF('http size raw data'!AG8&lt;&gt;0,'http size raw data'!AG8/1000000,"")</f>
-        <v/>
+        <v>4.9399999999999997E-4</v>
       </c>
       <c r="EC10">
         <f>'http size raw data'!AH8</f>
@@ -30875,9 +30869,9 @@
         <f>'http size raw data'!AI8</f>
         <v>11</v>
       </c>
-      <c r="EE10" t="str">
+      <c r="EE10">
         <f>IF('http size raw data'!AJ8&lt;&gt;0,'http size raw data'!AJ8/1000000,"")</f>
-        <v/>
+        <v>3.0000000000000001E-6</v>
       </c>
       <c r="EF10">
         <f>'http size raw data'!AK8</f>
@@ -30887,9 +30881,9 @@
         <f>'http size raw data'!AL8</f>
         <v>12</v>
       </c>
-      <c r="EH10" t="str">
+      <c r="EH10">
         <f>IF('http size raw data'!AM8&lt;&gt;0,'http size raw data'!AM8/1000000,"")</f>
-        <v/>
+        <v>0.21338299999999999</v>
       </c>
       <c r="EI10">
         <f>'http size raw data'!AN8</f>
@@ -30899,9 +30893,9 @@
         <f>'http size raw data'!AO8</f>
         <v>13</v>
       </c>
-      <c r="EK10" t="str">
+      <c r="EK10">
         <f>IF('http size raw data'!AP8&lt;&gt;0,'http size raw data'!AP8/1000000,"")</f>
-        <v/>
+        <v>1.9999999999999999E-6</v>
       </c>
     </row>
     <row r="11" spans="1:141" x14ac:dyDescent="0.25">
@@ -30915,11 +30909,11 @@
       </c>
       <c r="C11">
         <f>IF('grpc time raw data'!C9&lt;&gt;"",'grpc time raw data'!C9/1000000,"")</f>
-        <v>5096.7389000000003</v>
+        <v>1136.3040000000001</v>
       </c>
       <c r="D11">
         <f>IF('grpc time raw data'!C9&lt;&gt;"",AVERAGE(C$3:C$998),"")</f>
-        <v>4841.8368999999993</v>
+        <v>1309.7026899999998</v>
       </c>
       <c r="E11">
         <f>'grpc time raw data'!D9</f>
@@ -30931,11 +30925,11 @@
       </c>
       <c r="G11">
         <f>IF('grpc time raw data'!F9&lt;&gt;"",'grpc time raw data'!F9/1000000,"")</f>
-        <v>5602.2678999999998</v>
+        <v>1599.1576</v>
       </c>
       <c r="H11">
         <f>IF('grpc time raw data'!F9&lt;&gt;"",AVERAGE(G$3:G$998),"")</f>
-        <v>4737.90985</v>
+        <v>1495.3604499999999</v>
       </c>
       <c r="I11">
         <f>'grpc time raw data'!G9</f>
@@ -30947,11 +30941,11 @@
       </c>
       <c r="K11">
         <f>IF('grpc time raw data'!I9&lt;&gt;"",'grpc time raw data'!I9/1000000,"")</f>
-        <v>2.6745800000000002</v>
+        <v>0.55508000000000002</v>
       </c>
       <c r="L11">
         <f>IF('grpc time raw data'!I9&lt;&gt;"",AVERAGE(K$3:K$998),"")</f>
-        <v>1.5702273999999998</v>
+        <v>1.252092</v>
       </c>
       <c r="M11">
         <f>'grpc time raw data'!J9</f>
@@ -30963,11 +30957,11 @@
       </c>
       <c r="O11">
         <f>IF('grpc time raw data'!L9&lt;&gt;"",'grpc time raw data'!L9/1000000,"")</f>
-        <v>99.784570000000002</v>
+        <v>38.930900000000001</v>
       </c>
       <c r="P11">
         <f>IF('grpc time raw data'!L9&lt;&gt;"",AVERAGE(O$3:O$998),"")</f>
-        <v>82.969507000000007</v>
+        <v>28.424786999999998</v>
       </c>
       <c r="Q11">
         <f>'grpc time raw data'!M9</f>
@@ -30979,11 +30973,11 @@
       </c>
       <c r="S11">
         <f>IF('grpc time raw data'!O9&lt;&gt;"",'grpc time raw data'!O9/1000000,"")</f>
-        <v>75.092913999999993</v>
+        <v>25.179020000000001</v>
       </c>
       <c r="T11">
         <f>IF('grpc time raw data'!O9&lt;&gt;"",AVERAGE(S$3:S$998),"")</f>
-        <v>73.989654600000009</v>
+        <v>23.851496000000001</v>
       </c>
       <c r="U11">
         <f>'grpc time raw data'!P9</f>
@@ -30995,11 +30989,11 @@
       </c>
       <c r="W11">
         <f>IF('grpc time raw data'!R9&lt;&gt;"",'grpc time raw data'!R9/1000000,"")</f>
-        <v>0</v>
+        <v>1.9276</v>
       </c>
       <c r="X11">
         <f>IF('grpc time raw data'!R9&lt;&gt;"",AVERAGE(W$3:W$998),"")</f>
-        <v>0</v>
+        <v>2.3420500000000004</v>
       </c>
       <c r="Y11">
         <f>'grpc time raw data'!S9</f>
@@ -31011,11 +31005,11 @@
       </c>
       <c r="AA11">
         <f>IF('grpc time raw data'!U9&lt;&gt;"",'grpc time raw data'!U9/1000000,"")</f>
-        <v>0</v>
+        <v>11.3035</v>
       </c>
       <c r="AB11">
         <f>IF('grpc time raw data'!U9&lt;&gt;"",AVERAGE(AA$3:AA$998),"")</f>
-        <v>0</v>
+        <v>13.987380000000002</v>
       </c>
       <c r="AC11">
         <f>'grpc time raw data'!V9</f>
@@ -31059,7 +31053,7 @@
       </c>
       <c r="AN11">
         <f>IF('grpc size raw data'!C9&lt;&gt;"",'grpc size raw data'!C9,"")</f>
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AO11">
         <f>'grpc size raw data'!D9</f>
@@ -31083,7 +31077,7 @@
       </c>
       <c r="AT11">
         <f>IF('grpc size raw data'!I9&lt;&gt;"",'grpc size raw data'!I9/1000000,"")</f>
-        <v>100.000011</v>
+        <v>100.000117</v>
       </c>
       <c r="AU11">
         <f>'grpc size raw data'!J9</f>
@@ -31095,7 +31089,7 @@
       </c>
       <c r="AW11">
         <f>IF('grpc size raw data'!L9&lt;&gt;"",'grpc size raw data'!L9/1000000,"")</f>
-        <v>99.999948000000003</v>
+        <v>100.00019899999999</v>
       </c>
       <c r="AX11">
         <f>'grpc size raw data'!M9</f>
@@ -31107,7 +31101,7 @@
       </c>
       <c r="AZ11">
         <f>IF('grpc size raw data'!O9&lt;&gt;"",'grpc size raw data'!O9/1000000,"")</f>
-        <v>0</v>
+        <v>0.21340400000000001</v>
       </c>
       <c r="BA11">
         <f>'grpc size raw data'!P9</f>
@@ -31119,7 +31113,7 @@
       </c>
       <c r="BC11">
         <f>IF('grpc size raw data'!R9&lt;&gt;"",'grpc size raw data'!R9/1000000,"")</f>
-        <v>0</v>
+        <v>1.25E-4</v>
       </c>
       <c r="BD11">
         <f>'grpc size raw data'!S9</f>
@@ -31131,7 +31125,7 @@
       </c>
       <c r="BF11">
         <f>IF('grpc size raw data'!U9&lt;&gt;"",'grpc size raw data'!U9/1000000,"")</f>
-        <v>0</v>
+        <v>3.6000000000000001E-5</v>
       </c>
       <c r="BG11">
         <f>'grpc size raw data'!V9</f>
@@ -31143,7 +31137,7 @@
       </c>
       <c r="BI11">
         <f>IF('grpc size raw data'!X9&lt;&gt;"",'grpc size raw data'!X9/1000000,"")</f>
-        <v>0</v>
+        <v>0.213368</v>
       </c>
       <c r="BK11">
         <f>'http time raw data'!A9</f>
@@ -31155,11 +31149,11 @@
       </c>
       <c r="BM11">
         <f>IF('http time raw data'!C9&lt;&gt;"",'http time raw data'!C9/1000000,"")</f>
-        <v>23603.731</v>
+        <v>7163.4946</v>
       </c>
       <c r="BN11">
         <f>IF('http time raw data'!C9&lt;&gt;"",AVERAGE(BM$3:BM$998),"")</f>
-        <v>24158.538120000005</v>
+        <v>7350.518610000001</v>
       </c>
       <c r="BO11">
         <f>'http time raw data'!D9</f>
@@ -31171,11 +31165,11 @@
       </c>
       <c r="BQ11">
         <f>IF('http time raw data'!F9&lt;&gt;"",'http time raw data'!F9/1000000,"")</f>
-        <v>6174.0397999999996</v>
+        <v>1563.2405000000001</v>
       </c>
       <c r="BR11">
         <f>IF('http time raw data'!F9&lt;&gt;"",AVERAGE(BQ$3:BQ$998),"")</f>
-        <v>5553.8854699999993</v>
+        <v>1537.6869299999998</v>
       </c>
       <c r="BS11">
         <f>'http time raw data'!G9</f>
@@ -31187,11 +31181,11 @@
       </c>
       <c r="BU11">
         <f>IF('http time raw data'!I9&lt;&gt;"",'http time raw data'!I9/1000000,"")</f>
-        <v>7.0360800000000001</v>
+        <v>1.9947999999999999</v>
       </c>
       <c r="BV11">
         <f>IF('http time raw data'!I9&lt;&gt;"",AVERAGE(BU$3:BU$998),"")</f>
-        <v>4.2804739999999999</v>
+        <v>1.4879159999999998</v>
       </c>
       <c r="BW11">
         <f>'http time raw data'!J9</f>
@@ -31203,11 +31197,11 @@
       </c>
       <c r="BY11">
         <f>IF('http time raw data'!L9&lt;&gt;"",'http time raw data'!L9/1000000,"")</f>
-        <v>113.88804</v>
+        <v>27.992049999999999</v>
       </c>
       <c r="BZ11">
         <f>IF('http time raw data'!L9&lt;&gt;"",AVERAGE(BY$3:BY$998),"")</f>
-        <v>93.146625999999998</v>
+        <v>32.070676999999996</v>
       </c>
       <c r="CA11">
         <f>'http time raw data'!M9</f>
@@ -31219,11 +31213,11 @@
       </c>
       <c r="CC11">
         <f>IF('http time raw data'!O9&lt;&gt;"",'http time raw data'!O9/1000000,"")</f>
-        <v>80.989540000000005</v>
+        <v>20.00189</v>
       </c>
       <c r="CD11">
         <f>IF('http time raw data'!O9&lt;&gt;"",AVERAGE(CC$3:CC$998),"")</f>
-        <v>69.192764999999994</v>
+        <v>19.083653000000005</v>
       </c>
       <c r="CE11">
         <f>'http time raw data'!P9</f>
@@ -31235,11 +31229,11 @@
       </c>
       <c r="CG11">
         <f>IF('http time raw data'!R9&lt;&gt;"",'http time raw data'!R9/1000000,"")</f>
-        <v>0</v>
+        <v>20.7835</v>
       </c>
       <c r="CH11">
         <f>IF('http time raw data'!R9&lt;&gt;"",AVERAGE(CG$3:CG$998),"")</f>
-        <v>0</v>
+        <v>20.327230000000004</v>
       </c>
       <c r="CI11">
         <f>'http time raw data'!S9</f>
@@ -31251,11 +31245,11 @@
       </c>
       <c r="CK11">
         <f>IF('http time raw data'!U9&lt;&gt;"",'http time raw data'!U9/1000000,"")</f>
-        <v>0</v>
+        <v>41.385100000000001</v>
       </c>
       <c r="CL11">
         <f>IF('http time raw data'!U9&lt;&gt;"",AVERAGE(CK$3:CK$998),"")</f>
-        <v>0</v>
+        <v>31.121079999999999</v>
       </c>
       <c r="CM11">
         <f>'http time raw data'!V9</f>
@@ -31393,9 +31387,9 @@
         <f>'http size raw data'!Z9</f>
         <v>8</v>
       </c>
-      <c r="DV11" t="str">
+      <c r="DV11">
         <f>IF('http size raw data'!AA9&lt;&gt;0,'http size raw data'!AA9/1000000,"")</f>
-        <v/>
+        <v>0.21365999999999999</v>
       </c>
       <c r="DW11">
         <f>'http size raw data'!AB9</f>
@@ -31405,9 +31399,9 @@
         <f>'http size raw data'!AC9</f>
         <v>9</v>
       </c>
-      <c r="DY11" t="str">
+      <c r="DY11">
         <f>IF('http size raw data'!AD9&lt;&gt;0,'http size raw data'!AD9/1000000,"")</f>
-        <v/>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="DZ11">
         <f>'http size raw data'!AE9</f>
@@ -31417,9 +31411,9 @@
         <f>'http size raw data'!AF9</f>
         <v>10</v>
       </c>
-      <c r="EB11" t="str">
+      <c r="EB11">
         <f>IF('http size raw data'!AG9&lt;&gt;0,'http size raw data'!AG9/1000000,"")</f>
-        <v/>
+        <v>4.9399999999999997E-4</v>
       </c>
       <c r="EC11">
         <f>'http size raw data'!AH9</f>
@@ -31429,9 +31423,9 @@
         <f>'http size raw data'!AI9</f>
         <v>11</v>
       </c>
-      <c r="EE11" t="str">
+      <c r="EE11">
         <f>IF('http size raw data'!AJ9&lt;&gt;0,'http size raw data'!AJ9/1000000,"")</f>
-        <v/>
+        <v>3.0000000000000001E-6</v>
       </c>
       <c r="EF11">
         <f>'http size raw data'!AK9</f>
@@ -31441,9 +31435,9 @@
         <f>'http size raw data'!AL9</f>
         <v>12</v>
       </c>
-      <c r="EH11" t="str">
+      <c r="EH11">
         <f>IF('http size raw data'!AM9&lt;&gt;0,'http size raw data'!AM9/1000000,"")</f>
-        <v/>
+        <v>0.21338299999999999</v>
       </c>
       <c r="EI11">
         <f>'http size raw data'!AN9</f>
@@ -31453,9 +31447,9 @@
         <f>'http size raw data'!AO9</f>
         <v>13</v>
       </c>
-      <c r="EK11" t="str">
+      <c r="EK11">
         <f>IF('http size raw data'!AP9&lt;&gt;0,'http size raw data'!AP9/1000000,"")</f>
-        <v/>
+        <v>1.9999999999999999E-6</v>
       </c>
     </row>
     <row r="12" spans="1:141" x14ac:dyDescent="0.25">
@@ -31469,11 +31463,11 @@
       </c>
       <c r="C12">
         <f>IF('grpc time raw data'!C10&lt;&gt;"",'grpc time raw data'!C10/1000000,"")</f>
-        <v>4073.5563999999999</v>
+        <v>1249.8856000000001</v>
       </c>
       <c r="D12">
         <f>IF('grpc time raw data'!C10&lt;&gt;"",AVERAGE(C$3:C$998),"")</f>
-        <v>4841.8368999999993</v>
+        <v>1309.7026899999998</v>
       </c>
       <c r="E12">
         <f>'grpc time raw data'!D10</f>
@@ -31485,11 +31479,11 @@
       </c>
       <c r="G12">
         <f>IF('grpc time raw data'!F10&lt;&gt;"",'grpc time raw data'!F10/1000000,"")</f>
-        <v>4644.2052999999996</v>
+        <v>1353.2420999999999</v>
       </c>
       <c r="H12">
         <f>IF('grpc time raw data'!F10&lt;&gt;"",AVERAGE(G$3:G$998),"")</f>
-        <v>4737.90985</v>
+        <v>1495.3604499999999</v>
       </c>
       <c r="I12">
         <f>'grpc time raw data'!G10</f>
@@ -31501,11 +31495,11 @@
       </c>
       <c r="K12">
         <f>IF('grpc time raw data'!I10&lt;&gt;"",'grpc time raw data'!I10/1000000,"")</f>
-        <v>0.93177600000000005</v>
+        <v>1.2014199999999999</v>
       </c>
       <c r="L12">
         <f>IF('grpc time raw data'!I10&lt;&gt;"",AVERAGE(K$3:K$998),"")</f>
-        <v>1.5702273999999998</v>
+        <v>1.252092</v>
       </c>
       <c r="M12">
         <f>'grpc time raw data'!J10</f>
@@ -31517,11 +31511,11 @@
       </c>
       <c r="O12">
         <f>IF('grpc time raw data'!L10&lt;&gt;"",'grpc time raw data'!L10/1000000,"")</f>
-        <v>87.105717999999996</v>
+        <v>26.036809999999999</v>
       </c>
       <c r="P12">
         <f>IF('grpc time raw data'!L10&lt;&gt;"",AVERAGE(O$3:O$998),"")</f>
-        <v>82.969507000000007</v>
+        <v>28.424786999999998</v>
       </c>
       <c r="Q12">
         <f>'grpc time raw data'!M10</f>
@@ -31533,11 +31527,11 @@
       </c>
       <c r="S12">
         <f>IF('grpc time raw data'!O10&lt;&gt;"",'grpc time raw data'!O10/1000000,"")</f>
-        <v>74.060828000000001</v>
+        <v>22.194870000000002</v>
       </c>
       <c r="T12">
         <f>IF('grpc time raw data'!O10&lt;&gt;"",AVERAGE(S$3:S$998),"")</f>
-        <v>73.989654600000009</v>
+        <v>23.851496000000001</v>
       </c>
       <c r="U12">
         <f>'grpc time raw data'!P10</f>
@@ -31549,11 +31543,11 @@
       </c>
       <c r="W12">
         <f>IF('grpc time raw data'!R10&lt;&gt;"",'grpc time raw data'!R10/1000000,"")</f>
-        <v>0</v>
+        <v>1.8166</v>
       </c>
       <c r="X12">
         <f>IF('grpc time raw data'!R10&lt;&gt;"",AVERAGE(W$3:W$998),"")</f>
-        <v>0</v>
+        <v>2.3420500000000004</v>
       </c>
       <c r="Y12">
         <f>'grpc time raw data'!S10</f>
@@ -31565,11 +31559,11 @@
       </c>
       <c r="AA12">
         <f>IF('grpc time raw data'!U10&lt;&gt;"",'grpc time raw data'!U10/1000000,"")</f>
-        <v>0</v>
+        <v>17.991199999999999</v>
       </c>
       <c r="AB12">
         <f>IF('grpc time raw data'!U10&lt;&gt;"",AVERAGE(AA$3:AA$998),"")</f>
-        <v>0</v>
+        <v>13.987380000000002</v>
       </c>
       <c r="AC12">
         <f>'grpc time raw data'!V10</f>
@@ -31613,7 +31607,7 @@
       </c>
       <c r="AN12">
         <f>IF('grpc size raw data'!C10&lt;&gt;"",'grpc size raw data'!C10,"")</f>
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AO12">
         <f>'grpc size raw data'!D10</f>
@@ -31637,7 +31631,7 @@
       </c>
       <c r="AT12">
         <f>IF('grpc size raw data'!I10&lt;&gt;"",'grpc size raw data'!I10/1000000,"")</f>
-        <v>100.000084</v>
+        <v>99.999932000000001</v>
       </c>
       <c r="AU12">
         <f>'grpc size raw data'!J10</f>
@@ -31649,7 +31643,7 @@
       </c>
       <c r="AW12">
         <f>IF('grpc size raw data'!L10&lt;&gt;"",'grpc size raw data'!L10/1000000,"")</f>
-        <v>99.999948000000003</v>
+        <v>100.00019899999999</v>
       </c>
       <c r="AX12">
         <f>'grpc size raw data'!M10</f>
@@ -31661,7 +31655,7 @@
       </c>
       <c r="AZ12">
         <f>IF('grpc size raw data'!O10&lt;&gt;"",'grpc size raw data'!O10/1000000,"")</f>
-        <v>0</v>
+        <v>0.21340400000000001</v>
       </c>
       <c r="BA12">
         <f>'grpc size raw data'!P10</f>
@@ -31673,7 +31667,7 @@
       </c>
       <c r="BC12">
         <f>IF('grpc size raw data'!R10&lt;&gt;"",'grpc size raw data'!R10/1000000,"")</f>
-        <v>0</v>
+        <v>1.25E-4</v>
       </c>
       <c r="BD12">
         <f>'grpc size raw data'!S10</f>
@@ -31685,7 +31679,7 @@
       </c>
       <c r="BF12">
         <f>IF('grpc size raw data'!U10&lt;&gt;"",'grpc size raw data'!U10/1000000,"")</f>
-        <v>0</v>
+        <v>3.6000000000000001E-5</v>
       </c>
       <c r="BG12">
         <f>'grpc size raw data'!V10</f>
@@ -31697,7 +31691,7 @@
       </c>
       <c r="BI12">
         <f>IF('grpc size raw data'!X10&lt;&gt;"",'grpc size raw data'!X10/1000000,"")</f>
-        <v>0</v>
+        <v>0.213368</v>
       </c>
       <c r="BK12">
         <f>'http time raw data'!A10</f>
@@ -31709,11 +31703,11 @@
       </c>
       <c r="BM12">
         <f>IF('http time raw data'!C10&lt;&gt;"",'http time raw data'!C10/1000000,"")</f>
-        <v>21641.741399999999</v>
+        <v>7878.6688999999997</v>
       </c>
       <c r="BN12">
         <f>IF('http time raw data'!C10&lt;&gt;"",AVERAGE(BM$3:BM$998),"")</f>
-        <v>24158.538120000005</v>
+        <v>7350.518610000001</v>
       </c>
       <c r="BO12">
         <f>'http time raw data'!D10</f>
@@ -31725,11 +31719,11 @@
       </c>
       <c r="BQ12">
         <f>IF('http time raw data'!F10&lt;&gt;"",'http time raw data'!F10/1000000,"")</f>
-        <v>5334.7343000000001</v>
+        <v>1580.1162999999999</v>
       </c>
       <c r="BR12">
         <f>IF('http time raw data'!F10&lt;&gt;"",AVERAGE(BQ$3:BQ$998),"")</f>
-        <v>5553.8854699999993</v>
+        <v>1537.6869299999998</v>
       </c>
       <c r="BS12">
         <f>'http time raw data'!G10</f>
@@ -31741,11 +31735,11 @@
       </c>
       <c r="BU12">
         <f>IF('http time raw data'!I10&lt;&gt;"",'http time raw data'!I10/1000000,"")</f>
-        <v>3.9647899999999998</v>
+        <v>1.2823</v>
       </c>
       <c r="BV12">
         <f>IF('http time raw data'!I10&lt;&gt;"",AVERAGE(BU$3:BU$998),"")</f>
-        <v>4.2804739999999999</v>
+        <v>1.4879159999999998</v>
       </c>
       <c r="BW12">
         <f>'http time raw data'!J10</f>
@@ -31757,11 +31751,11 @@
       </c>
       <c r="BY12">
         <f>IF('http time raw data'!L10&lt;&gt;"",'http time raw data'!L10/1000000,"")</f>
-        <v>100.14798</v>
+        <v>35.36636</v>
       </c>
       <c r="BZ12">
         <f>IF('http time raw data'!L10&lt;&gt;"",AVERAGE(BY$3:BY$998),"")</f>
-        <v>93.146625999999998</v>
+        <v>32.070676999999996</v>
       </c>
       <c r="CA12">
         <f>'http time raw data'!M10</f>
@@ -31773,11 +31767,11 @@
       </c>
       <c r="CC12">
         <f>IF('http time raw data'!O10&lt;&gt;"",'http time raw data'!O10/1000000,"")</f>
-        <v>68.694670000000002</v>
+        <v>19.709109999999999</v>
       </c>
       <c r="CD12">
         <f>IF('http time raw data'!O10&lt;&gt;"",AVERAGE(CC$3:CC$998),"")</f>
-        <v>69.192764999999994</v>
+        <v>19.083653000000005</v>
       </c>
       <c r="CE12">
         <f>'http time raw data'!P10</f>
@@ -31789,11 +31783,11 @@
       </c>
       <c r="CG12">
         <f>IF('http time raw data'!R10&lt;&gt;"",'http time raw data'!R10/1000000,"")</f>
-        <v>0</v>
+        <v>20.980699999999999</v>
       </c>
       <c r="CH12">
         <f>IF('http time raw data'!R10&lt;&gt;"",AVERAGE(CG$3:CG$998),"")</f>
-        <v>0</v>
+        <v>20.327230000000004</v>
       </c>
       <c r="CI12">
         <f>'http time raw data'!S10</f>
@@ -31805,11 +31799,11 @@
       </c>
       <c r="CK12">
         <f>IF('http time raw data'!U10&lt;&gt;"",'http time raw data'!U10/1000000,"")</f>
-        <v>0</v>
+        <v>22.723099999999999</v>
       </c>
       <c r="CL12">
         <f>IF('http time raw data'!U10&lt;&gt;"",AVERAGE(CK$3:CK$998),"")</f>
-        <v>0</v>
+        <v>31.121079999999999</v>
       </c>
       <c r="CM12">
         <f>'http time raw data'!V10</f>
@@ -31947,9 +31941,9 @@
         <f>'http size raw data'!Z10</f>
         <v>8</v>
       </c>
-      <c r="DV12" t="str">
+      <c r="DV12">
         <f>IF('http size raw data'!AA10&lt;&gt;0,'http size raw data'!AA10/1000000,"")</f>
-        <v/>
+        <v>0.21365999999999999</v>
       </c>
       <c r="DW12">
         <f>'http size raw data'!AB10</f>
@@ -31959,9 +31953,9 @@
         <f>'http size raw data'!AC10</f>
         <v>9</v>
       </c>
-      <c r="DY12" t="str">
+      <c r="DY12">
         <f>IF('http size raw data'!AD10&lt;&gt;0,'http size raw data'!AD10/1000000,"")</f>
-        <v/>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="DZ12">
         <f>'http size raw data'!AE10</f>
@@ -31971,9 +31965,9 @@
         <f>'http size raw data'!AF10</f>
         <v>10</v>
       </c>
-      <c r="EB12" t="str">
+      <c r="EB12">
         <f>IF('http size raw data'!AG10&lt;&gt;0,'http size raw data'!AG10/1000000,"")</f>
-        <v/>
+        <v>4.9399999999999997E-4</v>
       </c>
       <c r="EC12">
         <f>'http size raw data'!AH10</f>
@@ -31983,9 +31977,9 @@
         <f>'http size raw data'!AI10</f>
         <v>11</v>
       </c>
-      <c r="EE12" t="str">
+      <c r="EE12">
         <f>IF('http size raw data'!AJ10&lt;&gt;0,'http size raw data'!AJ10/1000000,"")</f>
-        <v/>
+        <v>3.0000000000000001E-6</v>
       </c>
       <c r="EF12">
         <f>'http size raw data'!AK10</f>
@@ -31995,9 +31989,9 @@
         <f>'http size raw data'!AL10</f>
         <v>12</v>
       </c>
-      <c r="EH12" t="str">
+      <c r="EH12">
         <f>IF('http size raw data'!AM10&lt;&gt;0,'http size raw data'!AM10/1000000,"")</f>
-        <v/>
+        <v>0.21338299999999999</v>
       </c>
       <c r="EI12">
         <f>'http size raw data'!AN10</f>
@@ -32007,9 +32001,9 @@
         <f>'http size raw data'!AO10</f>
         <v>13</v>
       </c>
-      <c r="EK12" t="str">
+      <c r="EK12">
         <f>IF('http size raw data'!AP10&lt;&gt;0,'http size raw data'!AP10/1000000,"")</f>
-        <v/>
+        <v>1.9999999999999999E-6</v>
       </c>
     </row>
     <row r="13" spans="1:141" x14ac:dyDescent="0.25">
@@ -54180,10 +54174,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6FB7E7E-1FDC-42F4-B7D1-D4663711625F}">
-  <dimension ref="A1:T8"/>
+  <dimension ref="A1:V8"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AB31" sqref="AB31"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V5" sqref="V5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -54191,258 +54185,362 @@
     <col min="1" max="1" width="11.42578125" style="4" customWidth="1"/>
     <col min="2" max="2" width="22.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="15" width="11.42578125" style="4" customWidth="1"/>
-    <col min="16" max="16" width="2.85546875" style="24" customWidth="1"/>
+    <col min="16" max="16" width="2.85546875" style="20" customWidth="1"/>
     <col min="17" max="17" width="2.85546875" style="4" customWidth="1"/>
     <col min="18" max="18" width="22.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="29.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="32.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="11.42578125" style="4"/>
+    <col min="21" max="21" width="37.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="36.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="11.42578125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="23" t="s">
+    <row r="1" spans="1:22" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B1" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="23" t="s">
+      <c r="R1" s="19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B3" s="9"/>
-      <c r="C3" s="10" t="s">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="R3" s="9"/>
-      <c r="S3" s="18" t="s">
+      <c r="H3" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="R3" s="14"/>
+      <c r="S3" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="T3" s="19" t="s">
+      <c r="T3" s="15" t="s">
         <v>21</v>
       </c>
+      <c r="U3" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="V3" s="16" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="4" spans="1:20" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A4" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="12" t="s">
+    <row r="4" spans="1:22" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A4" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="27">
         <f>'automatically formatted Data'!D3</f>
-        <v>4841.8368999999993</v>
-      </c>
-      <c r="D4" s="5">
+        <v>1309.7026899999998</v>
+      </c>
+      <c r="D4" s="17">
         <f>'automatically formatted Data'!H3</f>
-        <v>4737.90985</v>
-      </c>
-      <c r="E4" s="5">
+        <v>1495.3604499999999</v>
+      </c>
+      <c r="E4" s="17">
         <f>'automatically formatted Data'!L3</f>
-        <v>1.5702273999999998</v>
-      </c>
-      <c r="F4" s="5">
+        <v>1.252092</v>
+      </c>
+      <c r="F4" s="17">
         <f>'automatically formatted Data'!P3</f>
-        <v>82.969507000000007</v>
-      </c>
-      <c r="G4" s="13">
+        <v>28.424786999999998</v>
+      </c>
+      <c r="G4" s="17">
         <f>'automatically formatted Data'!T3</f>
-        <v>73.989654600000009</v>
-      </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
+        <v>23.851496000000001</v>
+      </c>
+      <c r="H4" s="17">
+        <f>'automatically formatted Data'!X3</f>
+        <v>2.3420500000000004</v>
+      </c>
+      <c r="I4" s="17">
+        <f>'automatically formatted Data'!AB3</f>
+        <v>13.987380000000002</v>
+      </c>
+      <c r="J4" s="17" t="str">
+        <f>'automatically formatted Data'!AE3</f>
+        <v/>
+      </c>
+      <c r="K4" s="18" t="str">
+        <f>'automatically formatted Data'!AI3</f>
+        <v/>
+      </c>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
-      <c r="P4" s="25"/>
+      <c r="P4" s="21"/>
       <c r="R4" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="S4" s="20">
+      <c r="S4" s="25">
         <f>AVERAGE('automatically formatted Data'!AN3:AN52,'automatically formatted Data'!AQ3:AQ52)</f>
-        <v>124.8</v>
-      </c>
-      <c r="T4" s="21">
+        <v>124.95</v>
+      </c>
+      <c r="T4" s="31">
         <f>AVERAGE('automatically formatted Data'!AT3:AT52,'automatically formatted Data'!AW3:AW52)</f>
-        <v>100.00000449999996</v>
+        <v>100.00014015000004</v>
+      </c>
+      <c r="U4" s="31">
+        <f>AVERAGE('automatically formatted Data'!AZ3:AZ52)</f>
+        <v>0.21340399999999998</v>
+      </c>
+      <c r="V4" s="32">
+        <f>AVERAGE('automatically formatted Data'!BI3:BI52)</f>
+        <v>0.213368</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:22" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="26">
         <f>'automatically formatted Data'!BN3</f>
-        <v>24158.538120000005</v>
+        <v>7350.518610000001</v>
       </c>
       <c r="D5" s="5">
         <f>'automatically formatted Data'!BR3</f>
-        <v>5553.8854699999993</v>
+        <v>1537.6869299999998</v>
       </c>
       <c r="E5" s="5">
         <f>'automatically formatted Data'!BV3</f>
-        <v>4.2804739999999999</v>
+        <v>1.4879159999999998</v>
       </c>
       <c r="F5" s="5">
         <f>'automatically formatted Data'!BZ3</f>
-        <v>93.146625999999998</v>
-      </c>
-      <c r="G5" s="13">
+        <v>32.070676999999996</v>
+      </c>
+      <c r="G5" s="5">
         <f>'automatically formatted Data'!CD3</f>
-        <v>69.192764999999994</v>
-      </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
+        <v>19.083653000000005</v>
+      </c>
+      <c r="H5" s="5">
+        <f>'automatically formatted Data'!CH3</f>
+        <v>20.327230000000004</v>
+      </c>
+      <c r="I5" s="5">
+        <f>'automatically formatted Data'!CL3</f>
+        <v>31.121079999999999</v>
+      </c>
+      <c r="J5" s="5" t="str">
+        <f>'automatically formatted Data'!CO3</f>
+        <v/>
+      </c>
+      <c r="K5" s="11" t="str">
+        <f>'automatically formatted Data'!CS3</f>
+        <v/>
+      </c>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
-      <c r="P5" s="25"/>
-      <c r="R5" s="22" t="s">
+      <c r="P5" s="21"/>
+      <c r="R5" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="S5" s="5">
+      <c r="S5" s="25">
         <f>AVERAGE('automatically formatted Data'!CX3:CX52,'automatically formatted Data'!DD3:DD52)</f>
         <v>476</v>
       </c>
-      <c r="T5" s="13">
+      <c r="T5" s="31">
         <f>AVERAGE('automatically formatted Data'!DJ3:DJ52,'automatically formatted Data'!DP3:DP52)</f>
         <v>219.61237149999997</v>
       </c>
+      <c r="U5" s="31">
+        <f>AVERAGE('automatically formatted Data'!DV3:DV52)</f>
+        <v>0.21366000000000002</v>
+      </c>
+      <c r="V5" s="32">
+        <f>AVERAGE('automatically formatted Data'!EH3:EH52)</f>
+        <v>0.21338299999999993</v>
+      </c>
     </row>
-    <row r="6" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="14" t="s">
+    <row r="6" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="26">
         <f>C4/C5</f>
-        <v>0.2004192834827043</v>
+        <v>0.17817827006358666</v>
       </c>
       <c r="D6" s="5">
         <f t="shared" ref="D6:G6" si="0">D4/D5</f>
-        <v>0.85308022205218437</v>
+        <v>0.97247392874699146</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" si="0"/>
-        <v>0.36683493463574357</v>
+        <v>0.84150718185704043</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" si="0"/>
-        <v>0.89074087342680575</v>
-      </c>
-      <c r="G6" s="13">
+        <v>0.88631702411520663</v>
+      </c>
+      <c r="G6" s="5">
         <f t="shared" si="0"/>
-        <v>1.0693264620947005</v>
-      </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
+        <v>1.2498391162320963</v>
+      </c>
+      <c r="H6" s="5">
+        <f t="shared" ref="H6:K6" si="1">H4/H5</f>
+        <v>0.1152173709846349</v>
+      </c>
+      <c r="I6" s="5">
+        <f t="shared" si="1"/>
+        <v>0.44945034041235077</v>
+      </c>
+      <c r="J6" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K6" s="11" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
-      <c r="P6" s="25"/>
-      <c r="R6" s="15" t="s">
+      <c r="P6" s="21"/>
+      <c r="R6" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="S6" s="6">
+      <c r="S6" s="33">
         <f>1-S4/S5</f>
-        <v>0.73781512605042021</v>
-      </c>
-      <c r="T6" s="8">
+        <v>0.73750000000000004</v>
+      </c>
+      <c r="T6" s="34">
         <f>1-T4/T5</f>
-        <v>0.54465222602452534</v>
+        <v>0.54465160834529736</v>
+      </c>
+      <c r="U6" s="34">
+        <f>1-U4/U5</f>
+        <v>1.1981653093702249E-3</v>
+      </c>
+      <c r="V6" s="35">
+        <f>1-V4/V5</f>
+        <v>7.0296134180969361E-5</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="14" t="s">
+    <row r="7" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="26">
         <f>C5/C4</f>
-        <v>4.9895398417902115</v>
+        <v>5.612356656303426</v>
       </c>
       <c r="D7" s="5">
-        <f t="shared" ref="D7:G7" si="1">D5/D4</f>
-        <v>1.1722226985808941</v>
+        <f t="shared" ref="D7:G7" si="2">D5/D4</f>
+        <v>1.0283052022674533</v>
       </c>
       <c r="E7" s="5">
-        <f t="shared" si="1"/>
-        <v>2.7260217214398375</v>
+        <f t="shared" si="2"/>
+        <v>1.1883439875025157</v>
       </c>
       <c r="F7" s="5">
-        <f t="shared" si="1"/>
-        <v>1.1226609554278777</v>
-      </c>
-      <c r="G7" s="13">
-        <f t="shared" si="1"/>
-        <v>0.93516810389327032</v>
-      </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
+        <f t="shared" si="2"/>
+        <v>1.1282644615771438</v>
+      </c>
+      <c r="G7" s="5">
+        <f t="shared" si="2"/>
+        <v>0.8001029788655607</v>
+      </c>
+      <c r="H7" s="5">
+        <f t="shared" ref="H7:K7" si="3">H5/H4</f>
+        <v>8.679246813688863</v>
+      </c>
+      <c r="I7" s="5">
+        <f t="shared" si="3"/>
+        <v>2.2249399101189784</v>
+      </c>
+      <c r="J7" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K7" s="11" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
-      <c r="P7" s="25"/>
+      <c r="P7" s="21"/>
     </row>
-    <row r="8" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="17" t="s">
+    <row r="8" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="14" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="6">
         <f>(1-C4/C5)</f>
-        <v>0.79958071651729568</v>
+        <v>0.82182172993641334</v>
       </c>
       <c r="D8" s="7">
-        <f t="shared" ref="D8:G8" si="2">(1-D4/D5)</f>
-        <v>0.14691977794781563</v>
+        <f t="shared" ref="D8:G8" si="4">(1-D4/D5)</f>
+        <v>2.7526071253008544E-2</v>
       </c>
       <c r="E8" s="7">
-        <f t="shared" si="2"/>
-        <v>0.63316506536425643</v>
+        <f t="shared" si="4"/>
+        <v>0.15849281814295957</v>
       </c>
       <c r="F8" s="7">
-        <f t="shared" si="2"/>
-        <v>0.10925912657319425</v>
-      </c>
-      <c r="G8" s="8">
-        <f t="shared" si="2"/>
-        <v>-6.9326462094700503E-2</v>
-      </c>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="26"/>
+        <f t="shared" si="4"/>
+        <v>0.11368297588479337</v>
+      </c>
+      <c r="G8" s="7">
+        <f t="shared" si="4"/>
+        <v>-0.24983911623209631</v>
+      </c>
+      <c r="H8" s="7">
+        <f t="shared" ref="H8:K8" si="5">(1-H4/H5)</f>
+        <v>0.88478262901536509</v>
+      </c>
+      <c r="I8" s="7">
+        <f t="shared" si="5"/>
+        <v>0.55054965958764923</v>
+      </c>
+      <c r="J8" s="7" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K8" s="8" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="22"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C8:P8 S6:T6">
+  <conditionalFormatting sqref="C8:P8 S6:V6">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>

--- a/grpcbenchmarking.xlsx
+++ b/grpcbenchmarking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Desktop\grpcbenchmarking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE64593-9C4A-4391-973F-1E93325CC372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C525473-5034-4141-B159-C42EA12BEDCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="http size raw data" sheetId="6" r:id="rId3"/>
     <sheet name="http time raw data" sheetId="2" r:id="rId4"/>
     <sheet name="automatically formatted Data" sheetId="4" r:id="rId5"/>
-    <sheet name="Benchmarking" sheetId="3" r:id="rId6"/>
+    <sheet name="+++Benchmarking+++" sheetId="3" r:id="rId6"/>
     <sheet name="Analyse buffersize streaming" sheetId="7" state="hidden" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -211,7 +211,7 @@
     <t>average size uploaded file [Megabyte]</t>
   </si>
   <si>
-    <t>average size downloaded [Megabyte]</t>
+    <t>average size downloaded file [Megabyte]</t>
   </si>
 </sst>
 </file>
@@ -23923,7 +23923,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>246530</xdr:colOff>
+      <xdr:colOff>13607</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>22500</xdr:rowOff>
     </xdr:to>
@@ -23961,7 +23961,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>503030</xdr:colOff>
+      <xdr:colOff>229286</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>22500</xdr:rowOff>
     </xdr:to>
@@ -24189,7 +24189,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>503030</xdr:colOff>
+      <xdr:colOff>229286</xdr:colOff>
       <xdr:row>57</xdr:row>
       <xdr:rowOff>22500</xdr:rowOff>
     </xdr:to>
@@ -42991,9 +42991,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{152BB407-0D0A-47D4-81B8-950D3ABAE83D}">
   <dimension ref="A1:EK52"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="EB8" sqref="EB8"/>
-    </sheetView>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -71264,9 +71262,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6FB7E7E-1FDC-42F4-B7D1-D4663711625F}">
   <dimension ref="A1:V8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V5" sqref="V5"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -71279,7 +71275,7 @@
     <col min="19" max="19" width="29.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="32.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="37.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="36.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="40.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="23" max="16384" width="11.42578125" style="4"/>
   </cols>
   <sheetData>

--- a/grpcbenchmarking.xlsx
+++ b/grpcbenchmarking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Desktop\grpcbenchmarking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C525473-5034-4141-B159-C42EA12BEDCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B08A9B0B-206D-45B1-9D13-AC002B41763B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="grpc size raw data" sheetId="5" r:id="rId1"/>
@@ -24529,7 +24529,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2897631E-1F88-420B-8080-321CE8AAC241}">
   <dimension ref="A1:X50"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -71262,7 +71262,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6FB7E7E-1FDC-42F4-B7D1-D4663711625F}">
   <dimension ref="A1:V8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
